--- a/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13380" windowHeight="10164" tabRatio="936" firstSheet="6" activeTab="12"/>
+    <workbookView windowWidth="28245" windowHeight="11670" tabRatio="936" firstSheet="6" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="464">
   <si>
     <t>返回</t>
   </si>
@@ -1039,9 +1039,6 @@
   </si>
   <si>
     <t>更新时间戳</t>
-  </si>
-  <si>
-    <t>jjsh_material_initial_stock</t>
   </si>
   <si>
     <t>初始库存数量</t>
@@ -1457,11 +1454,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="61">
     <font>
@@ -1559,13 +1556,105 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1579,64 +1668,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,115 +1719,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1780,7 +1742,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1793,10 +1755,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1804,15 +1773,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1820,6 +1783,13 @@
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1832,9 +1802,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1845,7 +1816,31 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1856,7 +1851,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1913,13 +1910,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1931,37 +2000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,25 +2024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2003,49 +2036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2063,19 +2066,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2093,7 +2114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2105,13 +2126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2129,12 +2144,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2147,25 +2156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2200,17 +2197,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2230,24 +2245,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2263,40 +2260,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="double">
-        <color indexed="63"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2313,6 +2286,15 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2337,31 +2319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
       </top>
       <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2384,8 +2352,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="thick">
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2404,683 +2372,724 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3088,298 +3097,286 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3400,33 +3397,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3455,210 +3452,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3676,40 +3673,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3737,52 +3731,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3792,212 +3789,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
@@ -4007,13 +4004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4047,356 +4038,358 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4404,73 +4397,77 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4535,48 +4532,48 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4585,47 +4582,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="326" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 33" xfId="1"/>
+    <cellStyle name="?? 185 2 2" xfId="1"/>
     <cellStyle name="?? 28" xfId="2"/>
-    <cellStyle name="?? 185 2 2" xfId="3"/>
+    <cellStyle name="?? 33" xfId="3"/>
     <cellStyle name="货币[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="常规 44" xfId="5"/>
-    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="常规 39" xfId="5"/>
+    <cellStyle name="常规 44" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 20" xfId="10"/>
-    <cellStyle name="?? 15" xfId="11"/>
+    <cellStyle name="?? 15" xfId="10"/>
+    <cellStyle name="?? 20" xfId="11"/>
     <cellStyle name="常规 2 26" xfId="12"/>
     <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="15"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="15"/>
     <cellStyle name="常规 7 3" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="18" builtinId="39"/>
     <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
-    <cellStyle name="?? 11" xfId="22"/>
+    <cellStyle name="?? 11" xfId="20"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="22"/>
     <cellStyle name="超链接" xfId="23" builtinId="8"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
     <cellStyle name="百分比" xfId="25" builtinId="5"/>
@@ -4656,11 +4653,11 @@
     <cellStyle name="输出" xfId="50" builtinId="21"/>
     <cellStyle name="常规 90" xfId="51"/>
     <cellStyle name="常规 85" xfId="52"/>
-    <cellStyle name="计算" xfId="53" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="54"/>
-    <cellStyle name="Input" xfId="55"/>
-    <cellStyle name="常规 26" xfId="56"/>
-    <cellStyle name="常规 31" xfId="57"/>
+    <cellStyle name="Input" xfId="53"/>
+    <cellStyle name="常规 26" xfId="54"/>
+    <cellStyle name="常规 31" xfId="55"/>
+    <cellStyle name="计算" xfId="56" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="57"/>
     <cellStyle name="检查单元格" xfId="58" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="59" builtinId="50"/>
     <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="60"/>
@@ -4684,9 +4681,9 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="80" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="82"/>
-    <cellStyle name="常规 2 26 2" xfId="83"/>
+    <cellStyle name="常规 2 26 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 3" xfId="82" builtinId="37"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="83"/>
     <cellStyle name="强调文字颜色 4" xfId="84" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="85" builtinId="42"/>
     <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="86"/>
@@ -4699,11 +4696,11 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="95" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="96" builtinId="52"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="97"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="98"/>
-    <cellStyle name="常规 48 3" xfId="99"/>
-    <cellStyle name="常规 53 3" xfId="100"/>
+    <cellStyle name="常规 48 3" xfId="96"/>
+    <cellStyle name="常规 53 3" xfId="97"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="98" builtinId="52"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="99"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="100"/>
     <cellStyle name="?? 12" xfId="101"/>
     <cellStyle name="?? 17" xfId="102"/>
     <cellStyle name="?? 22" xfId="103"/>
@@ -4712,12 +4709,12 @@
     <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="106"/>
     <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="107"/>
     <cellStyle name="??" xfId="108"/>
-    <cellStyle name="?? 10 2" xfId="109"/>
-    <cellStyle name="常规 72" xfId="110"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="111"/>
-    <cellStyle name="常规 67" xfId="112"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="113"/>
-    <cellStyle name="40% - Accent5" xfId="114"/>
+    <cellStyle name="常规 72" xfId="109"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="110"/>
+    <cellStyle name="常规 67" xfId="111"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="112"/>
+    <cellStyle name="40% - Accent5" xfId="113"/>
+    <cellStyle name="?? 10 2" xfId="114"/>
     <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="115"/>
     <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="116"/>
     <cellStyle name="?? 16" xfId="117"/>
@@ -4725,12 +4722,12 @@
     <cellStyle name="常规 2 2 3 2" xfId="119"/>
     <cellStyle name="?? 18" xfId="120"/>
     <cellStyle name="?? 23" xfId="121"/>
-    <cellStyle name="?? 185" xfId="122"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="123"/>
-    <cellStyle name="?? 26" xfId="124"/>
-    <cellStyle name="?? 31" xfId="125"/>
-    <cellStyle name="?? 185 2" xfId="126"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="127"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="122"/>
+    <cellStyle name="?? 185" xfId="123"/>
+    <cellStyle name="?? 185 2" xfId="124"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="125"/>
+    <cellStyle name="?? 26" xfId="126"/>
+    <cellStyle name="?? 31" xfId="127"/>
     <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="128"/>
     <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 19" xfId="130"/>
@@ -4742,41 +4739,41 @@
     <cellStyle name="常规 99 2_ITDM3.2期数据库设计汇总" xfId="136"/>
     <cellStyle name="?? 29" xfId="137"/>
     <cellStyle name="?? 34" xfId="138"/>
-    <cellStyle name="?? 3" xfId="139"/>
-    <cellStyle name="常规 27" xfId="140"/>
-    <cellStyle name="常规 32" xfId="141"/>
+    <cellStyle name="常规 27" xfId="139"/>
+    <cellStyle name="常规 32" xfId="140"/>
+    <cellStyle name="?? 3" xfId="141"/>
     <cellStyle name="?? 35" xfId="142"/>
-    <cellStyle name="?? 36" xfId="143"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="144"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="143"/>
+    <cellStyle name="?? 36" xfId="144"/>
     <cellStyle name="?? 37" xfId="145"/>
     <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="146"/>
     <cellStyle name="?? 38" xfId="147"/>
-    <cellStyle name="?? 4" xfId="148"/>
-    <cellStyle name="常规 62 2" xfId="149"/>
-    <cellStyle name="常规 28" xfId="150"/>
-    <cellStyle name="常规 33" xfId="151"/>
-    <cellStyle name="常规 57 2" xfId="152"/>
-    <cellStyle name="?? 5" xfId="153"/>
-    <cellStyle name="常规 2 4 3 2" xfId="154"/>
-    <cellStyle name="常规 62 3" xfId="155"/>
-    <cellStyle name="常规 29" xfId="156"/>
-    <cellStyle name="常规 34" xfId="157"/>
-    <cellStyle name="常规 57 3" xfId="158"/>
-    <cellStyle name="?? 6" xfId="159"/>
-    <cellStyle name="常规 35" xfId="160"/>
-    <cellStyle name="常规 40" xfId="161"/>
-    <cellStyle name="?? 7" xfId="162"/>
-    <cellStyle name="常规 36" xfId="163"/>
-    <cellStyle name="常规 41" xfId="164"/>
-    <cellStyle name="?? 8" xfId="165"/>
-    <cellStyle name="常规 2 2 2" xfId="166"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="167"/>
-    <cellStyle name="常规 37" xfId="168"/>
-    <cellStyle name="常规 42" xfId="169"/>
-    <cellStyle name="?? 9" xfId="170"/>
-    <cellStyle name="常规 2 2 3" xfId="171"/>
-    <cellStyle name="常规 38" xfId="172"/>
-    <cellStyle name="常规 43" xfId="173"/>
+    <cellStyle name="常规 62 2" xfId="148"/>
+    <cellStyle name="常规 28" xfId="149"/>
+    <cellStyle name="常规 33" xfId="150"/>
+    <cellStyle name="常规 57 2" xfId="151"/>
+    <cellStyle name="?? 4" xfId="152"/>
+    <cellStyle name="常规 62 3" xfId="153"/>
+    <cellStyle name="常规 29" xfId="154"/>
+    <cellStyle name="常规 34" xfId="155"/>
+    <cellStyle name="常规 57 3" xfId="156"/>
+    <cellStyle name="?? 5" xfId="157"/>
+    <cellStyle name="常规 2 4 3 2" xfId="158"/>
+    <cellStyle name="常规 35" xfId="159"/>
+    <cellStyle name="常规 40" xfId="160"/>
+    <cellStyle name="?? 6" xfId="161"/>
+    <cellStyle name="常规 36" xfId="162"/>
+    <cellStyle name="常规 41" xfId="163"/>
+    <cellStyle name="?? 7" xfId="164"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="165"/>
+    <cellStyle name="常规 37" xfId="166"/>
+    <cellStyle name="常规 42" xfId="167"/>
+    <cellStyle name="?? 8" xfId="168"/>
+    <cellStyle name="常规 2 2 2" xfId="169"/>
+    <cellStyle name="常规 38" xfId="170"/>
+    <cellStyle name="常规 43" xfId="171"/>
+    <cellStyle name="?? 9" xfId="172"/>
+    <cellStyle name="常规 2 2 3" xfId="173"/>
     <cellStyle name="??_Sheet1" xfId="174"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="175"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="176"/>
@@ -4787,12 +4784,12 @@
     <cellStyle name="20% - Accent2" xfId="181"/>
     <cellStyle name="20% - Accent2 2" xfId="182"/>
     <cellStyle name="20% - Accent3" xfId="183"/>
-    <cellStyle name="20% - Accent4" xfId="184"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="185"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="186"/>
-    <cellStyle name="常规 5 3 2" xfId="187"/>
-    <cellStyle name="20% - Accent4 2" xfId="188"/>
-    <cellStyle name="常规 4" xfId="189"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="184"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="185"/>
+    <cellStyle name="常规 5 3 2" xfId="186"/>
+    <cellStyle name="20% - Accent4" xfId="187"/>
+    <cellStyle name="常规 4" xfId="188"/>
+    <cellStyle name="20% - Accent4 2" xfId="189"/>
     <cellStyle name="20% - Accent5" xfId="190"/>
     <cellStyle name="20% - Accent5 2" xfId="191"/>
     <cellStyle name="20% - Accent6" xfId="192"/>
@@ -4834,33 +4831,33 @@
     <cellStyle name="常规 73 2" xfId="228"/>
     <cellStyle name="常规 68 2" xfId="229"/>
     <cellStyle name="40% - Accent6 2" xfId="230"/>
-    <cellStyle name="60% - Accent1" xfId="231"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="232"/>
-    <cellStyle name="60% - Accent2" xfId="233"/>
-    <cellStyle name="常规 2 2" xfId="234"/>
-    <cellStyle name="60% - Accent3" xfId="235"/>
-    <cellStyle name="常规 10 2 4 2" xfId="236"/>
-    <cellStyle name="常规 2 3" xfId="237"/>
-    <cellStyle name="60% - Accent4" xfId="238"/>
-    <cellStyle name="常规 2 4" xfId="239"/>
-    <cellStyle name="60% - Accent5" xfId="240"/>
-    <cellStyle name="常规 2 5" xfId="241"/>
-    <cellStyle name="60% - Accent6" xfId="242"/>
-    <cellStyle name="常规 2 6" xfId="243"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="231"/>
+    <cellStyle name="60% - Accent1" xfId="232"/>
+    <cellStyle name="常规 2 2" xfId="233"/>
+    <cellStyle name="60% - Accent2" xfId="234"/>
+    <cellStyle name="常规 2 3" xfId="235"/>
+    <cellStyle name="60% - Accent3" xfId="236"/>
+    <cellStyle name="常规 10 2 4 2" xfId="237"/>
+    <cellStyle name="常规 2 4" xfId="238"/>
+    <cellStyle name="60% - Accent4" xfId="239"/>
+    <cellStyle name="常规 2 5" xfId="240"/>
+    <cellStyle name="60% - Accent5" xfId="241"/>
+    <cellStyle name="常规 2 6" xfId="242"/>
+    <cellStyle name="60% - Accent6" xfId="243"/>
     <cellStyle name="Accent1" xfId="244"/>
     <cellStyle name="Accent2" xfId="245"/>
-    <cellStyle name="Accent3" xfId="246"/>
-    <cellStyle name="常规 102 2" xfId="247"/>
-    <cellStyle name="Accent4" xfId="248"/>
-    <cellStyle name="常规 102 3" xfId="249"/>
-    <cellStyle name="Accent5" xfId="250"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="251"/>
-    <cellStyle name="Accent6" xfId="252"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="253"/>
-    <cellStyle name="常规 92" xfId="254"/>
-    <cellStyle name="常规 87" xfId="255"/>
-    <cellStyle name="Bad" xfId="256"/>
-    <cellStyle name="常规 2 3 2" xfId="257"/>
+    <cellStyle name="常规 102 2" xfId="246"/>
+    <cellStyle name="Accent3" xfId="247"/>
+    <cellStyle name="常规 102 3" xfId="248"/>
+    <cellStyle name="Accent4" xfId="249"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="250"/>
+    <cellStyle name="Accent5" xfId="251"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="252"/>
+    <cellStyle name="Accent6" xfId="253"/>
+    <cellStyle name="常规 2 3 2" xfId="254"/>
+    <cellStyle name="常规 92" xfId="255"/>
+    <cellStyle name="常规 87" xfId="256"/>
+    <cellStyle name="Bad" xfId="257"/>
     <cellStyle name="Calculation" xfId="258"/>
     <cellStyle name="常规 106" xfId="259"/>
     <cellStyle name="常规 111" xfId="260"/>
@@ -4870,25 +4867,25 @@
     <cellStyle name="常规 20" xfId="264"/>
     <cellStyle name="强调文字颜色 1 2" xfId="265"/>
     <cellStyle name="Explanatory Text" xfId="266"/>
-    <cellStyle name="Good" xfId="267"/>
-    <cellStyle name="常规 10" xfId="268"/>
-    <cellStyle name="超链接 9" xfId="269"/>
-    <cellStyle name="常规 16 2" xfId="270"/>
+    <cellStyle name="超链接 9" xfId="267"/>
+    <cellStyle name="常规 16 2" xfId="268"/>
+    <cellStyle name="Good" xfId="269"/>
+    <cellStyle name="常规 10" xfId="270"/>
     <cellStyle name="Heading 1" xfId="271"/>
     <cellStyle name="Heading 2" xfId="272"/>
     <cellStyle name="Heading 4" xfId="273"/>
     <cellStyle name="Linked Cell" xfId="274"/>
     <cellStyle name="Neutral" xfId="275"/>
-    <cellStyle name="Normal 2" xfId="276"/>
-    <cellStyle name="常规 115" xfId="277"/>
-    <cellStyle name="常规 120" xfId="278"/>
-    <cellStyle name="Normal 2 2" xfId="279"/>
-    <cellStyle name="常规 120 2" xfId="280"/>
+    <cellStyle name="常规 115" xfId="276"/>
+    <cellStyle name="常规 120" xfId="277"/>
+    <cellStyle name="Normal 2" xfId="278"/>
+    <cellStyle name="常规 120 2" xfId="279"/>
+    <cellStyle name="Normal 2 2" xfId="280"/>
     <cellStyle name="Normal 2 3" xfId="281"/>
-    <cellStyle name="常规 116" xfId="282"/>
-    <cellStyle name="常规 121" xfId="283"/>
-    <cellStyle name="Normal 3" xfId="284"/>
-    <cellStyle name="常规 3 7 2" xfId="285"/>
+    <cellStyle name="Normal 3" xfId="282"/>
+    <cellStyle name="常规 3 7 2" xfId="283"/>
+    <cellStyle name="常规 116" xfId="284"/>
+    <cellStyle name="常规 121" xfId="285"/>
     <cellStyle name="Normal 3 2" xfId="286"/>
     <cellStyle name="常规 72 2 2" xfId="287"/>
     <cellStyle name="常规 67 2 2" xfId="288"/>
@@ -4898,14 +4895,14 @@
     <cellStyle name="Note 2" xfId="292"/>
     <cellStyle name="Output" xfId="293"/>
     <cellStyle name="常规 4 2 3 4" xfId="294"/>
-    <cellStyle name="Title" xfId="295"/>
-    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="296"/>
-    <cellStyle name="常规 2" xfId="297"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="298"/>
-    <cellStyle name="Total" xfId="299"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="300"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="301"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="302"/>
+    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="295"/>
+    <cellStyle name="常规 2" xfId="296"/>
+    <cellStyle name="Title" xfId="297"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="298"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="299"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="300"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="301"/>
+    <cellStyle name="Total" xfId="302"/>
     <cellStyle name="Warning Text" xfId="303"/>
     <cellStyle name="百分比 2" xfId="304"/>
     <cellStyle name="常规 10 2 2 3 2" xfId="305"/>
@@ -4914,9 +4911,9 @@
     <cellStyle name="差_Sheet1" xfId="308"/>
     <cellStyle name="差_Sheet1 2" xfId="309"/>
     <cellStyle name="差_Sheet2" xfId="310"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="311"/>
-    <cellStyle name="差_Sheet3" xfId="312"/>
-    <cellStyle name="常规 3 2" xfId="313"/>
+    <cellStyle name="差_Sheet3" xfId="311"/>
+    <cellStyle name="常规 3 2" xfId="312"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="313"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="314"/>
     <cellStyle name="常规 96" xfId="315"/>
     <cellStyle name="差_保函明细" xfId="316"/>
@@ -4926,20 +4923,20 @@
     <cellStyle name="常规 50 2 2" xfId="320"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="321"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="322"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="323"/>
-    <cellStyle name="常规 51 2" xfId="324"/>
+    <cellStyle name="常规 51 2" xfId="323"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="324"/>
     <cellStyle name="常规 10 2" xfId="325"/>
-    <cellStyle name="常规 10 2 2" xfId="326"/>
-    <cellStyle name="常规 2 7" xfId="327"/>
+    <cellStyle name="常规 2 7" xfId="326"/>
+    <cellStyle name="常规 10 2 2" xfId="327"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="328"/>
     <cellStyle name="常规 10 2 2 2" xfId="329"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="330"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="331"/>
     <cellStyle name="常规 10 2 2 2 2 2 2" xfId="332"/>
     <cellStyle name="常规 10 2 2 2 3 3" xfId="333"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="334"/>
-    <cellStyle name="常规 47" xfId="335"/>
-    <cellStyle name="常规 52" xfId="336"/>
+    <cellStyle name="常规 47" xfId="334"/>
+    <cellStyle name="常规 52" xfId="335"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="336"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="337"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="338"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="339"/>
@@ -4965,8 +4962,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="359"/>
     <cellStyle name="常规 10 2 2 6" xfId="360"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="361"/>
-    <cellStyle name="常规 10 2 3" xfId="362"/>
-    <cellStyle name="常规 2 8" xfId="363"/>
+    <cellStyle name="常规 2 8" xfId="362"/>
+    <cellStyle name="常规 10 2 3" xfId="363"/>
     <cellStyle name="常规 10 2 3 2" xfId="364"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="365"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="366"/>
@@ -4981,14 +4978,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="375"/>
     <cellStyle name="常规 10 2 3 4" xfId="376"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="377"/>
-    <cellStyle name="常规 10 2 3 5" xfId="378"/>
-    <cellStyle name="常规 2 10" xfId="379"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="380"/>
-    <cellStyle name="常规 10 2 4" xfId="381"/>
-    <cellStyle name="常规 2 9" xfId="382"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="378"/>
+    <cellStyle name="常规 10 2 3 5" xfId="379"/>
+    <cellStyle name="常规 2 10" xfId="380"/>
+    <cellStyle name="常规 2 9" xfId="381"/>
+    <cellStyle name="常规 10 2 4" xfId="382"/>
     <cellStyle name="常规 10 2 5" xfId="383"/>
-    <cellStyle name="常规 10 2 5 2" xfId="384"/>
-    <cellStyle name="常规 3 3" xfId="385"/>
+    <cellStyle name="常规 3 3" xfId="384"/>
+    <cellStyle name="常规 10 2 5 2" xfId="385"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="386"/>
     <cellStyle name="常规 100" xfId="387"/>
     <cellStyle name="常规 4 2 3" xfId="388"/>
@@ -5007,8 +5004,8 @@
     <cellStyle name="常规 101 2" xfId="401"/>
     <cellStyle name="常规 4 6 2" xfId="402"/>
     <cellStyle name="常规 101 2 2" xfId="403"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="404"/>
-    <cellStyle name="常规 101 3" xfId="405"/>
+    <cellStyle name="常规 101 3" xfId="404"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="405"/>
     <cellStyle name="常规 102" xfId="406"/>
     <cellStyle name="常规 4 2 5" xfId="407"/>
     <cellStyle name="常规 4 7" xfId="408"/>
@@ -5043,11 +5040,11 @@
     <cellStyle name="常规 21" xfId="437"/>
     <cellStyle name="常规 17" xfId="438"/>
     <cellStyle name="常规 22" xfId="439"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="440"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 17 2" xfId="442"/>
-    <cellStyle name="常规 55" xfId="443"/>
-    <cellStyle name="常规 60" xfId="444"/>
+    <cellStyle name="常规 55" xfId="440"/>
+    <cellStyle name="常规 60" xfId="441"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="442"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="443"/>
+    <cellStyle name="常规 17 2" xfId="444"/>
     <cellStyle name="常规 18" xfId="445"/>
     <cellStyle name="常规 23" xfId="446"/>
     <cellStyle name="常规 18 2" xfId="447"/>
@@ -5059,10 +5056,10 @@
     <cellStyle name="常规 2 13" xfId="453"/>
     <cellStyle name="常规 95_ITDM3.2期数据库设计汇总" xfId="454"/>
     <cellStyle name="常规 2 14" xfId="455"/>
-    <cellStyle name="常规 2 15" xfId="456"/>
-    <cellStyle name="常规 2 20" xfId="457"/>
-    <cellStyle name="常规 62 2 2" xfId="458"/>
-    <cellStyle name="常规 57 2 2" xfId="459"/>
+    <cellStyle name="常规 62 2 2" xfId="456"/>
+    <cellStyle name="常规 57 2 2" xfId="457"/>
+    <cellStyle name="常规 2 15" xfId="458"/>
+    <cellStyle name="常规 2 20" xfId="459"/>
     <cellStyle name="常规 2 16" xfId="460"/>
     <cellStyle name="常规 2 21" xfId="461"/>
     <cellStyle name="常规 2 16 2" xfId="462"/>
@@ -5082,9 +5079,9 @@
     <cellStyle name="常规 2 3 4 2" xfId="476"/>
     <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="477"/>
     <cellStyle name="常规 2 4 2" xfId="478"/>
-    <cellStyle name="常规 2 4 2 2" xfId="479"/>
-    <cellStyle name="常规 61 3" xfId="480"/>
-    <cellStyle name="常规 56 3" xfId="481"/>
+    <cellStyle name="常规 61 3" xfId="479"/>
+    <cellStyle name="常规 56 3" xfId="480"/>
+    <cellStyle name="常规 2 4 2 2" xfId="481"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="482"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="483"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="484"/>
@@ -5096,259 +5093,259 @@
     <cellStyle name="常规 2 4 3" xfId="490"/>
     <cellStyle name="常规 2 4 4" xfId="491"/>
     <cellStyle name="常规 2 4 5" xfId="492"/>
-    <cellStyle name="常规 2 4 5 2" xfId="493"/>
-    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="494"/>
-    <cellStyle name="常规 59 3" xfId="495"/>
+    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="493"/>
+    <cellStyle name="常规 59 3" xfId="494"/>
+    <cellStyle name="常规 2 4 5 2" xfId="495"/>
     <cellStyle name="常规 25" xfId="496"/>
     <cellStyle name="常规 30" xfId="497"/>
-    <cellStyle name="常规 3" xfId="498"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="499"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="498"/>
+    <cellStyle name="常规 3" xfId="499"/>
     <cellStyle name="常规 3 2 2" xfId="500"/>
     <cellStyle name="常规 3 4" xfId="501"/>
     <cellStyle name="常规 3 5" xfId="502"/>
-    <cellStyle name="常规 3 6" xfId="503"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="504"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="505"/>
-    <cellStyle name="常规 3 7" xfId="506"/>
-    <cellStyle name="常规 91 2 2" xfId="507"/>
-    <cellStyle name="常规 86 2 2" xfId="508"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="509"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="510"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="503"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="504"/>
+    <cellStyle name="常规 3 6" xfId="505"/>
+    <cellStyle name="常规 91 2 2" xfId="506"/>
+    <cellStyle name="常规 86 2 2" xfId="507"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="508"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="509"/>
+    <cellStyle name="常规 3 7" xfId="510"/>
     <cellStyle name="常规 3 8" xfId="511"/>
     <cellStyle name="常规 35 2" xfId="512"/>
     <cellStyle name="常规 4 2" xfId="513"/>
-    <cellStyle name="常规 4 4" xfId="514"/>
-    <cellStyle name="常规 4 2 2" xfId="515"/>
-    <cellStyle name="常规 6 4" xfId="516"/>
-    <cellStyle name="常规 4 2 2 2" xfId="517"/>
+    <cellStyle name="常规 4 2 2" xfId="514"/>
+    <cellStyle name="常规 4 4" xfId="515"/>
+    <cellStyle name="常规 4 2 2 2" xfId="516"/>
+    <cellStyle name="常规 6 4" xfId="517"/>
     <cellStyle name="常规 4 2 3 5" xfId="518"/>
     <cellStyle name="常规 4 3" xfId="519"/>
-    <cellStyle name="常规 5" xfId="520"/>
-    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 50" xfId="522"/>
-    <cellStyle name="常规 45" xfId="523"/>
-    <cellStyle name="常规 50 2" xfId="524"/>
-    <cellStyle name="常规 45 2" xfId="525"/>
+    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 5" xfId="521"/>
+    <cellStyle name="常规 45" xfId="522"/>
+    <cellStyle name="常规 50" xfId="523"/>
+    <cellStyle name="常规 45 2" xfId="524"/>
+    <cellStyle name="常规 50 2" xfId="525"/>
     <cellStyle name="常规 45 2 2 2" xfId="526"/>
     <cellStyle name="常规 45 2 2_ITDM3.2期数据库设计汇总" xfId="527"/>
     <cellStyle name="常规 45 2 3" xfId="528"/>
-    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="529"/>
-    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 50 3" xfId="531"/>
-    <cellStyle name="常规 45 3" xfId="532"/>
+    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="529"/>
+    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 45 3" xfId="531"/>
+    <cellStyle name="常规 50 3" xfId="532"/>
     <cellStyle name="常规 45 3 2" xfId="533"/>
-    <cellStyle name="常规 45 4" xfId="534"/>
-    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="536"/>
-    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="537"/>
-    <cellStyle name="常规 51" xfId="538"/>
-    <cellStyle name="常规 46" xfId="539"/>
-    <cellStyle name="常规 52 2" xfId="540"/>
-    <cellStyle name="常规 47 2" xfId="541"/>
-    <cellStyle name="常规 52 2 2" xfId="542"/>
-    <cellStyle name="常规 47 2 2" xfId="543"/>
-    <cellStyle name="常规 59 2 2" xfId="544"/>
+    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 45 4" xfId="535"/>
+    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="536"/>
+    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="537"/>
+    <cellStyle name="常规 46" xfId="538"/>
+    <cellStyle name="常规 51" xfId="539"/>
+    <cellStyle name="常规 47 2" xfId="540"/>
+    <cellStyle name="常规 52 2" xfId="541"/>
+    <cellStyle name="常规 47 2 2" xfId="542"/>
+    <cellStyle name="常规 52 2 2" xfId="543"/>
+    <cellStyle name="常规 47 3" xfId="544"/>
     <cellStyle name="常规 52 3" xfId="545"/>
-    <cellStyle name="常规 47 3" xfId="546"/>
-    <cellStyle name="常规 53" xfId="547"/>
+    <cellStyle name="常规 59 2 2" xfId="546"/>
+    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="547"/>
     <cellStyle name="常规 48" xfId="548"/>
-    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="549"/>
-    <cellStyle name="常规 53 2 2" xfId="550"/>
-    <cellStyle name="常规 48 2 2" xfId="551"/>
-    <cellStyle name="常规 54" xfId="552"/>
-    <cellStyle name="常规 49" xfId="553"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 54 2 2" xfId="556"/>
-    <cellStyle name="常规 49 2 2" xfId="557"/>
-    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="558"/>
-    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="559"/>
-    <cellStyle name="常规 54 3" xfId="560"/>
-    <cellStyle name="常规 49 3" xfId="561"/>
-    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="常规 53" xfId="549"/>
+    <cellStyle name="常规 48 2 2" xfId="550"/>
+    <cellStyle name="常规 53 2 2" xfId="551"/>
+    <cellStyle name="常规 49" xfId="552"/>
+    <cellStyle name="常规 54" xfId="553"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 49 2 2" xfId="556"/>
+    <cellStyle name="常规 54 2 2" xfId="557"/>
+    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="558"/>
+    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="559"/>
+    <cellStyle name="常规 49 3" xfId="560"/>
+    <cellStyle name="常规 54 3" xfId="561"/>
+    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="563"/>
     <cellStyle name="常规 5 3" xfId="564"/>
     <cellStyle name="常规 5 4" xfId="565"/>
     <cellStyle name="常规 51 3" xfId="566"/>
     <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="567"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 60 2" xfId="569"/>
-    <cellStyle name="常规 55 2" xfId="570"/>
-    <cellStyle name="常规 60 2 2" xfId="571"/>
-    <cellStyle name="常规 55 2 2" xfId="572"/>
-    <cellStyle name="常规 60 3" xfId="573"/>
-    <cellStyle name="常规 55 3" xfId="574"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 61" xfId="577"/>
-    <cellStyle name="常规 56" xfId="578"/>
-    <cellStyle name="常规 61 2" xfId="579"/>
-    <cellStyle name="常规 56 2" xfId="580"/>
-    <cellStyle name="常规 61 2 2" xfId="581"/>
-    <cellStyle name="常规 56 2 2" xfId="582"/>
-    <cellStyle name="常规 57" xfId="583"/>
-    <cellStyle name="常规 62" xfId="584"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="585"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="586"/>
-    <cellStyle name="常规 58 2 2" xfId="587"/>
-    <cellStyle name="常规 63 2 2" xfId="588"/>
-    <cellStyle name="常规 78 2" xfId="589"/>
-    <cellStyle name="常规 83 2" xfId="590"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="593"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="594"/>
-    <cellStyle name="常规 58 3" xfId="595"/>
-    <cellStyle name="常规 63 3" xfId="596"/>
-    <cellStyle name="常规 79" xfId="597"/>
-    <cellStyle name="常规 84" xfId="598"/>
+    <cellStyle name="常规 55 2" xfId="569"/>
+    <cellStyle name="常规 60 2" xfId="570"/>
+    <cellStyle name="常规 55 2 2" xfId="571"/>
+    <cellStyle name="常规 60 2 2" xfId="572"/>
+    <cellStyle name="常规 55 3" xfId="573"/>
+    <cellStyle name="常规 60 3" xfId="574"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 56" xfId="577"/>
+    <cellStyle name="常规 61" xfId="578"/>
+    <cellStyle name="常规 56 2" xfId="579"/>
+    <cellStyle name="常规 61 2" xfId="580"/>
+    <cellStyle name="常规 56 2 2" xfId="581"/>
+    <cellStyle name="常规 61 2 2" xfId="582"/>
+    <cellStyle name="常规 62" xfId="583"/>
+    <cellStyle name="常规 57" xfId="584"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="585"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="586"/>
+    <cellStyle name="常规 83 2" xfId="587"/>
+    <cellStyle name="常规 78 2" xfId="588"/>
+    <cellStyle name="常规 63 2 2" xfId="589"/>
+    <cellStyle name="常规 58 2 2" xfId="590"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="593"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="594"/>
+    <cellStyle name="常规 84" xfId="595"/>
+    <cellStyle name="常规 79" xfId="596"/>
+    <cellStyle name="常规 63 3" xfId="597"/>
+    <cellStyle name="常规 58 3" xfId="598"/>
     <cellStyle name="常规 6 2" xfId="599"/>
-    <cellStyle name="常规 6 3" xfId="600"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="600"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="601"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="602"/>
+    <cellStyle name="常规 6 3" xfId="602"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="603"/>
-    <cellStyle name="常规 65 2 2" xfId="604"/>
+    <cellStyle name="常规 97 3" xfId="604"/>
     <cellStyle name="常规 70 2 2" xfId="605"/>
-    <cellStyle name="常规 97 3" xfId="606"/>
-    <cellStyle name="常规 65 3" xfId="607"/>
-    <cellStyle name="常规 70 3" xfId="608"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="609"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="610"/>
-    <cellStyle name="常规 66 2 2" xfId="611"/>
-    <cellStyle name="常规 71 2 2" xfId="612"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="613"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="614"/>
-    <cellStyle name="常规 66 3" xfId="615"/>
+    <cellStyle name="常规 65 2 2" xfId="606"/>
+    <cellStyle name="常规 70 3" xfId="607"/>
+    <cellStyle name="常规 65 3" xfId="608"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="609"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="610"/>
+    <cellStyle name="常规 71 2 2" xfId="611"/>
+    <cellStyle name="常规 66 2 2" xfId="612"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="613"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="614"/>
+    <cellStyle name="样式 1" xfId="615"/>
     <cellStyle name="常规 71 3" xfId="616"/>
-    <cellStyle name="样式 1" xfId="617"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="618"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="619"/>
-    <cellStyle name="常规 67 3" xfId="620"/>
-    <cellStyle name="常规 72 3" xfId="621"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="622"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="623"/>
-    <cellStyle name="常规 68 2 2" xfId="624"/>
-    <cellStyle name="常规 73 2 2" xfId="625"/>
-    <cellStyle name="常规 68 3" xfId="626"/>
-    <cellStyle name="常规 73 3" xfId="627"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="628"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 69" xfId="630"/>
-    <cellStyle name="常规 74" xfId="631"/>
-    <cellStyle name="常规 69 2" xfId="632"/>
-    <cellStyle name="常规 74 2" xfId="633"/>
-    <cellStyle name="常规 69 2 2" xfId="634"/>
-    <cellStyle name="常规 74 2 2" xfId="635"/>
-    <cellStyle name="常规 69 3" xfId="636"/>
-    <cellStyle name="常规 74 3" xfId="637"/>
+    <cellStyle name="常规 66 3" xfId="617"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="618"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="619"/>
+    <cellStyle name="常规 72 3" xfId="620"/>
+    <cellStyle name="常规 67 3" xfId="621"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="622"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="623"/>
+    <cellStyle name="常规 73 2 2" xfId="624"/>
+    <cellStyle name="常规 68 2 2" xfId="625"/>
+    <cellStyle name="常规 73 3" xfId="626"/>
+    <cellStyle name="常规 68 3" xfId="627"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="628"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 74" xfId="630"/>
+    <cellStyle name="常规 69" xfId="631"/>
+    <cellStyle name="常规 74 2" xfId="632"/>
+    <cellStyle name="常规 69 2" xfId="633"/>
+    <cellStyle name="常规 74 2 2" xfId="634"/>
+    <cellStyle name="常规 69 2 2" xfId="635"/>
+    <cellStyle name="常规 74 3" xfId="636"/>
+    <cellStyle name="常规 69 3" xfId="637"/>
     <cellStyle name="常规 7" xfId="638"/>
     <cellStyle name="常规 7 2" xfId="639"/>
-    <cellStyle name="常规 75" xfId="640"/>
-    <cellStyle name="常规 80" xfId="641"/>
-    <cellStyle name="常规 75 2" xfId="642"/>
+    <cellStyle name="常规 80" xfId="640"/>
+    <cellStyle name="常规 75" xfId="641"/>
+    <cellStyle name="超链接 19" xfId="642"/>
     <cellStyle name="常规 80 2" xfId="643"/>
-    <cellStyle name="超链接 19" xfId="644"/>
-    <cellStyle name="常规 75 2 2" xfId="645"/>
-    <cellStyle name="常规 80 2 2" xfId="646"/>
-    <cellStyle name="常规 75 3" xfId="647"/>
-    <cellStyle name="常规 80 3" xfId="648"/>
-    <cellStyle name="常规 76" xfId="649"/>
-    <cellStyle name="常规 81" xfId="650"/>
-    <cellStyle name="常规 76 2" xfId="651"/>
-    <cellStyle name="常规 81 2" xfId="652"/>
-    <cellStyle name="常规 76 3" xfId="653"/>
-    <cellStyle name="常规 81 3" xfId="654"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="655"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="656"/>
-    <cellStyle name="常规 77" xfId="657"/>
-    <cellStyle name="常规 82" xfId="658"/>
-    <cellStyle name="常规 77 2" xfId="659"/>
-    <cellStyle name="常规 82 2" xfId="660"/>
-    <cellStyle name="常规 77 2 2" xfId="661"/>
-    <cellStyle name="常规 82 2 2" xfId="662"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="664"/>
-    <cellStyle name="常规 77 3" xfId="665"/>
-    <cellStyle name="常规 82 3" xfId="666"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="667"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="668"/>
-    <cellStyle name="常规 78 2 2" xfId="669"/>
-    <cellStyle name="常规 83 2 2" xfId="670"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 78 3" xfId="673"/>
-    <cellStyle name="常规 83 3" xfId="674"/>
-    <cellStyle name="常规 79 2" xfId="675"/>
-    <cellStyle name="常规 84 2" xfId="676"/>
-    <cellStyle name="常规 79 2 2" xfId="677"/>
-    <cellStyle name="常规 84 2 2" xfId="678"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="679"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 79 3" xfId="681"/>
-    <cellStyle name="常规 84 3" xfId="682"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="684"/>
+    <cellStyle name="常规 75 2" xfId="644"/>
+    <cellStyle name="常规 80 2 2" xfId="645"/>
+    <cellStyle name="常规 75 2 2" xfId="646"/>
+    <cellStyle name="常规 80 3" xfId="647"/>
+    <cellStyle name="常规 75 3" xfId="648"/>
+    <cellStyle name="常规 81" xfId="649"/>
+    <cellStyle name="常规 76" xfId="650"/>
+    <cellStyle name="常规 81 2" xfId="651"/>
+    <cellStyle name="常规 76 2" xfId="652"/>
+    <cellStyle name="常规 81 3" xfId="653"/>
+    <cellStyle name="常规 76 3" xfId="654"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="655"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="656"/>
+    <cellStyle name="常规 82" xfId="657"/>
+    <cellStyle name="常规 77" xfId="658"/>
+    <cellStyle name="常规 82 2" xfId="659"/>
+    <cellStyle name="常规 77 2" xfId="660"/>
+    <cellStyle name="常规 82 2 2" xfId="661"/>
+    <cellStyle name="常规 77 2 2" xfId="662"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 82 3" xfId="665"/>
+    <cellStyle name="常规 77 3" xfId="666"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="667"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="668"/>
+    <cellStyle name="常规 83 2 2" xfId="669"/>
+    <cellStyle name="常规 78 2 2" xfId="670"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 83 3" xfId="673"/>
+    <cellStyle name="常规 78 3" xfId="674"/>
+    <cellStyle name="常规 84 2" xfId="675"/>
+    <cellStyle name="常规 79 2" xfId="676"/>
+    <cellStyle name="常规 84 2 2" xfId="677"/>
+    <cellStyle name="常规 79 2 2" xfId="678"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="679"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 84 3" xfId="681"/>
+    <cellStyle name="常规 79 3" xfId="682"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="684"/>
     <cellStyle name="常规 8" xfId="685"/>
-    <cellStyle name="常规 85 2" xfId="686"/>
-    <cellStyle name="常规 90 2" xfId="687"/>
-    <cellStyle name="常规 85 2 2" xfId="688"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="689"/>
-    <cellStyle name="常规 90 2 2" xfId="690"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="692"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="693"/>
-    <cellStyle name="常规 85 3" xfId="694"/>
-    <cellStyle name="常规 90 3" xfId="695"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="696"/>
+    <cellStyle name="常规 90 2" xfId="686"/>
+    <cellStyle name="常规 85 2" xfId="687"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="688"/>
+    <cellStyle name="常规 90 2 2" xfId="689"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 85 2 2" xfId="691"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="692"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="693"/>
+    <cellStyle name="常规 90 3" xfId="694"/>
+    <cellStyle name="常规 85 3" xfId="695"/>
+    <cellStyle name="常规 96 3" xfId="696"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="697"/>
-    <cellStyle name="常规 96 3" xfId="698"/>
-    <cellStyle name="常规 86" xfId="699"/>
-    <cellStyle name="常规 91" xfId="700"/>
-    <cellStyle name="常规 86 2" xfId="701"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="702"/>
-    <cellStyle name="常规 91 2" xfId="703"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="704"/>
-    <cellStyle name="常规 86 3" xfId="705"/>
-    <cellStyle name="常规 91 3" xfId="706"/>
-    <cellStyle name="常规 87 2" xfId="707"/>
-    <cellStyle name="常规 92 2" xfId="708"/>
-    <cellStyle name="常规 87 2 2" xfId="709"/>
-    <cellStyle name="常规 92 2 2" xfId="710"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="711"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="712"/>
-    <cellStyle name="常规 87 3" xfId="713"/>
-    <cellStyle name="常规 92 3" xfId="714"/>
-    <cellStyle name="常规 88" xfId="715"/>
-    <cellStyle name="常规 93" xfId="716"/>
-    <cellStyle name="常规 88 2" xfId="717"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 91" xfId="699"/>
+    <cellStyle name="常规 86" xfId="700"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="701"/>
+    <cellStyle name="常规 91 2" xfId="702"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="703"/>
+    <cellStyle name="常规 86 2" xfId="704"/>
+    <cellStyle name="常规 91 3" xfId="705"/>
+    <cellStyle name="常规 86 3" xfId="706"/>
+    <cellStyle name="常规 92 2" xfId="707"/>
+    <cellStyle name="常规 87 2" xfId="708"/>
+    <cellStyle name="常规 92 2 2" xfId="709"/>
+    <cellStyle name="常规 87 2 2" xfId="710"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="711"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="712"/>
+    <cellStyle name="常规 92 3" xfId="713"/>
+    <cellStyle name="常规 87 3" xfId="714"/>
+    <cellStyle name="常规 93" xfId="715"/>
+    <cellStyle name="常规 88" xfId="716"/>
+    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="717"/>
     <cellStyle name="常规 93 2" xfId="718"/>
-    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="719"/>
-    <cellStyle name="常规 88 2 2" xfId="720"/>
-    <cellStyle name="常规 93 2 2" xfId="721"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="722"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 88 3" xfId="724"/>
-    <cellStyle name="常规 93 3" xfId="725"/>
-    <cellStyle name="常规 89" xfId="726"/>
-    <cellStyle name="常规 94" xfId="727"/>
-    <cellStyle name="常规 89 2" xfId="728"/>
-    <cellStyle name="常规 94 2" xfId="729"/>
-    <cellStyle name="常规 89 2 2" xfId="730"/>
-    <cellStyle name="常规 94 2 2" xfId="731"/>
-    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="732"/>
-    <cellStyle name="常规 98" xfId="733"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="734"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="735"/>
-    <cellStyle name="常规 89 3" xfId="736"/>
-    <cellStyle name="常规 94 3" xfId="737"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="738"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="739"/>
+    <cellStyle name="常规 88 2" xfId="719"/>
+    <cellStyle name="常规 93 2 2" xfId="720"/>
+    <cellStyle name="常规 88 2 2" xfId="721"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="722"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 93 3" xfId="724"/>
+    <cellStyle name="常规 88 3" xfId="725"/>
+    <cellStyle name="常规 94" xfId="726"/>
+    <cellStyle name="常规 89" xfId="727"/>
+    <cellStyle name="常规 94 2" xfId="728"/>
+    <cellStyle name="常规 89 2" xfId="729"/>
+    <cellStyle name="常规 98" xfId="730"/>
+    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="731"/>
+    <cellStyle name="常规 94 2 2" xfId="732"/>
+    <cellStyle name="常规 89 2 2" xfId="733"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="734"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="735"/>
+    <cellStyle name="常规 94 3" xfId="736"/>
+    <cellStyle name="常规 89 3" xfId="737"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="738"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="739"/>
     <cellStyle name="常规 9" xfId="740"/>
     <cellStyle name="常规 9 2" xfId="741"/>
     <cellStyle name="常规 95" xfId="742"/>
     <cellStyle name="常规 95 2" xfId="743"/>
-    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="744"/>
-    <cellStyle name="常规 95 3" xfId="745"/>
+    <cellStyle name="常规 95 3" xfId="744"/>
+    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="745"/>
     <cellStyle name="常规 96 2" xfId="746"/>
     <cellStyle name="常规 96 2 2" xfId="747"/>
     <cellStyle name="常规 96_ITDM3.2期数据库设计汇总" xfId="748"/>
@@ -5370,17 +5367,17 @@
     <cellStyle name="超链接 12" xfId="764"/>
     <cellStyle name="超链接 13" xfId="765"/>
     <cellStyle name="超链接 14" xfId="766"/>
-    <cellStyle name="超链接 16" xfId="767"/>
-    <cellStyle name="超链接 21" xfId="768"/>
-    <cellStyle name="超链接 17" xfId="769"/>
-    <cellStyle name="超链接 22" xfId="770"/>
+    <cellStyle name="超链接 21" xfId="767"/>
+    <cellStyle name="超链接 16" xfId="768"/>
+    <cellStyle name="超链接 22" xfId="769"/>
+    <cellStyle name="超链接 17" xfId="770"/>
     <cellStyle name="超链接 18" xfId="771"/>
-    <cellStyle name="超链接 2" xfId="772"/>
-    <cellStyle name="好_Sheet1" xfId="773"/>
-    <cellStyle name="超链接 3" xfId="774"/>
-    <cellStyle name="好_Sheet2" xfId="775"/>
-    <cellStyle name="超链接 4" xfId="776"/>
-    <cellStyle name="好_Sheet3" xfId="777"/>
+    <cellStyle name="好_Sheet1" xfId="772"/>
+    <cellStyle name="超链接 2" xfId="773"/>
+    <cellStyle name="好_Sheet2" xfId="774"/>
+    <cellStyle name="超链接 3" xfId="775"/>
+    <cellStyle name="好_Sheet3" xfId="776"/>
+    <cellStyle name="超链接 4" xfId="777"/>
     <cellStyle name="超链接 7" xfId="778"/>
     <cellStyle name="超链接 8" xfId="779"/>
     <cellStyle name="好_Sheet1 2" xfId="780"/>
@@ -6482,15 +6479,15 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6296296296296" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="14.6333333333333" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="8" style="23" customWidth="1"/>
-    <col min="3" max="4" width="14.6296296296296" style="23"/>
-    <col min="5" max="5" width="7.62962962962963" style="23" customWidth="1"/>
+    <col min="3" max="4" width="14.6333333333333" style="23"/>
+    <col min="5" max="5" width="7.63333333333333" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.1296296296296" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="14.6296296296296" style="23"/>
+    <col min="7" max="7" width="10.1333333333333" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="14.6333333333333" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6955,13 +6952,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7078,7 +7075,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
@@ -7118,13 +7115,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7313,13 +7310,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7693,20 +7690,20 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="28.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="14.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="23.775" customWidth="1"/>
+    <col min="2" max="2" width="28.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7858,13 +7855,13 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="30.1296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8102,16 +8099,16 @@
       <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="18.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="19.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.3833333333333" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8228,7 +8225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
@@ -8268,16 +8265,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8615,20 +8612,20 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="23.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="32.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="32.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8640,7 +8637,7 @@
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
-        <v>328</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8725,7 +8722,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8785,13 +8782,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="30.3796296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8842,7 +8839,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -8854,7 +8851,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8871,7 +8868,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8893,7 +8890,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -8905,10 +8902,10 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
@@ -8948,15 +8945,15 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="23.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="23.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +9004,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -9019,12 +9016,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -9036,7 +9033,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9070,7 +9067,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9087,7 +9084,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9149,12 +9146,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6296296296296" defaultRowHeight="10.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="17.6333333333333" defaultRowHeight="11.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.3796296296296" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.3796296296296" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="17.6296296296296" style="16"/>
+    <col min="1" max="1" width="36.3833333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.3833333333333" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="17.6333333333333" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9168,7 +9165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -9179,7 +9176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -9190,7 +9187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -9201,7 +9198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
@@ -9212,7 +9209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -9223,7 +9220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:3">
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -9234,7 +9231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -9245,7 +9242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -9256,7 +9253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
@@ -9267,7 +9264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
@@ -9278,7 +9275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
@@ -9289,7 +9286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -9300,7 +9297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -9311,7 +9308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -9322,7 +9319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:3">
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
@@ -9333,7 +9330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -9344,7 +9341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:3">
+    <row r="18" ht="14.25" spans="1:3">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -9355,7 +9352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -9366,7 +9363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="1:3">
+    <row r="20" ht="14.25" spans="1:3">
       <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
@@ -9377,7 +9374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="14.4" spans="1:3">
+    <row r="21" ht="14.25" spans="1:3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -9388,7 +9385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="1:3">
+    <row r="22" ht="14.25" spans="1:3">
       <c r="A22" s="19" t="s">
         <v>59</v>
       </c>
@@ -9399,7 +9396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="1:3">
+    <row r="23" ht="14.25" spans="1:3">
       <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
@@ -9410,7 +9407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="14.4" spans="1:3">
+    <row r="24" ht="14.25" spans="1:3">
       <c r="A24" s="19" t="s">
         <v>63</v>
       </c>
@@ -9421,7 +9418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="1:3">
+    <row r="25" ht="14.25" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -9432,7 +9429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.4" spans="1:3">
+    <row r="26" ht="14.25" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -9443,7 +9440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="14.4" spans="1:3">
+    <row r="27" ht="14.25" spans="1:3">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -9454,7 +9451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="1:3">
+    <row r="28" ht="14.25" spans="1:3">
       <c r="A28" s="19" t="s">
         <v>71</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="1:3">
+    <row r="29" ht="14.25" spans="1:3">
       <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
@@ -9476,7 +9473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:3">
+    <row r="30" ht="14.25" spans="1:3">
       <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
@@ -9487,7 +9484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="14.4" spans="1:3">
+    <row r="31" ht="14.25" spans="1:3">
       <c r="A31" s="19" t="s">
         <v>77</v>
       </c>
@@ -9553,15 +9550,15 @@
       <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="26.6333333333333" customWidth="1"/>
     <col min="2" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9612,7 +9609,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -9624,7 +9621,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9641,12 +9638,12 @@
         <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -9658,15 +9655,15 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -9707,7 +9704,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9727,7 +9724,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>84</v>
@@ -9739,7 +9736,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9782,15 +9779,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="54.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="54.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9841,7 +9838,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -9853,12 +9850,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -9870,12 +9867,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -9887,7 +9884,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9921,7 +9918,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9938,7 +9935,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10028,13 +10025,13 @@
       <selection activeCell="A6" sqref="A6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10114,7 +10111,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10134,7 +10131,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>105</v>
       </c>
@@ -10174,16 +10171,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10191,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
@@ -10234,7 +10231,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -10246,12 +10243,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -10263,12 +10260,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -10280,7 +10277,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -10306,13 +10303,13 @@
       <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10397,7 +10394,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -10409,12 +10406,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -10446,7 +10443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>105</v>
       </c>
@@ -10506,14 +10503,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="20.6296296296296" customWidth="1"/>
+    <col min="4" max="5" width="20.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10547,7 +10544,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>88</v>
@@ -10564,7 +10561,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -10576,12 +10573,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -10593,12 +10590,12 @@
         <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>84</v>
@@ -10610,12 +10607,12 @@
         <v>85</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>152</v>
@@ -10627,7 +10624,7 @@
         <v>85</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10670,15 +10667,15 @@
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10741,12 +10738,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -10758,12 +10755,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -10775,7 +10772,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10795,7 +10792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
@@ -10841,7 +10838,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10861,7 +10858,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>84</v>
@@ -10873,12 +10870,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>84</v>
@@ -10890,7 +10887,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10933,13 +10930,13 @@
       <selection activeCell="A24" sqref="A24:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10990,7 +10987,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -11002,12 +10999,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11019,12 +11016,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -11036,12 +11033,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -11053,12 +11050,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -11075,7 +11072,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>263</v>
@@ -11087,7 +11084,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11126,7 +11123,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>94</v>
@@ -11138,12 +11135,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>94</v>
@@ -11155,12 +11152,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>94</v>
@@ -11172,12 +11169,12 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>94</v>
@@ -11189,12 +11186,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>94</v>
@@ -11206,12 +11203,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -11223,12 +11220,12 @@
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>88</v>
@@ -11240,7 +11237,7 @@
         <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11257,12 +11254,12 @@
         <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>88</v>
@@ -11274,12 +11271,12 @@
         <v>89</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>88</v>
@@ -11291,12 +11288,12 @@
         <v>89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>88</v>
@@ -11308,7 +11305,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11345,7 +11342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:5">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>105</v>
       </c>
@@ -11385,13 +11382,13 @@
       <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="36.8796296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11442,7 +11439,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -11454,12 +11451,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11471,12 +11468,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -11488,12 +11485,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -11505,12 +11502,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -11522,12 +11519,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -11539,12 +11536,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -11561,7 +11558,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>88</v>
@@ -11573,12 +11570,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" spans="1:5">
-      <c r="A12" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>88</v>
@@ -11590,7 +11587,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11650,16 +11647,16 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="26.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="26.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="12.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="26.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="26.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11722,12 +11719,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11739,12 +11736,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>152</v>
@@ -11756,12 +11753,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>152</v>
@@ -11773,7 +11770,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
@@ -11833,13 +11830,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="32.1296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12047,13 +12044,13 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12116,12 +12113,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12133,12 +12130,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12150,12 +12147,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>152</v>
@@ -12167,7 +12164,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12227,9 +12224,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12284,7 +12281,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12296,12 +12293,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12313,12 +12310,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12330,12 +12327,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12347,12 +12344,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -12364,12 +12361,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -12381,12 +12378,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -12398,12 +12395,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>263</v>
@@ -12415,12 +12412,12 @@
         <v>85</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>263</v>
@@ -12432,12 +12429,12 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>263</v>
@@ -12449,12 +12446,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>88</v>
@@ -12466,7 +12463,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12526,15 +12523,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="29.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="29.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12597,12 +12594,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12614,12 +12611,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12631,12 +12628,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12648,10 +12645,10 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>105</v>
       </c>
@@ -12691,13 +12688,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13005,13 +13002,13 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13213,7 +13210,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>144</v>
       </c>
@@ -13253,13 +13250,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="34.8796296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13518,13 +13515,13 @@
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13960,7 +13957,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:5">
+    <row r="27" ht="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>189</v>
       </c>
@@ -13977,7 +13974,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:5">
+    <row r="28" ht="27" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>191</v>
       </c>
@@ -14103,13 +14100,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14623,13 +14620,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14865,7 +14862,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>105</v>
       </c>

--- a/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="11670" tabRatio="936" firstSheet="6" activeTab="16"/>
+    <workbookView windowWidth="13091" windowHeight="9155" tabRatio="936" firstSheet="21" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="464">
   <si>
     <t>返回</t>
   </si>
@@ -357,12 +357,24 @@
     <t>remark</t>
   </si>
   <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
     <t>is_default</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>是否默认</t>
   </si>
   <si>
@@ -519,12 +531,6 @@
     <t>类型</t>
   </si>
   <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>排序</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -808,12 +814,6 @@
   </si>
   <si>
     <t>收缩</t>
-  </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>启用</t>
   </si>
   <si>
     <t>push_btn</t>
@@ -1454,11 +1454,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="61">
     <font>
@@ -1556,38 +1556,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1601,18 +1569,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1620,6 +1606,14 @@
       <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1632,31 +1626,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1667,15 +1640,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1689,32 +1688,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1722,6 +1698,13 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1754,9 +1737,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1773,6 +1755,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
@@ -1780,23 +1780,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1808,20 +1794,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="23"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1844,9 +1827,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1910,19 +1910,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,61 +1970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2006,49 +1988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,13 +2018,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2096,12 +2048,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2114,7 +2060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2126,7 +2078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2144,6 +2102,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2156,7 +2120,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2168,7 +2150,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,39 +2193,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2260,16 +2227,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2286,6 +2271,21 @@
       </top>
       <bottom style="thin">
         <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2334,41 +2334,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2391,6 +2361,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2404,979 +2404,979 @@
   </borders>
   <cellStyleXfs count="792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="49" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3397,33 +3397,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3452,210 +3452,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3673,37 +3673,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3731,55 +3734,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3789,212 +3789,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
@@ -4004,7 +4004,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4038,358 +4044,356 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -4397,77 +4401,73 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4493,18 +4493,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4532,48 +4532,48 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4582,47 +4582,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="326" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 185 2 2" xfId="1"/>
+    <cellStyle name="?? 33" xfId="1"/>
     <cellStyle name="?? 28" xfId="2"/>
-    <cellStyle name="?? 33" xfId="3"/>
+    <cellStyle name="?? 185 2 2" xfId="3"/>
     <cellStyle name="货币[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="常规 39" xfId="5"/>
-    <cellStyle name="常规 44" xfId="6"/>
+    <cellStyle name="常规 44" xfId="5"/>
+    <cellStyle name="常规 39" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 15" xfId="10"/>
-    <cellStyle name="?? 20" xfId="11"/>
+    <cellStyle name="?? 20" xfId="10"/>
+    <cellStyle name="?? 15" xfId="11"/>
     <cellStyle name="常规 2 26" xfId="12"/>
     <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="15"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="15"/>
     <cellStyle name="常规 7 3" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="18" builtinId="39"/>
     <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="?? 11" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
+    <cellStyle name="?? 11" xfId="22"/>
     <cellStyle name="超链接" xfId="23" builtinId="8"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
     <cellStyle name="百分比" xfId="25" builtinId="5"/>
@@ -4653,11 +4653,11 @@
     <cellStyle name="输出" xfId="50" builtinId="21"/>
     <cellStyle name="常规 90" xfId="51"/>
     <cellStyle name="常规 85" xfId="52"/>
-    <cellStyle name="Input" xfId="53"/>
-    <cellStyle name="常规 26" xfId="54"/>
-    <cellStyle name="常规 31" xfId="55"/>
-    <cellStyle name="计算" xfId="56" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="57"/>
+    <cellStyle name="计算" xfId="53" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="54"/>
+    <cellStyle name="Input" xfId="55"/>
+    <cellStyle name="常规 26" xfId="56"/>
+    <cellStyle name="常规 31" xfId="57"/>
     <cellStyle name="检查单元格" xfId="58" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="59" builtinId="50"/>
     <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="60"/>
@@ -4681,9 +4681,9 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="80" builtinId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 3" xfId="82" builtinId="37"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="83"/>
+    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="82"/>
+    <cellStyle name="常规 2 26 2" xfId="83"/>
     <cellStyle name="强调文字颜色 4" xfId="84" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="85" builtinId="42"/>
     <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="86"/>
@@ -4696,11 +4696,11 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="95" builtinId="51"/>
-    <cellStyle name="常规 48 3" xfId="96"/>
-    <cellStyle name="常规 53 3" xfId="97"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="98" builtinId="52"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="99"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="100"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="96" builtinId="52"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="97"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="98"/>
+    <cellStyle name="常规 48 3" xfId="99"/>
+    <cellStyle name="常规 53 3" xfId="100"/>
     <cellStyle name="?? 12" xfId="101"/>
     <cellStyle name="?? 17" xfId="102"/>
     <cellStyle name="?? 22" xfId="103"/>
@@ -4709,12 +4709,12 @@
     <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="106"/>
     <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="107"/>
     <cellStyle name="??" xfId="108"/>
-    <cellStyle name="常规 72" xfId="109"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="110"/>
-    <cellStyle name="常规 67" xfId="111"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="112"/>
-    <cellStyle name="40% - Accent5" xfId="113"/>
-    <cellStyle name="?? 10 2" xfId="114"/>
+    <cellStyle name="?? 10 2" xfId="109"/>
+    <cellStyle name="常规 72" xfId="110"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="111"/>
+    <cellStyle name="常规 67" xfId="112"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="113"/>
+    <cellStyle name="40% - Accent5" xfId="114"/>
     <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="115"/>
     <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="116"/>
     <cellStyle name="?? 16" xfId="117"/>
@@ -4722,12 +4722,12 @@
     <cellStyle name="常规 2 2 3 2" xfId="119"/>
     <cellStyle name="?? 18" xfId="120"/>
     <cellStyle name="?? 23" xfId="121"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="122"/>
-    <cellStyle name="?? 185" xfId="123"/>
-    <cellStyle name="?? 185 2" xfId="124"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="125"/>
-    <cellStyle name="?? 26" xfId="126"/>
-    <cellStyle name="?? 31" xfId="127"/>
+    <cellStyle name="?? 185" xfId="122"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="123"/>
+    <cellStyle name="?? 26" xfId="124"/>
+    <cellStyle name="?? 31" xfId="125"/>
+    <cellStyle name="?? 185 2" xfId="126"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="127"/>
     <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="128"/>
     <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 19" xfId="130"/>
@@ -4739,41 +4739,41 @@
     <cellStyle name="常规 99 2_ITDM3.2期数据库设计汇总" xfId="136"/>
     <cellStyle name="?? 29" xfId="137"/>
     <cellStyle name="?? 34" xfId="138"/>
-    <cellStyle name="常规 27" xfId="139"/>
-    <cellStyle name="常规 32" xfId="140"/>
-    <cellStyle name="?? 3" xfId="141"/>
+    <cellStyle name="?? 3" xfId="139"/>
+    <cellStyle name="常规 27" xfId="140"/>
+    <cellStyle name="常规 32" xfId="141"/>
     <cellStyle name="?? 35" xfId="142"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="143"/>
-    <cellStyle name="?? 36" xfId="144"/>
+    <cellStyle name="?? 36" xfId="143"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="144"/>
     <cellStyle name="?? 37" xfId="145"/>
     <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="146"/>
     <cellStyle name="?? 38" xfId="147"/>
-    <cellStyle name="常规 62 2" xfId="148"/>
-    <cellStyle name="常规 28" xfId="149"/>
-    <cellStyle name="常规 33" xfId="150"/>
-    <cellStyle name="常规 57 2" xfId="151"/>
-    <cellStyle name="?? 4" xfId="152"/>
-    <cellStyle name="常规 62 3" xfId="153"/>
-    <cellStyle name="常规 29" xfId="154"/>
-    <cellStyle name="常规 34" xfId="155"/>
-    <cellStyle name="常规 57 3" xfId="156"/>
-    <cellStyle name="?? 5" xfId="157"/>
-    <cellStyle name="常规 2 4 3 2" xfId="158"/>
-    <cellStyle name="常规 35" xfId="159"/>
-    <cellStyle name="常规 40" xfId="160"/>
-    <cellStyle name="?? 6" xfId="161"/>
-    <cellStyle name="常规 36" xfId="162"/>
-    <cellStyle name="常规 41" xfId="163"/>
-    <cellStyle name="?? 7" xfId="164"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="165"/>
-    <cellStyle name="常规 37" xfId="166"/>
-    <cellStyle name="常规 42" xfId="167"/>
-    <cellStyle name="?? 8" xfId="168"/>
-    <cellStyle name="常规 2 2 2" xfId="169"/>
-    <cellStyle name="常规 38" xfId="170"/>
-    <cellStyle name="常规 43" xfId="171"/>
-    <cellStyle name="?? 9" xfId="172"/>
-    <cellStyle name="常规 2 2 3" xfId="173"/>
+    <cellStyle name="?? 4" xfId="148"/>
+    <cellStyle name="常规 62 2" xfId="149"/>
+    <cellStyle name="常规 28" xfId="150"/>
+    <cellStyle name="常规 33" xfId="151"/>
+    <cellStyle name="常规 57 2" xfId="152"/>
+    <cellStyle name="?? 5" xfId="153"/>
+    <cellStyle name="常规 2 4 3 2" xfId="154"/>
+    <cellStyle name="常规 62 3" xfId="155"/>
+    <cellStyle name="常规 29" xfId="156"/>
+    <cellStyle name="常规 34" xfId="157"/>
+    <cellStyle name="常规 57 3" xfId="158"/>
+    <cellStyle name="?? 6" xfId="159"/>
+    <cellStyle name="常规 35" xfId="160"/>
+    <cellStyle name="常规 40" xfId="161"/>
+    <cellStyle name="?? 7" xfId="162"/>
+    <cellStyle name="常规 36" xfId="163"/>
+    <cellStyle name="常规 41" xfId="164"/>
+    <cellStyle name="?? 8" xfId="165"/>
+    <cellStyle name="常规 2 2 2" xfId="166"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="167"/>
+    <cellStyle name="常规 37" xfId="168"/>
+    <cellStyle name="常规 42" xfId="169"/>
+    <cellStyle name="?? 9" xfId="170"/>
+    <cellStyle name="常规 2 2 3" xfId="171"/>
+    <cellStyle name="常规 38" xfId="172"/>
+    <cellStyle name="常规 43" xfId="173"/>
     <cellStyle name="??_Sheet1" xfId="174"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="175"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="176"/>
@@ -4784,12 +4784,12 @@
     <cellStyle name="20% - Accent2" xfId="181"/>
     <cellStyle name="20% - Accent2 2" xfId="182"/>
     <cellStyle name="20% - Accent3" xfId="183"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="184"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="185"/>
-    <cellStyle name="常规 5 3 2" xfId="186"/>
-    <cellStyle name="20% - Accent4" xfId="187"/>
-    <cellStyle name="常规 4" xfId="188"/>
-    <cellStyle name="20% - Accent4 2" xfId="189"/>
+    <cellStyle name="20% - Accent4" xfId="184"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="185"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="186"/>
+    <cellStyle name="常规 5 3 2" xfId="187"/>
+    <cellStyle name="20% - Accent4 2" xfId="188"/>
+    <cellStyle name="常规 4" xfId="189"/>
     <cellStyle name="20% - Accent5" xfId="190"/>
     <cellStyle name="20% - Accent5 2" xfId="191"/>
     <cellStyle name="20% - Accent6" xfId="192"/>
@@ -4831,33 +4831,33 @@
     <cellStyle name="常规 73 2" xfId="228"/>
     <cellStyle name="常规 68 2" xfId="229"/>
     <cellStyle name="40% - Accent6 2" xfId="230"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="231"/>
-    <cellStyle name="60% - Accent1" xfId="232"/>
-    <cellStyle name="常规 2 2" xfId="233"/>
-    <cellStyle name="60% - Accent2" xfId="234"/>
-    <cellStyle name="常规 2 3" xfId="235"/>
-    <cellStyle name="60% - Accent3" xfId="236"/>
-    <cellStyle name="常规 10 2 4 2" xfId="237"/>
-    <cellStyle name="常规 2 4" xfId="238"/>
-    <cellStyle name="60% - Accent4" xfId="239"/>
-    <cellStyle name="常规 2 5" xfId="240"/>
-    <cellStyle name="60% - Accent5" xfId="241"/>
-    <cellStyle name="常规 2 6" xfId="242"/>
-    <cellStyle name="60% - Accent6" xfId="243"/>
+    <cellStyle name="60% - Accent1" xfId="231"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="232"/>
+    <cellStyle name="60% - Accent2" xfId="233"/>
+    <cellStyle name="常规 2 2" xfId="234"/>
+    <cellStyle name="60% - Accent3" xfId="235"/>
+    <cellStyle name="常规 10 2 4 2" xfId="236"/>
+    <cellStyle name="常规 2 3" xfId="237"/>
+    <cellStyle name="60% - Accent4" xfId="238"/>
+    <cellStyle name="常规 2 4" xfId="239"/>
+    <cellStyle name="60% - Accent5" xfId="240"/>
+    <cellStyle name="常规 2 5" xfId="241"/>
+    <cellStyle name="60% - Accent6" xfId="242"/>
+    <cellStyle name="常规 2 6" xfId="243"/>
     <cellStyle name="Accent1" xfId="244"/>
     <cellStyle name="Accent2" xfId="245"/>
-    <cellStyle name="常规 102 2" xfId="246"/>
-    <cellStyle name="Accent3" xfId="247"/>
-    <cellStyle name="常规 102 3" xfId="248"/>
-    <cellStyle name="Accent4" xfId="249"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="250"/>
-    <cellStyle name="Accent5" xfId="251"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="252"/>
-    <cellStyle name="Accent6" xfId="253"/>
-    <cellStyle name="常规 2 3 2" xfId="254"/>
-    <cellStyle name="常规 92" xfId="255"/>
-    <cellStyle name="常规 87" xfId="256"/>
-    <cellStyle name="Bad" xfId="257"/>
+    <cellStyle name="Accent3" xfId="246"/>
+    <cellStyle name="常规 102 2" xfId="247"/>
+    <cellStyle name="Accent4" xfId="248"/>
+    <cellStyle name="常规 102 3" xfId="249"/>
+    <cellStyle name="Accent5" xfId="250"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="251"/>
+    <cellStyle name="Accent6" xfId="252"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="253"/>
+    <cellStyle name="常规 92" xfId="254"/>
+    <cellStyle name="常规 87" xfId="255"/>
+    <cellStyle name="Bad" xfId="256"/>
+    <cellStyle name="常规 2 3 2" xfId="257"/>
     <cellStyle name="Calculation" xfId="258"/>
     <cellStyle name="常规 106" xfId="259"/>
     <cellStyle name="常规 111" xfId="260"/>
@@ -4867,25 +4867,25 @@
     <cellStyle name="常规 20" xfId="264"/>
     <cellStyle name="强调文字颜色 1 2" xfId="265"/>
     <cellStyle name="Explanatory Text" xfId="266"/>
-    <cellStyle name="超链接 9" xfId="267"/>
-    <cellStyle name="常规 16 2" xfId="268"/>
-    <cellStyle name="Good" xfId="269"/>
-    <cellStyle name="常规 10" xfId="270"/>
+    <cellStyle name="Good" xfId="267"/>
+    <cellStyle name="常规 10" xfId="268"/>
+    <cellStyle name="超链接 9" xfId="269"/>
+    <cellStyle name="常规 16 2" xfId="270"/>
     <cellStyle name="Heading 1" xfId="271"/>
     <cellStyle name="Heading 2" xfId="272"/>
     <cellStyle name="Heading 4" xfId="273"/>
     <cellStyle name="Linked Cell" xfId="274"/>
     <cellStyle name="Neutral" xfId="275"/>
-    <cellStyle name="常规 115" xfId="276"/>
-    <cellStyle name="常规 120" xfId="277"/>
-    <cellStyle name="Normal 2" xfId="278"/>
-    <cellStyle name="常规 120 2" xfId="279"/>
-    <cellStyle name="Normal 2 2" xfId="280"/>
+    <cellStyle name="Normal 2" xfId="276"/>
+    <cellStyle name="常规 115" xfId="277"/>
+    <cellStyle name="常规 120" xfId="278"/>
+    <cellStyle name="Normal 2 2" xfId="279"/>
+    <cellStyle name="常规 120 2" xfId="280"/>
     <cellStyle name="Normal 2 3" xfId="281"/>
-    <cellStyle name="Normal 3" xfId="282"/>
-    <cellStyle name="常规 3 7 2" xfId="283"/>
-    <cellStyle name="常规 116" xfId="284"/>
-    <cellStyle name="常规 121" xfId="285"/>
+    <cellStyle name="常规 116" xfId="282"/>
+    <cellStyle name="常规 121" xfId="283"/>
+    <cellStyle name="Normal 3" xfId="284"/>
+    <cellStyle name="常规 3 7 2" xfId="285"/>
     <cellStyle name="Normal 3 2" xfId="286"/>
     <cellStyle name="常规 72 2 2" xfId="287"/>
     <cellStyle name="常规 67 2 2" xfId="288"/>
@@ -4895,14 +4895,14 @@
     <cellStyle name="Note 2" xfId="292"/>
     <cellStyle name="Output" xfId="293"/>
     <cellStyle name="常规 4 2 3 4" xfId="294"/>
-    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="295"/>
-    <cellStyle name="常规 2" xfId="296"/>
-    <cellStyle name="Title" xfId="297"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="298"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="299"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="300"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="301"/>
-    <cellStyle name="Total" xfId="302"/>
+    <cellStyle name="Title" xfId="295"/>
+    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="296"/>
+    <cellStyle name="常规 2" xfId="297"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="298"/>
+    <cellStyle name="Total" xfId="299"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="300"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="301"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="302"/>
     <cellStyle name="Warning Text" xfId="303"/>
     <cellStyle name="百分比 2" xfId="304"/>
     <cellStyle name="常规 10 2 2 3 2" xfId="305"/>
@@ -4911,9 +4911,9 @@
     <cellStyle name="差_Sheet1" xfId="308"/>
     <cellStyle name="差_Sheet1 2" xfId="309"/>
     <cellStyle name="差_Sheet2" xfId="310"/>
-    <cellStyle name="差_Sheet3" xfId="311"/>
-    <cellStyle name="常规 3 2" xfId="312"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="313"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="311"/>
+    <cellStyle name="差_Sheet3" xfId="312"/>
+    <cellStyle name="常规 3 2" xfId="313"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="314"/>
     <cellStyle name="常规 96" xfId="315"/>
     <cellStyle name="差_保函明细" xfId="316"/>
@@ -4923,20 +4923,20 @@
     <cellStyle name="常规 50 2 2" xfId="320"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="321"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="322"/>
-    <cellStyle name="常规 51 2" xfId="323"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="324"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="323"/>
+    <cellStyle name="常规 51 2" xfId="324"/>
     <cellStyle name="常规 10 2" xfId="325"/>
-    <cellStyle name="常规 2 7" xfId="326"/>
-    <cellStyle name="常规 10 2 2" xfId="327"/>
+    <cellStyle name="常规 10 2 2" xfId="326"/>
+    <cellStyle name="常规 2 7" xfId="327"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="328"/>
     <cellStyle name="常规 10 2 2 2" xfId="329"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="330"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="331"/>
     <cellStyle name="常规 10 2 2 2 2 2 2" xfId="332"/>
     <cellStyle name="常规 10 2 2 2 3 3" xfId="333"/>
-    <cellStyle name="常规 47" xfId="334"/>
-    <cellStyle name="常规 52" xfId="335"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="336"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="334"/>
+    <cellStyle name="常规 47" xfId="335"/>
+    <cellStyle name="常规 52" xfId="336"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="337"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="338"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="339"/>
@@ -4962,8 +4962,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="359"/>
     <cellStyle name="常规 10 2 2 6" xfId="360"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="361"/>
-    <cellStyle name="常规 2 8" xfId="362"/>
-    <cellStyle name="常规 10 2 3" xfId="363"/>
+    <cellStyle name="常规 10 2 3" xfId="362"/>
+    <cellStyle name="常规 2 8" xfId="363"/>
     <cellStyle name="常规 10 2 3 2" xfId="364"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="365"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="366"/>
@@ -4978,14 +4978,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="375"/>
     <cellStyle name="常规 10 2 3 4" xfId="376"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="377"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="378"/>
-    <cellStyle name="常规 10 2 3 5" xfId="379"/>
-    <cellStyle name="常规 2 10" xfId="380"/>
-    <cellStyle name="常规 2 9" xfId="381"/>
-    <cellStyle name="常规 10 2 4" xfId="382"/>
+    <cellStyle name="常规 10 2 3 5" xfId="378"/>
+    <cellStyle name="常规 2 10" xfId="379"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="380"/>
+    <cellStyle name="常规 10 2 4" xfId="381"/>
+    <cellStyle name="常规 2 9" xfId="382"/>
     <cellStyle name="常规 10 2 5" xfId="383"/>
-    <cellStyle name="常规 3 3" xfId="384"/>
-    <cellStyle name="常规 10 2 5 2" xfId="385"/>
+    <cellStyle name="常规 10 2 5 2" xfId="384"/>
+    <cellStyle name="常规 3 3" xfId="385"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="386"/>
     <cellStyle name="常规 100" xfId="387"/>
     <cellStyle name="常规 4 2 3" xfId="388"/>
@@ -5004,8 +5004,8 @@
     <cellStyle name="常规 101 2" xfId="401"/>
     <cellStyle name="常规 4 6 2" xfId="402"/>
     <cellStyle name="常规 101 2 2" xfId="403"/>
-    <cellStyle name="常规 101 3" xfId="404"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="405"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="404"/>
+    <cellStyle name="常规 101 3" xfId="405"/>
     <cellStyle name="常规 102" xfId="406"/>
     <cellStyle name="常规 4 2 5" xfId="407"/>
     <cellStyle name="常规 4 7" xfId="408"/>
@@ -5040,11 +5040,11 @@
     <cellStyle name="常规 21" xfId="437"/>
     <cellStyle name="常规 17" xfId="438"/>
     <cellStyle name="常规 22" xfId="439"/>
-    <cellStyle name="常规 55" xfId="440"/>
-    <cellStyle name="常规 60" xfId="441"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="442"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="443"/>
-    <cellStyle name="常规 17 2" xfId="444"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="440"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="441"/>
+    <cellStyle name="常规 17 2" xfId="442"/>
+    <cellStyle name="常规 55" xfId="443"/>
+    <cellStyle name="常规 60" xfId="444"/>
     <cellStyle name="常规 18" xfId="445"/>
     <cellStyle name="常规 23" xfId="446"/>
     <cellStyle name="常规 18 2" xfId="447"/>
@@ -5056,10 +5056,10 @@
     <cellStyle name="常规 2 13" xfId="453"/>
     <cellStyle name="常规 95_ITDM3.2期数据库设计汇总" xfId="454"/>
     <cellStyle name="常规 2 14" xfId="455"/>
-    <cellStyle name="常规 62 2 2" xfId="456"/>
-    <cellStyle name="常规 57 2 2" xfId="457"/>
-    <cellStyle name="常规 2 15" xfId="458"/>
-    <cellStyle name="常规 2 20" xfId="459"/>
+    <cellStyle name="常规 2 15" xfId="456"/>
+    <cellStyle name="常规 2 20" xfId="457"/>
+    <cellStyle name="常规 62 2 2" xfId="458"/>
+    <cellStyle name="常规 57 2 2" xfId="459"/>
     <cellStyle name="常规 2 16" xfId="460"/>
     <cellStyle name="常规 2 21" xfId="461"/>
     <cellStyle name="常规 2 16 2" xfId="462"/>
@@ -5079,9 +5079,9 @@
     <cellStyle name="常规 2 3 4 2" xfId="476"/>
     <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="477"/>
     <cellStyle name="常规 2 4 2" xfId="478"/>
-    <cellStyle name="常规 61 3" xfId="479"/>
-    <cellStyle name="常规 56 3" xfId="480"/>
-    <cellStyle name="常规 2 4 2 2" xfId="481"/>
+    <cellStyle name="常规 2 4 2 2" xfId="479"/>
+    <cellStyle name="常规 61 3" xfId="480"/>
+    <cellStyle name="常规 56 3" xfId="481"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="482"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="483"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="484"/>
@@ -5093,259 +5093,259 @@
     <cellStyle name="常规 2 4 3" xfId="490"/>
     <cellStyle name="常规 2 4 4" xfId="491"/>
     <cellStyle name="常规 2 4 5" xfId="492"/>
-    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="493"/>
-    <cellStyle name="常规 59 3" xfId="494"/>
-    <cellStyle name="常规 2 4 5 2" xfId="495"/>
+    <cellStyle name="常规 2 4 5 2" xfId="493"/>
+    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="494"/>
+    <cellStyle name="常规 59 3" xfId="495"/>
     <cellStyle name="常规 25" xfId="496"/>
     <cellStyle name="常规 30" xfId="497"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="498"/>
-    <cellStyle name="常规 3" xfId="499"/>
+    <cellStyle name="常规 3" xfId="498"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="499"/>
     <cellStyle name="常规 3 2 2" xfId="500"/>
     <cellStyle name="常规 3 4" xfId="501"/>
     <cellStyle name="常规 3 5" xfId="502"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="503"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="504"/>
-    <cellStyle name="常规 3 6" xfId="505"/>
-    <cellStyle name="常规 91 2 2" xfId="506"/>
-    <cellStyle name="常规 86 2 2" xfId="507"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="508"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="509"/>
-    <cellStyle name="常规 3 7" xfId="510"/>
+    <cellStyle name="常规 3 6" xfId="503"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="504"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="505"/>
+    <cellStyle name="常规 3 7" xfId="506"/>
+    <cellStyle name="常规 91 2 2" xfId="507"/>
+    <cellStyle name="常规 86 2 2" xfId="508"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="509"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="510"/>
     <cellStyle name="常规 3 8" xfId="511"/>
     <cellStyle name="常规 35 2" xfId="512"/>
     <cellStyle name="常规 4 2" xfId="513"/>
-    <cellStyle name="常规 4 2 2" xfId="514"/>
-    <cellStyle name="常规 4 4" xfId="515"/>
-    <cellStyle name="常规 4 2 2 2" xfId="516"/>
-    <cellStyle name="常规 6 4" xfId="517"/>
+    <cellStyle name="常规 4 4" xfId="514"/>
+    <cellStyle name="常规 4 2 2" xfId="515"/>
+    <cellStyle name="常规 6 4" xfId="516"/>
+    <cellStyle name="常规 4 2 2 2" xfId="517"/>
     <cellStyle name="常规 4 2 3 5" xfId="518"/>
     <cellStyle name="常规 4 3" xfId="519"/>
-    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 5" xfId="521"/>
-    <cellStyle name="常规 45" xfId="522"/>
-    <cellStyle name="常规 50" xfId="523"/>
-    <cellStyle name="常规 45 2" xfId="524"/>
-    <cellStyle name="常规 50 2" xfId="525"/>
+    <cellStyle name="常规 5" xfId="520"/>
+    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 50" xfId="522"/>
+    <cellStyle name="常规 45" xfId="523"/>
+    <cellStyle name="常规 50 2" xfId="524"/>
+    <cellStyle name="常规 45 2" xfId="525"/>
     <cellStyle name="常规 45 2 2 2" xfId="526"/>
     <cellStyle name="常规 45 2 2_ITDM3.2期数据库设计汇总" xfId="527"/>
     <cellStyle name="常规 45 2 3" xfId="528"/>
-    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="529"/>
-    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 45 3" xfId="531"/>
-    <cellStyle name="常规 50 3" xfId="532"/>
+    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="529"/>
+    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 50 3" xfId="531"/>
+    <cellStyle name="常规 45 3" xfId="532"/>
     <cellStyle name="常规 45 3 2" xfId="533"/>
-    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 45 4" xfId="535"/>
-    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="536"/>
-    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="537"/>
-    <cellStyle name="常规 46" xfId="538"/>
-    <cellStyle name="常规 51" xfId="539"/>
-    <cellStyle name="常规 47 2" xfId="540"/>
-    <cellStyle name="常规 52 2" xfId="541"/>
-    <cellStyle name="常规 47 2 2" xfId="542"/>
-    <cellStyle name="常规 52 2 2" xfId="543"/>
-    <cellStyle name="常规 47 3" xfId="544"/>
+    <cellStyle name="常规 45 4" xfId="534"/>
+    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="536"/>
+    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="537"/>
+    <cellStyle name="常规 51" xfId="538"/>
+    <cellStyle name="常规 46" xfId="539"/>
+    <cellStyle name="常规 52 2" xfId="540"/>
+    <cellStyle name="常规 47 2" xfId="541"/>
+    <cellStyle name="常规 52 2 2" xfId="542"/>
+    <cellStyle name="常规 47 2 2" xfId="543"/>
+    <cellStyle name="常规 59 2 2" xfId="544"/>
     <cellStyle name="常规 52 3" xfId="545"/>
-    <cellStyle name="常规 59 2 2" xfId="546"/>
-    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="547"/>
+    <cellStyle name="常规 47 3" xfId="546"/>
+    <cellStyle name="常规 53" xfId="547"/>
     <cellStyle name="常规 48" xfId="548"/>
-    <cellStyle name="常规 53" xfId="549"/>
-    <cellStyle name="常规 48 2 2" xfId="550"/>
-    <cellStyle name="常规 53 2 2" xfId="551"/>
-    <cellStyle name="常规 49" xfId="552"/>
-    <cellStyle name="常规 54" xfId="553"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 49 2 2" xfId="556"/>
-    <cellStyle name="常规 54 2 2" xfId="557"/>
-    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="558"/>
-    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="559"/>
-    <cellStyle name="常规 49 3" xfId="560"/>
-    <cellStyle name="常规 54 3" xfId="561"/>
-    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="549"/>
+    <cellStyle name="常规 53 2 2" xfId="550"/>
+    <cellStyle name="常规 48 2 2" xfId="551"/>
+    <cellStyle name="常规 54" xfId="552"/>
+    <cellStyle name="常规 49" xfId="553"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 54 2 2" xfId="556"/>
+    <cellStyle name="常规 49 2 2" xfId="557"/>
+    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="558"/>
+    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="559"/>
+    <cellStyle name="常规 54 3" xfId="560"/>
+    <cellStyle name="常规 49 3" xfId="561"/>
+    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="563"/>
     <cellStyle name="常规 5 3" xfId="564"/>
     <cellStyle name="常规 5 4" xfId="565"/>
     <cellStyle name="常规 51 3" xfId="566"/>
     <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="567"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 55 2" xfId="569"/>
-    <cellStyle name="常规 60 2" xfId="570"/>
-    <cellStyle name="常规 55 2 2" xfId="571"/>
-    <cellStyle name="常规 60 2 2" xfId="572"/>
-    <cellStyle name="常规 55 3" xfId="573"/>
-    <cellStyle name="常规 60 3" xfId="574"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 56" xfId="577"/>
-    <cellStyle name="常规 61" xfId="578"/>
-    <cellStyle name="常规 56 2" xfId="579"/>
-    <cellStyle name="常规 61 2" xfId="580"/>
-    <cellStyle name="常规 56 2 2" xfId="581"/>
-    <cellStyle name="常规 61 2 2" xfId="582"/>
-    <cellStyle name="常规 62" xfId="583"/>
-    <cellStyle name="常规 57" xfId="584"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="585"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="586"/>
-    <cellStyle name="常规 83 2" xfId="587"/>
-    <cellStyle name="常规 78 2" xfId="588"/>
-    <cellStyle name="常规 63 2 2" xfId="589"/>
-    <cellStyle name="常规 58 2 2" xfId="590"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="593"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="594"/>
-    <cellStyle name="常规 84" xfId="595"/>
-    <cellStyle name="常规 79" xfId="596"/>
-    <cellStyle name="常规 63 3" xfId="597"/>
-    <cellStyle name="常规 58 3" xfId="598"/>
+    <cellStyle name="常规 60 2" xfId="569"/>
+    <cellStyle name="常规 55 2" xfId="570"/>
+    <cellStyle name="常规 60 2 2" xfId="571"/>
+    <cellStyle name="常规 55 2 2" xfId="572"/>
+    <cellStyle name="常规 60 3" xfId="573"/>
+    <cellStyle name="常规 55 3" xfId="574"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 61" xfId="577"/>
+    <cellStyle name="常规 56" xfId="578"/>
+    <cellStyle name="常规 61 2" xfId="579"/>
+    <cellStyle name="常规 56 2" xfId="580"/>
+    <cellStyle name="常规 61 2 2" xfId="581"/>
+    <cellStyle name="常规 56 2 2" xfId="582"/>
+    <cellStyle name="常规 57" xfId="583"/>
+    <cellStyle name="常规 62" xfId="584"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="585"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="586"/>
+    <cellStyle name="常规 58 2 2" xfId="587"/>
+    <cellStyle name="常规 63 2 2" xfId="588"/>
+    <cellStyle name="常规 78 2" xfId="589"/>
+    <cellStyle name="常规 83 2" xfId="590"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="593"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="594"/>
+    <cellStyle name="常规 58 3" xfId="595"/>
+    <cellStyle name="常规 63 3" xfId="596"/>
+    <cellStyle name="常规 79" xfId="597"/>
+    <cellStyle name="常规 84" xfId="598"/>
     <cellStyle name="常规 6 2" xfId="599"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 6 3" xfId="600"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="601"/>
-    <cellStyle name="常规 6 3" xfId="602"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="602"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="603"/>
-    <cellStyle name="常规 97 3" xfId="604"/>
+    <cellStyle name="常规 65 2 2" xfId="604"/>
     <cellStyle name="常规 70 2 2" xfId="605"/>
-    <cellStyle name="常规 65 2 2" xfId="606"/>
-    <cellStyle name="常规 70 3" xfId="607"/>
-    <cellStyle name="常规 65 3" xfId="608"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="609"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="610"/>
-    <cellStyle name="常规 71 2 2" xfId="611"/>
-    <cellStyle name="常规 66 2 2" xfId="612"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="613"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="614"/>
-    <cellStyle name="样式 1" xfId="615"/>
+    <cellStyle name="常规 97 3" xfId="606"/>
+    <cellStyle name="常规 65 3" xfId="607"/>
+    <cellStyle name="常规 70 3" xfId="608"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="609"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="610"/>
+    <cellStyle name="常规 66 2 2" xfId="611"/>
+    <cellStyle name="常规 71 2 2" xfId="612"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="613"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="614"/>
+    <cellStyle name="常规 66 3" xfId="615"/>
     <cellStyle name="常规 71 3" xfId="616"/>
-    <cellStyle name="常规 66 3" xfId="617"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="618"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="619"/>
-    <cellStyle name="常规 72 3" xfId="620"/>
-    <cellStyle name="常规 67 3" xfId="621"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="622"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="623"/>
-    <cellStyle name="常规 73 2 2" xfId="624"/>
-    <cellStyle name="常规 68 2 2" xfId="625"/>
-    <cellStyle name="常规 73 3" xfId="626"/>
-    <cellStyle name="常规 68 3" xfId="627"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="628"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 74" xfId="630"/>
-    <cellStyle name="常规 69" xfId="631"/>
-    <cellStyle name="常规 74 2" xfId="632"/>
-    <cellStyle name="常规 69 2" xfId="633"/>
-    <cellStyle name="常规 74 2 2" xfId="634"/>
-    <cellStyle name="常规 69 2 2" xfId="635"/>
-    <cellStyle name="常规 74 3" xfId="636"/>
-    <cellStyle name="常规 69 3" xfId="637"/>
+    <cellStyle name="样式 1" xfId="617"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="618"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="619"/>
+    <cellStyle name="常规 67 3" xfId="620"/>
+    <cellStyle name="常规 72 3" xfId="621"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="622"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="623"/>
+    <cellStyle name="常规 68 2 2" xfId="624"/>
+    <cellStyle name="常规 73 2 2" xfId="625"/>
+    <cellStyle name="常规 68 3" xfId="626"/>
+    <cellStyle name="常规 73 3" xfId="627"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="628"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 69" xfId="630"/>
+    <cellStyle name="常规 74" xfId="631"/>
+    <cellStyle name="常规 69 2" xfId="632"/>
+    <cellStyle name="常规 74 2" xfId="633"/>
+    <cellStyle name="常规 69 2 2" xfId="634"/>
+    <cellStyle name="常规 74 2 2" xfId="635"/>
+    <cellStyle name="常规 69 3" xfId="636"/>
+    <cellStyle name="常规 74 3" xfId="637"/>
     <cellStyle name="常规 7" xfId="638"/>
     <cellStyle name="常规 7 2" xfId="639"/>
-    <cellStyle name="常规 80" xfId="640"/>
-    <cellStyle name="常规 75" xfId="641"/>
-    <cellStyle name="超链接 19" xfId="642"/>
+    <cellStyle name="常规 75" xfId="640"/>
+    <cellStyle name="常规 80" xfId="641"/>
+    <cellStyle name="常规 75 2" xfId="642"/>
     <cellStyle name="常规 80 2" xfId="643"/>
-    <cellStyle name="常规 75 2" xfId="644"/>
-    <cellStyle name="常规 80 2 2" xfId="645"/>
-    <cellStyle name="常规 75 2 2" xfId="646"/>
-    <cellStyle name="常规 80 3" xfId="647"/>
-    <cellStyle name="常规 75 3" xfId="648"/>
-    <cellStyle name="常规 81" xfId="649"/>
-    <cellStyle name="常规 76" xfId="650"/>
-    <cellStyle name="常规 81 2" xfId="651"/>
-    <cellStyle name="常规 76 2" xfId="652"/>
-    <cellStyle name="常规 81 3" xfId="653"/>
-    <cellStyle name="常规 76 3" xfId="654"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="655"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="656"/>
-    <cellStyle name="常规 82" xfId="657"/>
-    <cellStyle name="常规 77" xfId="658"/>
-    <cellStyle name="常规 82 2" xfId="659"/>
-    <cellStyle name="常规 77 2" xfId="660"/>
-    <cellStyle name="常规 82 2 2" xfId="661"/>
-    <cellStyle name="常规 77 2 2" xfId="662"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="664"/>
-    <cellStyle name="常规 82 3" xfId="665"/>
-    <cellStyle name="常规 77 3" xfId="666"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="667"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="668"/>
-    <cellStyle name="常规 83 2 2" xfId="669"/>
-    <cellStyle name="常规 78 2 2" xfId="670"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 83 3" xfId="673"/>
-    <cellStyle name="常规 78 3" xfId="674"/>
-    <cellStyle name="常规 84 2" xfId="675"/>
-    <cellStyle name="常规 79 2" xfId="676"/>
-    <cellStyle name="常规 84 2 2" xfId="677"/>
-    <cellStyle name="常规 79 2 2" xfId="678"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="679"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 84 3" xfId="681"/>
-    <cellStyle name="常规 79 3" xfId="682"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="684"/>
+    <cellStyle name="超链接 19" xfId="644"/>
+    <cellStyle name="常规 75 2 2" xfId="645"/>
+    <cellStyle name="常规 80 2 2" xfId="646"/>
+    <cellStyle name="常规 75 3" xfId="647"/>
+    <cellStyle name="常规 80 3" xfId="648"/>
+    <cellStyle name="常规 76" xfId="649"/>
+    <cellStyle name="常规 81" xfId="650"/>
+    <cellStyle name="常规 76 2" xfId="651"/>
+    <cellStyle name="常规 81 2" xfId="652"/>
+    <cellStyle name="常规 76 3" xfId="653"/>
+    <cellStyle name="常规 81 3" xfId="654"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="655"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="656"/>
+    <cellStyle name="常规 77" xfId="657"/>
+    <cellStyle name="常规 82" xfId="658"/>
+    <cellStyle name="常规 77 2" xfId="659"/>
+    <cellStyle name="常规 82 2" xfId="660"/>
+    <cellStyle name="常规 77 2 2" xfId="661"/>
+    <cellStyle name="常规 82 2 2" xfId="662"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 77 3" xfId="665"/>
+    <cellStyle name="常规 82 3" xfId="666"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="667"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="668"/>
+    <cellStyle name="常规 78 2 2" xfId="669"/>
+    <cellStyle name="常规 83 2 2" xfId="670"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 78 3" xfId="673"/>
+    <cellStyle name="常规 83 3" xfId="674"/>
+    <cellStyle name="常规 79 2" xfId="675"/>
+    <cellStyle name="常规 84 2" xfId="676"/>
+    <cellStyle name="常规 79 2 2" xfId="677"/>
+    <cellStyle name="常规 84 2 2" xfId="678"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="679"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 79 3" xfId="681"/>
+    <cellStyle name="常规 84 3" xfId="682"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="684"/>
     <cellStyle name="常规 8" xfId="685"/>
-    <cellStyle name="常规 90 2" xfId="686"/>
-    <cellStyle name="常规 85 2" xfId="687"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="688"/>
-    <cellStyle name="常规 90 2 2" xfId="689"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 85 2 2" xfId="691"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="692"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="693"/>
-    <cellStyle name="常规 90 3" xfId="694"/>
-    <cellStyle name="常规 85 3" xfId="695"/>
-    <cellStyle name="常规 96 3" xfId="696"/>
+    <cellStyle name="常规 85 2" xfId="686"/>
+    <cellStyle name="常规 90 2" xfId="687"/>
+    <cellStyle name="常规 85 2 2" xfId="688"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="689"/>
+    <cellStyle name="常规 90 2 2" xfId="690"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="692"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="693"/>
+    <cellStyle name="常规 85 3" xfId="694"/>
+    <cellStyle name="常规 90 3" xfId="695"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="696"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="697"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 91" xfId="699"/>
-    <cellStyle name="常规 86" xfId="700"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="701"/>
-    <cellStyle name="常规 91 2" xfId="702"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="703"/>
-    <cellStyle name="常规 86 2" xfId="704"/>
-    <cellStyle name="常规 91 3" xfId="705"/>
-    <cellStyle name="常规 86 3" xfId="706"/>
-    <cellStyle name="常规 92 2" xfId="707"/>
-    <cellStyle name="常规 87 2" xfId="708"/>
-    <cellStyle name="常规 92 2 2" xfId="709"/>
-    <cellStyle name="常规 87 2 2" xfId="710"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="711"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="712"/>
-    <cellStyle name="常规 92 3" xfId="713"/>
-    <cellStyle name="常规 87 3" xfId="714"/>
-    <cellStyle name="常规 93" xfId="715"/>
-    <cellStyle name="常规 88" xfId="716"/>
-    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="717"/>
+    <cellStyle name="常规 96 3" xfId="698"/>
+    <cellStyle name="常规 86" xfId="699"/>
+    <cellStyle name="常规 91" xfId="700"/>
+    <cellStyle name="常规 86 2" xfId="701"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="702"/>
+    <cellStyle name="常规 91 2" xfId="703"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="704"/>
+    <cellStyle name="常规 86 3" xfId="705"/>
+    <cellStyle name="常规 91 3" xfId="706"/>
+    <cellStyle name="常规 87 2" xfId="707"/>
+    <cellStyle name="常规 92 2" xfId="708"/>
+    <cellStyle name="常规 87 2 2" xfId="709"/>
+    <cellStyle name="常规 92 2 2" xfId="710"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="711"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="712"/>
+    <cellStyle name="常规 87 3" xfId="713"/>
+    <cellStyle name="常规 92 3" xfId="714"/>
+    <cellStyle name="常规 88" xfId="715"/>
+    <cellStyle name="常规 93" xfId="716"/>
+    <cellStyle name="常规 88 2" xfId="717"/>
     <cellStyle name="常规 93 2" xfId="718"/>
-    <cellStyle name="常规 88 2" xfId="719"/>
-    <cellStyle name="常规 93 2 2" xfId="720"/>
-    <cellStyle name="常规 88 2 2" xfId="721"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="722"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 93 3" xfId="724"/>
-    <cellStyle name="常规 88 3" xfId="725"/>
-    <cellStyle name="常规 94" xfId="726"/>
-    <cellStyle name="常规 89" xfId="727"/>
-    <cellStyle name="常规 94 2" xfId="728"/>
-    <cellStyle name="常规 89 2" xfId="729"/>
-    <cellStyle name="常规 98" xfId="730"/>
-    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="731"/>
-    <cellStyle name="常规 94 2 2" xfId="732"/>
-    <cellStyle name="常规 89 2 2" xfId="733"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="734"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="735"/>
-    <cellStyle name="常规 94 3" xfId="736"/>
-    <cellStyle name="常规 89 3" xfId="737"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="738"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="739"/>
+    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="719"/>
+    <cellStyle name="常规 88 2 2" xfId="720"/>
+    <cellStyle name="常规 93 2 2" xfId="721"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="722"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 88 3" xfId="724"/>
+    <cellStyle name="常规 93 3" xfId="725"/>
+    <cellStyle name="常规 89" xfId="726"/>
+    <cellStyle name="常规 94" xfId="727"/>
+    <cellStyle name="常规 89 2" xfId="728"/>
+    <cellStyle name="常规 94 2" xfId="729"/>
+    <cellStyle name="常规 89 2 2" xfId="730"/>
+    <cellStyle name="常规 94 2 2" xfId="731"/>
+    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="732"/>
+    <cellStyle name="常规 98" xfId="733"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="734"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="735"/>
+    <cellStyle name="常规 89 3" xfId="736"/>
+    <cellStyle name="常规 94 3" xfId="737"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="738"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="739"/>
     <cellStyle name="常规 9" xfId="740"/>
     <cellStyle name="常规 9 2" xfId="741"/>
     <cellStyle name="常规 95" xfId="742"/>
     <cellStyle name="常规 95 2" xfId="743"/>
-    <cellStyle name="常规 95 3" xfId="744"/>
-    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="745"/>
+    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="744"/>
+    <cellStyle name="常规 95 3" xfId="745"/>
     <cellStyle name="常规 96 2" xfId="746"/>
     <cellStyle name="常规 96 2 2" xfId="747"/>
     <cellStyle name="常规 96_ITDM3.2期数据库设计汇总" xfId="748"/>
@@ -5367,17 +5367,17 @@
     <cellStyle name="超链接 12" xfId="764"/>
     <cellStyle name="超链接 13" xfId="765"/>
     <cellStyle name="超链接 14" xfId="766"/>
-    <cellStyle name="超链接 21" xfId="767"/>
-    <cellStyle name="超链接 16" xfId="768"/>
-    <cellStyle name="超链接 22" xfId="769"/>
-    <cellStyle name="超链接 17" xfId="770"/>
+    <cellStyle name="超链接 16" xfId="767"/>
+    <cellStyle name="超链接 21" xfId="768"/>
+    <cellStyle name="超链接 17" xfId="769"/>
+    <cellStyle name="超链接 22" xfId="770"/>
     <cellStyle name="超链接 18" xfId="771"/>
-    <cellStyle name="好_Sheet1" xfId="772"/>
-    <cellStyle name="超链接 2" xfId="773"/>
-    <cellStyle name="好_Sheet2" xfId="774"/>
-    <cellStyle name="超链接 3" xfId="775"/>
-    <cellStyle name="好_Sheet3" xfId="776"/>
-    <cellStyle name="超链接 4" xfId="777"/>
+    <cellStyle name="超链接 2" xfId="772"/>
+    <cellStyle name="好_Sheet1" xfId="773"/>
+    <cellStyle name="超链接 3" xfId="774"/>
+    <cellStyle name="好_Sheet2" xfId="775"/>
+    <cellStyle name="超链接 4" xfId="776"/>
+    <cellStyle name="好_Sheet3" xfId="777"/>
     <cellStyle name="超链接 7" xfId="778"/>
     <cellStyle name="超链接 8" xfId="779"/>
     <cellStyle name="好_Sheet1 2" xfId="780"/>
@@ -6479,15 +6479,15 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6333333333333" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="14.6296296296296" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.1296296296296" style="23" customWidth="1"/>
     <col min="2" max="2" width="8" style="23" customWidth="1"/>
-    <col min="3" max="4" width="14.6333333333333" style="23"/>
-    <col min="5" max="5" width="7.63333333333333" style="23" customWidth="1"/>
+    <col min="3" max="4" width="14.6296296296296" style="23"/>
+    <col min="5" max="5" width="7.62962962962963" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="14.6333333333333" style="23"/>
+    <col min="7" max="7" width="10.1296296296296" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="14.6296296296296" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6946,19 +6946,19 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -7038,7 +7038,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7058,38 +7058,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C9" s="5">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>106</v>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -7115,13 +7149,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7223,22 +7257,22 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>263</v>
@@ -7272,7 +7306,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>84</v>
@@ -7284,7 +7318,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7310,13 +7344,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7554,7 +7588,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>101</v>
@@ -7571,7 +7605,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>88</v>
@@ -7588,7 +7622,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -7605,7 +7639,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>88</v>
@@ -7639,7 +7673,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>84</v>
@@ -7651,12 +7685,12 @@
         <v>89</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>88</v>
@@ -7668,7 +7702,7 @@
         <v>89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -7694,16 +7728,16 @@
       <selection activeCell="B4" sqref="A4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.775" customWidth="1"/>
-    <col min="2" max="2" width="28.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="28.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="14.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7805,7 +7839,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>84</v>
@@ -7817,12 +7851,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -7855,13 +7889,13 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.1333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="30.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7963,7 +7997,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -7980,7 +8014,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -8031,17 +8065,17 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8049,7 +8083,7 @@
         <v>304</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
@@ -8061,7 +8095,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>84</v>
@@ -8073,7 +8107,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8099,16 +8133,16 @@
       <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="18.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="19.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8159,7 +8193,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -8176,7 +8210,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -8210,7 +8244,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>84</v>
@@ -8222,12 +8256,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -8239,7 +8273,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -8265,16 +8299,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8325,7 +8359,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -8358,7 +8392,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="15" t="s">
         <v>312</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -8375,8 +8409,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>205</v>
+      <c r="A7" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -8388,11 +8422,11 @@
         <v>89</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>314</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -8409,7 +8443,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -8426,7 +8460,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>318</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -8443,7 +8477,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>320</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -8461,7 +8495,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>88</v>
@@ -8473,15 +8507,15 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
@@ -8546,7 +8580,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>84</v>
@@ -8558,12 +8592,12 @@
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>88</v>
@@ -8575,23 +8609,23 @@
         <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13"/>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8612,20 +8646,20 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.3796296296296" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="32.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8676,7 +8710,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -8693,7 +8727,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -8709,8 +8743,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>164</v>
+      <c r="A6" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>94</v>
@@ -8727,7 +8761,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>84</v>
@@ -8739,12 +8773,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -8756,7 +8790,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -8782,13 +8816,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.3833333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="30.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8856,7 +8890,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>101</v>
@@ -8873,7 +8907,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -8885,7 +8919,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8905,9 +8939,9 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="28.8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -8919,7 +8953,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -8945,15 +8979,15 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="23.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="23.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9038,10 +9072,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -9050,12 +9084,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -9072,7 +9106,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -9089,7 +9123,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>84</v>
@@ -9101,12 +9135,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>88</v>
@@ -9118,7 +9152,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9146,12 +9180,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6333333333333" defaultRowHeight="11.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="17.6296296296296" defaultRowHeight="10.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.3833333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.3833333333333" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="17.6333333333333" style="16"/>
+    <col min="1" max="1" width="36.3796296296296" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.8796296296296" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.3796296296296" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="17.6296296296296" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9165,7 +9199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" ht="14.4" spans="1:3">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -9176,7 +9210,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" ht="14.4" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -9187,7 +9221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" ht="14.4" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -9198,7 +9232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" ht="14.4" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
@@ -9209,7 +9243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" ht="14.4" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -9220,7 +9254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:3">
+    <row r="7" ht="14.4" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -9231,7 +9265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" ht="14.4" spans="1:3">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -9242,7 +9276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" ht="14.4" spans="1:3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -9253,7 +9287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" ht="14.4" spans="1:3">
       <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
@@ -9264,7 +9298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" ht="14.4" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
@@ -9275,7 +9309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" ht="14.4" spans="1:3">
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
@@ -9286,7 +9320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" ht="14.4" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -9297,7 +9331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" ht="14.4" spans="1:3">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -9308,7 +9342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" ht="14.4" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -9319,7 +9353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" ht="14.4" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
@@ -9330,7 +9364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" ht="14.4" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -9341,7 +9375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" ht="14.4" spans="1:3">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -9352,7 +9386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" ht="14.4" spans="1:3">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -9363,7 +9397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" ht="14.4" spans="1:3">
       <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
@@ -9374,7 +9408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:3">
+    <row r="21" ht="14.4" spans="1:3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -9385,7 +9419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" ht="14.4" spans="1:3">
       <c r="A22" s="19" t="s">
         <v>59</v>
       </c>
@@ -9396,7 +9430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" ht="14.4" spans="1:3">
       <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
@@ -9407,7 +9441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" ht="14.4" spans="1:3">
       <c r="A24" s="19" t="s">
         <v>63</v>
       </c>
@@ -9418,7 +9452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" ht="14.4" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -9429,7 +9463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" ht="14.4" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -9440,7 +9474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:3">
+    <row r="27" ht="14.4" spans="1:3">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -9451,7 +9485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:3">
+    <row r="28" ht="14.4" spans="1:3">
       <c r="A28" s="19" t="s">
         <v>71</v>
       </c>
@@ -9462,7 +9496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" ht="14.4" spans="1:3">
       <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
@@ -9473,7 +9507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" ht="14.4" spans="1:3">
       <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
@@ -9484,7 +9518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:3">
+    <row r="31" ht="14.4" spans="1:3">
       <c r="A31" s="19" t="s">
         <v>77</v>
       </c>
@@ -9550,15 +9584,15 @@
       <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="26.6296296296296" customWidth="1"/>
     <col min="2" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9658,9 +9692,9 @@
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="28.8" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>345</v>
@@ -9672,27 +9706,27 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>84</v>
@@ -9712,7 +9746,7 @@
         <v>304</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -9741,7 +9775,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>84</v>
@@ -9753,7 +9787,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9779,15 +9813,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="54.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="54.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9889,7 +9923,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -9923,7 +9957,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -9957,17 +9991,17 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9975,7 +10009,7 @@
         <v>304</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
@@ -9987,7 +10021,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>84</v>
@@ -9999,7 +10033,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -10019,19 +10053,19 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10082,7 +10116,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -10094,7 +10128,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10114,38 +10148,72 @@
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="9" t="s">
+    <row r="6" ht="18" customHeight="1" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C8" s="9">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>106</v>
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -10171,16 +10239,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10297,19 +10365,19 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="A1:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="31.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10377,7 +10445,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -10389,7 +10457,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10423,62 +10491,96 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C10" s="9">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" ht="28.8" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10503,14 +10605,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="20.6333333333333" customWidth="1"/>
+    <col min="4" max="5" width="20.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10615,7 +10717,7 @@
         <v>374</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -10667,15 +10769,15 @@
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +10828,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -10792,9 +10894,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="28.8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -10806,27 +10908,27 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>84</v>
@@ -10846,7 +10948,7 @@
         <v>304</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -10892,7 +10994,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>84</v>
@@ -10904,7 +11006,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -10924,19 +11026,19 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11089,7 +11191,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -11101,12 +11203,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>101</v>
@@ -11118,7 +11220,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11242,7 +11344,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>88</v>
@@ -11310,7 +11412,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>94</v>
@@ -11322,41 +11424,58 @@
         <v>89</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <v>20</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" ht="28.8" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>106</v>
+      <c r="D26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -11382,13 +11501,13 @@
       <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="36.8833333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="36.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11553,7 +11672,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11573,7 +11692,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="28.8" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>428</v>
       </c>
@@ -11592,7 +11711,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>84</v>
@@ -11604,12 +11723,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>88</v>
@@ -11621,7 +11740,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -11644,19 +11763,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="26.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="26.8796296296296" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="26.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11707,7 +11826,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -11744,7 +11863,7 @@
         <v>432</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5">
         <v>11</v>
@@ -11761,7 +11880,7 @@
         <v>434</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -11775,7 +11894,7 @@
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>101</v>
@@ -11792,10 +11911,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -11804,7 +11923,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -11824,19 +11943,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A9" sqref="$A9:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="32.1333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="32.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11970,7 +12089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="18" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
@@ -11988,19 +12107,19 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="5">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -12009,7 +12128,7 @@
         <v>105</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -12019,6 +12138,40 @@
       </c>
       <c r="E11" s="7" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="5">
+        <v>20</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12038,19 +12191,19 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12155,7 +12308,7 @@
         <v>441</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C7" s="5">
         <v>11</v>
@@ -12167,38 +12320,55 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="9" t="s">
+    <row r="8" ht="18" customHeight="1" spans="1:5">
+      <c r="A8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C9" s="9">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>106</v>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12224,9 +12394,9 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12485,7 +12655,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>84</v>
@@ -12497,7 +12667,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -12523,15 +12693,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="29.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="29.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12582,7 +12752,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12648,9 +12818,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="28.8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -12662,7 +12832,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -12688,13 +12858,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12745,7 +12915,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12757,12 +12927,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -12774,12 +12944,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>84</v>
@@ -12791,12 +12961,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>84</v>
@@ -12808,12 +12978,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>94</v>
@@ -12825,12 +12995,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -12842,12 +13012,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>94</v>
@@ -12859,12 +13029,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>84</v>
@@ -12876,12 +13046,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>88</v>
@@ -12893,22 +13063,22 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12930,7 +13100,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>88</v>
@@ -12942,12 +13112,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>84</v>
@@ -12959,12 +13129,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -12976,7 +13146,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -13002,13 +13172,13 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13059,7 +13229,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -13071,12 +13241,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -13088,12 +13258,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>84</v>
@@ -13105,12 +13275,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>84</v>
@@ -13122,12 +13292,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>94</v>
@@ -13139,12 +13309,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -13156,12 +13326,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>94</v>
@@ -13173,7 +13343,7 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -13190,12 +13360,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>84</v>
@@ -13207,12 +13377,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>88</v>
@@ -13224,7 +13394,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -13244,19 +13414,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="34.8833333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="34.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13319,12 +13489,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -13336,12 +13506,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>94</v>
@@ -13353,12 +13523,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>94</v>
@@ -13370,15 +13540,15 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5">
         <v>10</v>
@@ -13387,24 +13557,24 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="A9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="11">
         <v>10</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>155</v>
+      <c r="D9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13421,12 +13591,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>84</v>
@@ -13438,49 +13608,49 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
@@ -13489,7 +13659,24 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -13515,13 +13702,13 @@
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13572,7 +13759,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -13584,12 +13771,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -13601,12 +13788,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -13618,12 +13805,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -13635,42 +13822,42 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>84</v>
@@ -13682,12 +13869,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>84</v>
@@ -13699,12 +13886,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>84</v>
@@ -13716,12 +13903,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>84</v>
@@ -13733,12 +13920,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>94</v>
@@ -13750,12 +13937,12 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>94</v>
@@ -13767,12 +13954,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>88</v>
@@ -13784,12 +13971,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -13801,7 +13988,7 @@
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13823,7 +14010,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>88</v>
@@ -13835,12 +14022,12 @@
         <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>88</v>
@@ -13852,12 +14039,12 @@
         <v>89</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>88</v>
@@ -13869,12 +14056,12 @@
         <v>89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>88</v>
@@ -13886,12 +14073,12 @@
         <v>89</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>94</v>
@@ -13903,12 +14090,12 @@
         <v>89</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>94</v>
@@ -13920,12 +14107,12 @@
         <v>89</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>94</v>
@@ -13937,12 +14124,12 @@
         <v>89</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>94</v>
@@ -13954,12 +14141,12 @@
         <v>89</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>88</v>
@@ -13971,12 +14158,12 @@
         <v>89</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" ht="27" spans="1:5">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" ht="28.8" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>88</v>
@@ -13988,15 +14175,15 @@
         <v>89</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C29" s="5">
         <v>10</v>
@@ -14005,12 +14192,12 @@
         <v>89</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>101</v>
@@ -14022,12 +14209,12 @@
         <v>89</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>88</v>
@@ -14039,12 +14226,12 @@
         <v>89</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>84</v>
@@ -14056,12 +14243,12 @@
         <v>89</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>88</v>
@@ -14073,7 +14260,7 @@
         <v>89</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="14.1" customHeight="1"/>
@@ -14100,13 +14287,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14157,7 +14344,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -14169,12 +14356,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -14186,12 +14373,12 @@
         <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>84</v>
@@ -14203,12 +14390,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -14220,12 +14407,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -14237,12 +14424,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -14254,12 +14441,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>94</v>
@@ -14271,12 +14458,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>94</v>
@@ -14288,12 +14475,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>94</v>
@@ -14305,12 +14492,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>94</v>
@@ -14322,7 +14509,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -14339,12 +14526,12 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>88</v>
@@ -14356,12 +14543,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>94</v>
@@ -14373,12 +14560,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>84</v>
@@ -14390,12 +14577,12 @@
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>84</v>
@@ -14407,12 +14594,12 @@
         <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>94</v>
@@ -14424,12 +14611,12 @@
         <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>94</v>
@@ -14441,12 +14628,12 @@
         <v>89</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>94</v>
@@ -14458,12 +14645,12 @@
         <v>89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>88</v>
@@ -14475,12 +14662,12 @@
         <v>89</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>88</v>
@@ -14492,12 +14679,12 @@
         <v>89</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>88</v>
@@ -14509,12 +14696,12 @@
         <v>89</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>88</v>
@@ -14526,12 +14713,12 @@
         <v>89</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>88</v>
@@ -14543,12 +14730,12 @@
         <v>89</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>88</v>
@@ -14560,12 +14747,12 @@
         <v>89</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>84</v>
@@ -14577,12 +14764,12 @@
         <v>89</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>88</v>
@@ -14594,7 +14781,7 @@
         <v>89</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -14620,13 +14807,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14677,7 +14864,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -14711,7 +14898,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -14723,12 +14910,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -14740,12 +14927,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -14757,12 +14944,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>101</v>
@@ -14774,12 +14961,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -14791,12 +14978,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>101</v>
@@ -14808,12 +14995,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>88</v>
@@ -14825,7 +15012,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -14862,9 +15049,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="28.8" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>88</v>
@@ -14876,7 +15063,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13091" windowHeight="9155" tabRatio="936" firstSheet="21" activeTab="23"/>
+    <workbookView windowWidth="22368" windowHeight="9300" tabRatio="936" firstSheet="12" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="462">
   <si>
     <t>返回</t>
   </si>
@@ -928,12 +928,6 @@
   </si>
   <si>
     <t>是否开启序列号，0否，1是</t>
-  </si>
-  <si>
-    <t>attribute_field</t>
-  </si>
-  <si>
-    <t>属性字段</t>
   </si>
   <si>
     <t>attribute_name</t>
@@ -1672,18 +1666,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1839,14 +1833,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2410,8 +2404,8 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2445,13 +2439,13 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2534,15 +2528,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2612,13 +2606,13 @@
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2655,6 +2649,12 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2662,12 +2662,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2682,22 +2676,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2709,14 +2703,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2732,7 +2726,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2743,7 +2736,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2752,14 +2750,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2769,6 +2759,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2777,7 +2770,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2790,6 +2782,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -2817,22 +2811,22 @@
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2956,12 +2950,13 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2984,37 +2979,37 @@
     <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3024,7 +3019,6 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3048,12 +3042,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3063,6 +3051,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3078,18 +3072,22 @@
     <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3098,10 +3096,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3119,28 +3113,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3163,9 +3157,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3175,12 +3166,15 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3199,16 +3193,13 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3235,6 +3226,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
@@ -3314,9 +3308,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3336,94 +3327,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3514,19 +3508,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -3544,14 +3538,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3581,13 +3575,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3607,333 +3601,333 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3998,12 +3992,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4044,184 +4032,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4245,76 +4233,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4393,18 +4387,21 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -4422,9 +4419,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -4532,48 +4526,48 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4582,47 +4576,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="326" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 33" xfId="1"/>
+    <cellStyle name="?? 185 2 2" xfId="1"/>
     <cellStyle name="?? 28" xfId="2"/>
-    <cellStyle name="?? 185 2 2" xfId="3"/>
+    <cellStyle name="?? 33" xfId="3"/>
     <cellStyle name="货币[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="常规 44" xfId="5"/>
-    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="常规 39" xfId="5"/>
+    <cellStyle name="常规 44" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 20" xfId="10"/>
-    <cellStyle name="?? 15" xfId="11"/>
+    <cellStyle name="?? 15" xfId="10"/>
+    <cellStyle name="?? 20" xfId="11"/>
     <cellStyle name="常规 2 26" xfId="12"/>
     <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="15"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="15"/>
     <cellStyle name="常规 7 3" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="18" builtinId="39"/>
     <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
-    <cellStyle name="?? 11" xfId="22"/>
+    <cellStyle name="?? 11" xfId="20"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="22"/>
     <cellStyle name="超链接" xfId="23" builtinId="8"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
     <cellStyle name="百分比" xfId="25" builtinId="5"/>
@@ -4653,11 +4647,11 @@
     <cellStyle name="输出" xfId="50" builtinId="21"/>
     <cellStyle name="常规 90" xfId="51"/>
     <cellStyle name="常规 85" xfId="52"/>
-    <cellStyle name="计算" xfId="53" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="54"/>
-    <cellStyle name="Input" xfId="55"/>
-    <cellStyle name="常规 26" xfId="56"/>
-    <cellStyle name="常规 31" xfId="57"/>
+    <cellStyle name="Input" xfId="53"/>
+    <cellStyle name="常规 26" xfId="54"/>
+    <cellStyle name="常规 31" xfId="55"/>
+    <cellStyle name="计算" xfId="56" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="57"/>
     <cellStyle name="检查单元格" xfId="58" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="59" builtinId="50"/>
     <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="60"/>
@@ -4681,9 +4675,9 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="80" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="82"/>
-    <cellStyle name="常规 2 26 2" xfId="83"/>
+    <cellStyle name="常规 2 26 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 3" xfId="82" builtinId="37"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="83"/>
     <cellStyle name="强调文字颜色 4" xfId="84" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="85" builtinId="42"/>
     <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="86"/>
@@ -4696,11 +4690,11 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="95" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="96" builtinId="52"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="97"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="98"/>
-    <cellStyle name="常规 48 3" xfId="99"/>
-    <cellStyle name="常规 53 3" xfId="100"/>
+    <cellStyle name="常规 48 3" xfId="96"/>
+    <cellStyle name="常规 53 3" xfId="97"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="98" builtinId="52"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="99"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="100"/>
     <cellStyle name="?? 12" xfId="101"/>
     <cellStyle name="?? 17" xfId="102"/>
     <cellStyle name="?? 22" xfId="103"/>
@@ -4709,12 +4703,12 @@
     <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="106"/>
     <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="107"/>
     <cellStyle name="??" xfId="108"/>
-    <cellStyle name="?? 10 2" xfId="109"/>
-    <cellStyle name="常规 72" xfId="110"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="111"/>
-    <cellStyle name="常规 67" xfId="112"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="113"/>
-    <cellStyle name="40% - Accent5" xfId="114"/>
+    <cellStyle name="常规 72" xfId="109"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="110"/>
+    <cellStyle name="常规 67" xfId="111"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="112"/>
+    <cellStyle name="40% - Accent5" xfId="113"/>
+    <cellStyle name="?? 10 2" xfId="114"/>
     <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="115"/>
     <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="116"/>
     <cellStyle name="?? 16" xfId="117"/>
@@ -4722,12 +4716,12 @@
     <cellStyle name="常规 2 2 3 2" xfId="119"/>
     <cellStyle name="?? 18" xfId="120"/>
     <cellStyle name="?? 23" xfId="121"/>
-    <cellStyle name="?? 185" xfId="122"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="123"/>
-    <cellStyle name="?? 26" xfId="124"/>
-    <cellStyle name="?? 31" xfId="125"/>
-    <cellStyle name="?? 185 2" xfId="126"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="127"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="122"/>
+    <cellStyle name="?? 185" xfId="123"/>
+    <cellStyle name="?? 185 2" xfId="124"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="125"/>
+    <cellStyle name="?? 26" xfId="126"/>
+    <cellStyle name="?? 31" xfId="127"/>
     <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="128"/>
     <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 19" xfId="130"/>
@@ -4739,41 +4733,41 @@
     <cellStyle name="常规 99 2_ITDM3.2期数据库设计汇总" xfId="136"/>
     <cellStyle name="?? 29" xfId="137"/>
     <cellStyle name="?? 34" xfId="138"/>
-    <cellStyle name="?? 3" xfId="139"/>
-    <cellStyle name="常规 27" xfId="140"/>
-    <cellStyle name="常规 32" xfId="141"/>
+    <cellStyle name="常规 27" xfId="139"/>
+    <cellStyle name="常规 32" xfId="140"/>
+    <cellStyle name="?? 3" xfId="141"/>
     <cellStyle name="?? 35" xfId="142"/>
-    <cellStyle name="?? 36" xfId="143"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="144"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="143"/>
+    <cellStyle name="?? 36" xfId="144"/>
     <cellStyle name="?? 37" xfId="145"/>
     <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="146"/>
     <cellStyle name="?? 38" xfId="147"/>
-    <cellStyle name="?? 4" xfId="148"/>
-    <cellStyle name="常规 62 2" xfId="149"/>
-    <cellStyle name="常规 28" xfId="150"/>
-    <cellStyle name="常规 33" xfId="151"/>
-    <cellStyle name="常规 57 2" xfId="152"/>
-    <cellStyle name="?? 5" xfId="153"/>
-    <cellStyle name="常规 2 4 3 2" xfId="154"/>
-    <cellStyle name="常规 62 3" xfId="155"/>
-    <cellStyle name="常规 29" xfId="156"/>
-    <cellStyle name="常规 34" xfId="157"/>
-    <cellStyle name="常规 57 3" xfId="158"/>
-    <cellStyle name="?? 6" xfId="159"/>
-    <cellStyle name="常规 35" xfId="160"/>
-    <cellStyle name="常规 40" xfId="161"/>
-    <cellStyle name="?? 7" xfId="162"/>
-    <cellStyle name="常规 36" xfId="163"/>
-    <cellStyle name="常规 41" xfId="164"/>
-    <cellStyle name="?? 8" xfId="165"/>
-    <cellStyle name="常规 2 2 2" xfId="166"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="167"/>
-    <cellStyle name="常规 37" xfId="168"/>
-    <cellStyle name="常规 42" xfId="169"/>
-    <cellStyle name="?? 9" xfId="170"/>
-    <cellStyle name="常规 2 2 3" xfId="171"/>
-    <cellStyle name="常规 38" xfId="172"/>
-    <cellStyle name="常规 43" xfId="173"/>
+    <cellStyle name="常规 62 2" xfId="148"/>
+    <cellStyle name="常规 28" xfId="149"/>
+    <cellStyle name="常规 33" xfId="150"/>
+    <cellStyle name="常规 57 2" xfId="151"/>
+    <cellStyle name="?? 4" xfId="152"/>
+    <cellStyle name="常规 62 3" xfId="153"/>
+    <cellStyle name="常规 29" xfId="154"/>
+    <cellStyle name="常规 34" xfId="155"/>
+    <cellStyle name="常规 57 3" xfId="156"/>
+    <cellStyle name="?? 5" xfId="157"/>
+    <cellStyle name="常规 2 4 3 2" xfId="158"/>
+    <cellStyle name="常规 35" xfId="159"/>
+    <cellStyle name="常规 40" xfId="160"/>
+    <cellStyle name="?? 6" xfId="161"/>
+    <cellStyle name="常规 36" xfId="162"/>
+    <cellStyle name="常规 41" xfId="163"/>
+    <cellStyle name="?? 7" xfId="164"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="165"/>
+    <cellStyle name="常规 37" xfId="166"/>
+    <cellStyle name="常规 42" xfId="167"/>
+    <cellStyle name="?? 8" xfId="168"/>
+    <cellStyle name="常规 2 2 2" xfId="169"/>
+    <cellStyle name="常规 38" xfId="170"/>
+    <cellStyle name="常规 43" xfId="171"/>
+    <cellStyle name="?? 9" xfId="172"/>
+    <cellStyle name="常规 2 2 3" xfId="173"/>
     <cellStyle name="??_Sheet1" xfId="174"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="175"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="176"/>
@@ -4784,12 +4778,12 @@
     <cellStyle name="20% - Accent2" xfId="181"/>
     <cellStyle name="20% - Accent2 2" xfId="182"/>
     <cellStyle name="20% - Accent3" xfId="183"/>
-    <cellStyle name="20% - Accent4" xfId="184"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="185"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="186"/>
-    <cellStyle name="常规 5 3 2" xfId="187"/>
-    <cellStyle name="20% - Accent4 2" xfId="188"/>
-    <cellStyle name="常规 4" xfId="189"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="184"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="185"/>
+    <cellStyle name="常规 5 3 2" xfId="186"/>
+    <cellStyle name="20% - Accent4" xfId="187"/>
+    <cellStyle name="常规 4" xfId="188"/>
+    <cellStyle name="20% - Accent4 2" xfId="189"/>
     <cellStyle name="20% - Accent5" xfId="190"/>
     <cellStyle name="20% - Accent5 2" xfId="191"/>
     <cellStyle name="20% - Accent6" xfId="192"/>
@@ -4831,33 +4825,33 @@
     <cellStyle name="常规 73 2" xfId="228"/>
     <cellStyle name="常规 68 2" xfId="229"/>
     <cellStyle name="40% - Accent6 2" xfId="230"/>
-    <cellStyle name="60% - Accent1" xfId="231"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="232"/>
-    <cellStyle name="60% - Accent2" xfId="233"/>
-    <cellStyle name="常规 2 2" xfId="234"/>
-    <cellStyle name="60% - Accent3" xfId="235"/>
-    <cellStyle name="常规 10 2 4 2" xfId="236"/>
-    <cellStyle name="常规 2 3" xfId="237"/>
-    <cellStyle name="60% - Accent4" xfId="238"/>
-    <cellStyle name="常规 2 4" xfId="239"/>
-    <cellStyle name="60% - Accent5" xfId="240"/>
-    <cellStyle name="常规 2 5" xfId="241"/>
-    <cellStyle name="60% - Accent6" xfId="242"/>
-    <cellStyle name="常规 2 6" xfId="243"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="231"/>
+    <cellStyle name="60% - Accent1" xfId="232"/>
+    <cellStyle name="常规 2 2" xfId="233"/>
+    <cellStyle name="60% - Accent2" xfId="234"/>
+    <cellStyle name="常规 2 3" xfId="235"/>
+    <cellStyle name="60% - Accent3" xfId="236"/>
+    <cellStyle name="常规 10 2 4 2" xfId="237"/>
+    <cellStyle name="常规 2 4" xfId="238"/>
+    <cellStyle name="60% - Accent4" xfId="239"/>
+    <cellStyle name="常规 2 5" xfId="240"/>
+    <cellStyle name="60% - Accent5" xfId="241"/>
+    <cellStyle name="常规 2 6" xfId="242"/>
+    <cellStyle name="60% - Accent6" xfId="243"/>
     <cellStyle name="Accent1" xfId="244"/>
     <cellStyle name="Accent2" xfId="245"/>
-    <cellStyle name="Accent3" xfId="246"/>
-    <cellStyle name="常规 102 2" xfId="247"/>
-    <cellStyle name="Accent4" xfId="248"/>
-    <cellStyle name="常规 102 3" xfId="249"/>
-    <cellStyle name="Accent5" xfId="250"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="251"/>
-    <cellStyle name="Accent6" xfId="252"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="253"/>
-    <cellStyle name="常规 92" xfId="254"/>
-    <cellStyle name="常规 87" xfId="255"/>
-    <cellStyle name="Bad" xfId="256"/>
-    <cellStyle name="常规 2 3 2" xfId="257"/>
+    <cellStyle name="常规 102 2" xfId="246"/>
+    <cellStyle name="Accent3" xfId="247"/>
+    <cellStyle name="常规 102 3" xfId="248"/>
+    <cellStyle name="Accent4" xfId="249"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="250"/>
+    <cellStyle name="Accent5" xfId="251"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="252"/>
+    <cellStyle name="Accent6" xfId="253"/>
+    <cellStyle name="常规 2 3 2" xfId="254"/>
+    <cellStyle name="常规 92" xfId="255"/>
+    <cellStyle name="常规 87" xfId="256"/>
+    <cellStyle name="Bad" xfId="257"/>
     <cellStyle name="Calculation" xfId="258"/>
     <cellStyle name="常规 106" xfId="259"/>
     <cellStyle name="常规 111" xfId="260"/>
@@ -4867,25 +4861,25 @@
     <cellStyle name="常规 20" xfId="264"/>
     <cellStyle name="强调文字颜色 1 2" xfId="265"/>
     <cellStyle name="Explanatory Text" xfId="266"/>
-    <cellStyle name="Good" xfId="267"/>
-    <cellStyle name="常规 10" xfId="268"/>
-    <cellStyle name="超链接 9" xfId="269"/>
-    <cellStyle name="常规 16 2" xfId="270"/>
+    <cellStyle name="超链接 9" xfId="267"/>
+    <cellStyle name="常规 16 2" xfId="268"/>
+    <cellStyle name="Good" xfId="269"/>
+    <cellStyle name="常规 10" xfId="270"/>
     <cellStyle name="Heading 1" xfId="271"/>
     <cellStyle name="Heading 2" xfId="272"/>
     <cellStyle name="Heading 4" xfId="273"/>
     <cellStyle name="Linked Cell" xfId="274"/>
     <cellStyle name="Neutral" xfId="275"/>
-    <cellStyle name="Normal 2" xfId="276"/>
-    <cellStyle name="常规 115" xfId="277"/>
-    <cellStyle name="常规 120" xfId="278"/>
-    <cellStyle name="Normal 2 2" xfId="279"/>
-    <cellStyle name="常规 120 2" xfId="280"/>
+    <cellStyle name="常规 115" xfId="276"/>
+    <cellStyle name="常规 120" xfId="277"/>
+    <cellStyle name="Normal 2" xfId="278"/>
+    <cellStyle name="常规 120 2" xfId="279"/>
+    <cellStyle name="Normal 2 2" xfId="280"/>
     <cellStyle name="Normal 2 3" xfId="281"/>
-    <cellStyle name="常规 116" xfId="282"/>
-    <cellStyle name="常规 121" xfId="283"/>
-    <cellStyle name="Normal 3" xfId="284"/>
-    <cellStyle name="常规 3 7 2" xfId="285"/>
+    <cellStyle name="Normal 3" xfId="282"/>
+    <cellStyle name="常规 3 7 2" xfId="283"/>
+    <cellStyle name="常规 116" xfId="284"/>
+    <cellStyle name="常规 121" xfId="285"/>
     <cellStyle name="Normal 3 2" xfId="286"/>
     <cellStyle name="常规 72 2 2" xfId="287"/>
     <cellStyle name="常规 67 2 2" xfId="288"/>
@@ -4895,14 +4889,14 @@
     <cellStyle name="Note 2" xfId="292"/>
     <cellStyle name="Output" xfId="293"/>
     <cellStyle name="常规 4 2 3 4" xfId="294"/>
-    <cellStyle name="Title" xfId="295"/>
-    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="296"/>
-    <cellStyle name="常规 2" xfId="297"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="298"/>
-    <cellStyle name="Total" xfId="299"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="300"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="301"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="302"/>
+    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="295"/>
+    <cellStyle name="常规 2" xfId="296"/>
+    <cellStyle name="Title" xfId="297"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="298"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="299"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="300"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="301"/>
+    <cellStyle name="Total" xfId="302"/>
     <cellStyle name="Warning Text" xfId="303"/>
     <cellStyle name="百分比 2" xfId="304"/>
     <cellStyle name="常规 10 2 2 3 2" xfId="305"/>
@@ -4911,9 +4905,9 @@
     <cellStyle name="差_Sheet1" xfId="308"/>
     <cellStyle name="差_Sheet1 2" xfId="309"/>
     <cellStyle name="差_Sheet2" xfId="310"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="311"/>
-    <cellStyle name="差_Sheet3" xfId="312"/>
-    <cellStyle name="常规 3 2" xfId="313"/>
+    <cellStyle name="差_Sheet3" xfId="311"/>
+    <cellStyle name="常规 3 2" xfId="312"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="313"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="314"/>
     <cellStyle name="常规 96" xfId="315"/>
     <cellStyle name="差_保函明细" xfId="316"/>
@@ -4923,20 +4917,20 @@
     <cellStyle name="常规 50 2 2" xfId="320"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="321"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="322"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="323"/>
-    <cellStyle name="常规 51 2" xfId="324"/>
+    <cellStyle name="常规 51 2" xfId="323"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="324"/>
     <cellStyle name="常规 10 2" xfId="325"/>
-    <cellStyle name="常规 10 2 2" xfId="326"/>
-    <cellStyle name="常规 2 7" xfId="327"/>
+    <cellStyle name="常规 2 7" xfId="326"/>
+    <cellStyle name="常规 10 2 2" xfId="327"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="328"/>
     <cellStyle name="常规 10 2 2 2" xfId="329"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="330"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="331"/>
     <cellStyle name="常规 10 2 2 2 2 2 2" xfId="332"/>
     <cellStyle name="常规 10 2 2 2 3 3" xfId="333"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="334"/>
-    <cellStyle name="常规 47" xfId="335"/>
-    <cellStyle name="常规 52" xfId="336"/>
+    <cellStyle name="常规 47" xfId="334"/>
+    <cellStyle name="常规 52" xfId="335"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="336"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="337"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="338"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="339"/>
@@ -4962,8 +4956,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="359"/>
     <cellStyle name="常规 10 2 2 6" xfId="360"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="361"/>
-    <cellStyle name="常规 10 2 3" xfId="362"/>
-    <cellStyle name="常规 2 8" xfId="363"/>
+    <cellStyle name="常规 2 8" xfId="362"/>
+    <cellStyle name="常规 10 2 3" xfId="363"/>
     <cellStyle name="常规 10 2 3 2" xfId="364"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="365"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="366"/>
@@ -4978,14 +4972,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="375"/>
     <cellStyle name="常规 10 2 3 4" xfId="376"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="377"/>
-    <cellStyle name="常规 10 2 3 5" xfId="378"/>
-    <cellStyle name="常规 2 10" xfId="379"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="380"/>
-    <cellStyle name="常规 10 2 4" xfId="381"/>
-    <cellStyle name="常规 2 9" xfId="382"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="378"/>
+    <cellStyle name="常规 10 2 3 5" xfId="379"/>
+    <cellStyle name="常规 2 10" xfId="380"/>
+    <cellStyle name="常规 2 9" xfId="381"/>
+    <cellStyle name="常规 10 2 4" xfId="382"/>
     <cellStyle name="常规 10 2 5" xfId="383"/>
-    <cellStyle name="常规 10 2 5 2" xfId="384"/>
-    <cellStyle name="常规 3 3" xfId="385"/>
+    <cellStyle name="常规 3 3" xfId="384"/>
+    <cellStyle name="常规 10 2 5 2" xfId="385"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="386"/>
     <cellStyle name="常规 100" xfId="387"/>
     <cellStyle name="常规 4 2 3" xfId="388"/>
@@ -5004,8 +4998,8 @@
     <cellStyle name="常规 101 2" xfId="401"/>
     <cellStyle name="常规 4 6 2" xfId="402"/>
     <cellStyle name="常规 101 2 2" xfId="403"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="404"/>
-    <cellStyle name="常规 101 3" xfId="405"/>
+    <cellStyle name="常规 101 3" xfId="404"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="405"/>
     <cellStyle name="常规 102" xfId="406"/>
     <cellStyle name="常规 4 2 5" xfId="407"/>
     <cellStyle name="常规 4 7" xfId="408"/>
@@ -5040,11 +5034,11 @@
     <cellStyle name="常规 21" xfId="437"/>
     <cellStyle name="常规 17" xfId="438"/>
     <cellStyle name="常规 22" xfId="439"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="440"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 17 2" xfId="442"/>
-    <cellStyle name="常规 55" xfId="443"/>
-    <cellStyle name="常规 60" xfId="444"/>
+    <cellStyle name="常规 55" xfId="440"/>
+    <cellStyle name="常规 60" xfId="441"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="442"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="443"/>
+    <cellStyle name="常规 17 2" xfId="444"/>
     <cellStyle name="常规 18" xfId="445"/>
     <cellStyle name="常规 23" xfId="446"/>
     <cellStyle name="常规 18 2" xfId="447"/>
@@ -5056,10 +5050,10 @@
     <cellStyle name="常规 2 13" xfId="453"/>
     <cellStyle name="常规 95_ITDM3.2期数据库设计汇总" xfId="454"/>
     <cellStyle name="常规 2 14" xfId="455"/>
-    <cellStyle name="常规 2 15" xfId="456"/>
-    <cellStyle name="常规 2 20" xfId="457"/>
-    <cellStyle name="常规 62 2 2" xfId="458"/>
-    <cellStyle name="常规 57 2 2" xfId="459"/>
+    <cellStyle name="常规 62 2 2" xfId="456"/>
+    <cellStyle name="常规 57 2 2" xfId="457"/>
+    <cellStyle name="常规 2 15" xfId="458"/>
+    <cellStyle name="常规 2 20" xfId="459"/>
     <cellStyle name="常规 2 16" xfId="460"/>
     <cellStyle name="常规 2 21" xfId="461"/>
     <cellStyle name="常规 2 16 2" xfId="462"/>
@@ -5079,9 +5073,9 @@
     <cellStyle name="常规 2 3 4 2" xfId="476"/>
     <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="477"/>
     <cellStyle name="常规 2 4 2" xfId="478"/>
-    <cellStyle name="常规 2 4 2 2" xfId="479"/>
-    <cellStyle name="常规 61 3" xfId="480"/>
-    <cellStyle name="常规 56 3" xfId="481"/>
+    <cellStyle name="常规 61 3" xfId="479"/>
+    <cellStyle name="常规 56 3" xfId="480"/>
+    <cellStyle name="常规 2 4 2 2" xfId="481"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="482"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="483"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="484"/>
@@ -5093,259 +5087,259 @@
     <cellStyle name="常规 2 4 3" xfId="490"/>
     <cellStyle name="常规 2 4 4" xfId="491"/>
     <cellStyle name="常规 2 4 5" xfId="492"/>
-    <cellStyle name="常规 2 4 5 2" xfId="493"/>
-    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="494"/>
-    <cellStyle name="常规 59 3" xfId="495"/>
+    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="493"/>
+    <cellStyle name="常规 59 3" xfId="494"/>
+    <cellStyle name="常规 2 4 5 2" xfId="495"/>
     <cellStyle name="常规 25" xfId="496"/>
     <cellStyle name="常规 30" xfId="497"/>
-    <cellStyle name="常规 3" xfId="498"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="499"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="498"/>
+    <cellStyle name="常规 3" xfId="499"/>
     <cellStyle name="常规 3 2 2" xfId="500"/>
     <cellStyle name="常规 3 4" xfId="501"/>
     <cellStyle name="常规 3 5" xfId="502"/>
-    <cellStyle name="常规 3 6" xfId="503"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="504"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="505"/>
-    <cellStyle name="常规 3 7" xfId="506"/>
-    <cellStyle name="常规 91 2 2" xfId="507"/>
-    <cellStyle name="常规 86 2 2" xfId="508"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="509"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="510"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="503"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="504"/>
+    <cellStyle name="常规 3 6" xfId="505"/>
+    <cellStyle name="常规 91 2 2" xfId="506"/>
+    <cellStyle name="常规 86 2 2" xfId="507"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="508"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="509"/>
+    <cellStyle name="常规 3 7" xfId="510"/>
     <cellStyle name="常规 3 8" xfId="511"/>
     <cellStyle name="常规 35 2" xfId="512"/>
     <cellStyle name="常规 4 2" xfId="513"/>
-    <cellStyle name="常规 4 4" xfId="514"/>
-    <cellStyle name="常规 4 2 2" xfId="515"/>
-    <cellStyle name="常规 6 4" xfId="516"/>
-    <cellStyle name="常规 4 2 2 2" xfId="517"/>
+    <cellStyle name="常规 4 2 2" xfId="514"/>
+    <cellStyle name="常规 4 4" xfId="515"/>
+    <cellStyle name="常规 4 2 2 2" xfId="516"/>
+    <cellStyle name="常规 6 4" xfId="517"/>
     <cellStyle name="常规 4 2 3 5" xfId="518"/>
     <cellStyle name="常规 4 3" xfId="519"/>
-    <cellStyle name="常规 5" xfId="520"/>
-    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 50" xfId="522"/>
-    <cellStyle name="常规 45" xfId="523"/>
-    <cellStyle name="常规 50 2" xfId="524"/>
-    <cellStyle name="常规 45 2" xfId="525"/>
+    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 5" xfId="521"/>
+    <cellStyle name="常规 45" xfId="522"/>
+    <cellStyle name="常规 50" xfId="523"/>
+    <cellStyle name="常规 45 2" xfId="524"/>
+    <cellStyle name="常规 50 2" xfId="525"/>
     <cellStyle name="常规 45 2 2 2" xfId="526"/>
     <cellStyle name="常规 45 2 2_ITDM3.2期数据库设计汇总" xfId="527"/>
     <cellStyle name="常规 45 2 3" xfId="528"/>
-    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="529"/>
-    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 50 3" xfId="531"/>
-    <cellStyle name="常规 45 3" xfId="532"/>
+    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="529"/>
+    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 45 3" xfId="531"/>
+    <cellStyle name="常规 50 3" xfId="532"/>
     <cellStyle name="常规 45 3 2" xfId="533"/>
-    <cellStyle name="常规 45 4" xfId="534"/>
-    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="536"/>
-    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="537"/>
-    <cellStyle name="常规 51" xfId="538"/>
-    <cellStyle name="常规 46" xfId="539"/>
-    <cellStyle name="常规 52 2" xfId="540"/>
-    <cellStyle name="常规 47 2" xfId="541"/>
-    <cellStyle name="常规 52 2 2" xfId="542"/>
-    <cellStyle name="常规 47 2 2" xfId="543"/>
-    <cellStyle name="常规 59 2 2" xfId="544"/>
+    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 45 4" xfId="535"/>
+    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="536"/>
+    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="537"/>
+    <cellStyle name="常规 46" xfId="538"/>
+    <cellStyle name="常规 51" xfId="539"/>
+    <cellStyle name="常规 47 2" xfId="540"/>
+    <cellStyle name="常规 52 2" xfId="541"/>
+    <cellStyle name="常规 47 2 2" xfId="542"/>
+    <cellStyle name="常规 52 2 2" xfId="543"/>
+    <cellStyle name="常规 47 3" xfId="544"/>
     <cellStyle name="常规 52 3" xfId="545"/>
-    <cellStyle name="常规 47 3" xfId="546"/>
-    <cellStyle name="常规 53" xfId="547"/>
+    <cellStyle name="常规 59 2 2" xfId="546"/>
+    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="547"/>
     <cellStyle name="常规 48" xfId="548"/>
-    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="549"/>
-    <cellStyle name="常规 53 2 2" xfId="550"/>
-    <cellStyle name="常规 48 2 2" xfId="551"/>
-    <cellStyle name="常规 54" xfId="552"/>
-    <cellStyle name="常规 49" xfId="553"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 54 2 2" xfId="556"/>
-    <cellStyle name="常规 49 2 2" xfId="557"/>
-    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="558"/>
-    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="559"/>
-    <cellStyle name="常规 54 3" xfId="560"/>
-    <cellStyle name="常规 49 3" xfId="561"/>
-    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="常规 53" xfId="549"/>
+    <cellStyle name="常规 48 2 2" xfId="550"/>
+    <cellStyle name="常规 53 2 2" xfId="551"/>
+    <cellStyle name="常规 49" xfId="552"/>
+    <cellStyle name="常规 54" xfId="553"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 49 2 2" xfId="556"/>
+    <cellStyle name="常规 54 2 2" xfId="557"/>
+    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="558"/>
+    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="559"/>
+    <cellStyle name="常规 49 3" xfId="560"/>
+    <cellStyle name="常规 54 3" xfId="561"/>
+    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="563"/>
     <cellStyle name="常规 5 3" xfId="564"/>
     <cellStyle name="常规 5 4" xfId="565"/>
     <cellStyle name="常规 51 3" xfId="566"/>
     <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="567"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 60 2" xfId="569"/>
-    <cellStyle name="常规 55 2" xfId="570"/>
-    <cellStyle name="常规 60 2 2" xfId="571"/>
-    <cellStyle name="常规 55 2 2" xfId="572"/>
-    <cellStyle name="常规 60 3" xfId="573"/>
-    <cellStyle name="常规 55 3" xfId="574"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 61" xfId="577"/>
-    <cellStyle name="常规 56" xfId="578"/>
-    <cellStyle name="常规 61 2" xfId="579"/>
-    <cellStyle name="常规 56 2" xfId="580"/>
-    <cellStyle name="常规 61 2 2" xfId="581"/>
-    <cellStyle name="常规 56 2 2" xfId="582"/>
-    <cellStyle name="常规 57" xfId="583"/>
-    <cellStyle name="常规 62" xfId="584"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="585"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="586"/>
-    <cellStyle name="常规 58 2 2" xfId="587"/>
-    <cellStyle name="常规 63 2 2" xfId="588"/>
-    <cellStyle name="常规 78 2" xfId="589"/>
-    <cellStyle name="常规 83 2" xfId="590"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="593"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="594"/>
-    <cellStyle name="常规 58 3" xfId="595"/>
-    <cellStyle name="常规 63 3" xfId="596"/>
-    <cellStyle name="常规 79" xfId="597"/>
-    <cellStyle name="常规 84" xfId="598"/>
+    <cellStyle name="常规 55 2" xfId="569"/>
+    <cellStyle name="常规 60 2" xfId="570"/>
+    <cellStyle name="常规 55 2 2" xfId="571"/>
+    <cellStyle name="常规 60 2 2" xfId="572"/>
+    <cellStyle name="常规 55 3" xfId="573"/>
+    <cellStyle name="常规 60 3" xfId="574"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 56" xfId="577"/>
+    <cellStyle name="常规 61" xfId="578"/>
+    <cellStyle name="常规 56 2" xfId="579"/>
+    <cellStyle name="常规 61 2" xfId="580"/>
+    <cellStyle name="常规 56 2 2" xfId="581"/>
+    <cellStyle name="常规 61 2 2" xfId="582"/>
+    <cellStyle name="常规 62" xfId="583"/>
+    <cellStyle name="常规 57" xfId="584"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="585"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="586"/>
+    <cellStyle name="常规 83 2" xfId="587"/>
+    <cellStyle name="常规 78 2" xfId="588"/>
+    <cellStyle name="常规 63 2 2" xfId="589"/>
+    <cellStyle name="常规 58 2 2" xfId="590"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="593"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="594"/>
+    <cellStyle name="常规 84" xfId="595"/>
+    <cellStyle name="常规 79" xfId="596"/>
+    <cellStyle name="常规 63 3" xfId="597"/>
+    <cellStyle name="常规 58 3" xfId="598"/>
     <cellStyle name="常规 6 2" xfId="599"/>
-    <cellStyle name="常规 6 3" xfId="600"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="600"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="601"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="602"/>
+    <cellStyle name="常规 6 3" xfId="602"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="603"/>
-    <cellStyle name="常规 65 2 2" xfId="604"/>
+    <cellStyle name="常规 97 3" xfId="604"/>
     <cellStyle name="常规 70 2 2" xfId="605"/>
-    <cellStyle name="常规 97 3" xfId="606"/>
-    <cellStyle name="常规 65 3" xfId="607"/>
-    <cellStyle name="常规 70 3" xfId="608"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="609"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="610"/>
-    <cellStyle name="常规 66 2 2" xfId="611"/>
-    <cellStyle name="常规 71 2 2" xfId="612"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="613"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="614"/>
-    <cellStyle name="常规 66 3" xfId="615"/>
+    <cellStyle name="常规 65 2 2" xfId="606"/>
+    <cellStyle name="常规 70 3" xfId="607"/>
+    <cellStyle name="常规 65 3" xfId="608"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="609"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="610"/>
+    <cellStyle name="常规 71 2 2" xfId="611"/>
+    <cellStyle name="常规 66 2 2" xfId="612"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="613"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="614"/>
+    <cellStyle name="样式 1" xfId="615"/>
     <cellStyle name="常规 71 3" xfId="616"/>
-    <cellStyle name="样式 1" xfId="617"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="618"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="619"/>
-    <cellStyle name="常规 67 3" xfId="620"/>
-    <cellStyle name="常规 72 3" xfId="621"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="622"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="623"/>
-    <cellStyle name="常规 68 2 2" xfId="624"/>
-    <cellStyle name="常规 73 2 2" xfId="625"/>
-    <cellStyle name="常规 68 3" xfId="626"/>
-    <cellStyle name="常规 73 3" xfId="627"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="628"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 69" xfId="630"/>
-    <cellStyle name="常规 74" xfId="631"/>
-    <cellStyle name="常规 69 2" xfId="632"/>
-    <cellStyle name="常规 74 2" xfId="633"/>
-    <cellStyle name="常规 69 2 2" xfId="634"/>
-    <cellStyle name="常规 74 2 2" xfId="635"/>
-    <cellStyle name="常规 69 3" xfId="636"/>
-    <cellStyle name="常规 74 3" xfId="637"/>
+    <cellStyle name="常规 66 3" xfId="617"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="618"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="619"/>
+    <cellStyle name="常规 72 3" xfId="620"/>
+    <cellStyle name="常规 67 3" xfId="621"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="622"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="623"/>
+    <cellStyle name="常规 73 2 2" xfId="624"/>
+    <cellStyle name="常规 68 2 2" xfId="625"/>
+    <cellStyle name="常规 73 3" xfId="626"/>
+    <cellStyle name="常规 68 3" xfId="627"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="628"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 74" xfId="630"/>
+    <cellStyle name="常规 69" xfId="631"/>
+    <cellStyle name="常规 74 2" xfId="632"/>
+    <cellStyle name="常规 69 2" xfId="633"/>
+    <cellStyle name="常规 74 2 2" xfId="634"/>
+    <cellStyle name="常规 69 2 2" xfId="635"/>
+    <cellStyle name="常规 74 3" xfId="636"/>
+    <cellStyle name="常规 69 3" xfId="637"/>
     <cellStyle name="常规 7" xfId="638"/>
     <cellStyle name="常规 7 2" xfId="639"/>
-    <cellStyle name="常规 75" xfId="640"/>
-    <cellStyle name="常规 80" xfId="641"/>
-    <cellStyle name="常规 75 2" xfId="642"/>
+    <cellStyle name="常规 80" xfId="640"/>
+    <cellStyle name="常规 75" xfId="641"/>
+    <cellStyle name="超链接 19" xfId="642"/>
     <cellStyle name="常规 80 2" xfId="643"/>
-    <cellStyle name="超链接 19" xfId="644"/>
-    <cellStyle name="常规 75 2 2" xfId="645"/>
-    <cellStyle name="常规 80 2 2" xfId="646"/>
-    <cellStyle name="常规 75 3" xfId="647"/>
-    <cellStyle name="常规 80 3" xfId="648"/>
-    <cellStyle name="常规 76" xfId="649"/>
-    <cellStyle name="常规 81" xfId="650"/>
-    <cellStyle name="常规 76 2" xfId="651"/>
-    <cellStyle name="常规 81 2" xfId="652"/>
-    <cellStyle name="常规 76 3" xfId="653"/>
-    <cellStyle name="常规 81 3" xfId="654"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="655"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="656"/>
-    <cellStyle name="常规 77" xfId="657"/>
-    <cellStyle name="常规 82" xfId="658"/>
-    <cellStyle name="常规 77 2" xfId="659"/>
-    <cellStyle name="常规 82 2" xfId="660"/>
-    <cellStyle name="常规 77 2 2" xfId="661"/>
-    <cellStyle name="常规 82 2 2" xfId="662"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="664"/>
-    <cellStyle name="常规 77 3" xfId="665"/>
-    <cellStyle name="常规 82 3" xfId="666"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="667"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="668"/>
-    <cellStyle name="常规 78 2 2" xfId="669"/>
-    <cellStyle name="常规 83 2 2" xfId="670"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 78 3" xfId="673"/>
-    <cellStyle name="常规 83 3" xfId="674"/>
-    <cellStyle name="常规 79 2" xfId="675"/>
-    <cellStyle name="常规 84 2" xfId="676"/>
-    <cellStyle name="常规 79 2 2" xfId="677"/>
-    <cellStyle name="常规 84 2 2" xfId="678"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="679"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 79 3" xfId="681"/>
-    <cellStyle name="常规 84 3" xfId="682"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="684"/>
+    <cellStyle name="常规 75 2" xfId="644"/>
+    <cellStyle name="常规 80 2 2" xfId="645"/>
+    <cellStyle name="常规 75 2 2" xfId="646"/>
+    <cellStyle name="常规 80 3" xfId="647"/>
+    <cellStyle name="常规 75 3" xfId="648"/>
+    <cellStyle name="常规 81" xfId="649"/>
+    <cellStyle name="常规 76" xfId="650"/>
+    <cellStyle name="常规 81 2" xfId="651"/>
+    <cellStyle name="常规 76 2" xfId="652"/>
+    <cellStyle name="常规 81 3" xfId="653"/>
+    <cellStyle name="常规 76 3" xfId="654"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="655"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="656"/>
+    <cellStyle name="常规 82" xfId="657"/>
+    <cellStyle name="常规 77" xfId="658"/>
+    <cellStyle name="常规 82 2" xfId="659"/>
+    <cellStyle name="常规 77 2" xfId="660"/>
+    <cellStyle name="常规 82 2 2" xfId="661"/>
+    <cellStyle name="常规 77 2 2" xfId="662"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 82 3" xfId="665"/>
+    <cellStyle name="常规 77 3" xfId="666"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="667"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="668"/>
+    <cellStyle name="常规 83 2 2" xfId="669"/>
+    <cellStyle name="常规 78 2 2" xfId="670"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 83 3" xfId="673"/>
+    <cellStyle name="常规 78 3" xfId="674"/>
+    <cellStyle name="常规 84 2" xfId="675"/>
+    <cellStyle name="常规 79 2" xfId="676"/>
+    <cellStyle name="常规 84 2 2" xfId="677"/>
+    <cellStyle name="常规 79 2 2" xfId="678"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="679"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 84 3" xfId="681"/>
+    <cellStyle name="常规 79 3" xfId="682"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="684"/>
     <cellStyle name="常规 8" xfId="685"/>
-    <cellStyle name="常规 85 2" xfId="686"/>
-    <cellStyle name="常规 90 2" xfId="687"/>
-    <cellStyle name="常规 85 2 2" xfId="688"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="689"/>
-    <cellStyle name="常规 90 2 2" xfId="690"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="692"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="693"/>
-    <cellStyle name="常规 85 3" xfId="694"/>
-    <cellStyle name="常规 90 3" xfId="695"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="696"/>
+    <cellStyle name="常规 90 2" xfId="686"/>
+    <cellStyle name="常规 85 2" xfId="687"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="688"/>
+    <cellStyle name="常规 90 2 2" xfId="689"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 85 2 2" xfId="691"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="692"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="693"/>
+    <cellStyle name="常规 90 3" xfId="694"/>
+    <cellStyle name="常规 85 3" xfId="695"/>
+    <cellStyle name="常规 96 3" xfId="696"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="697"/>
-    <cellStyle name="常规 96 3" xfId="698"/>
-    <cellStyle name="常规 86" xfId="699"/>
-    <cellStyle name="常规 91" xfId="700"/>
-    <cellStyle name="常规 86 2" xfId="701"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="702"/>
-    <cellStyle name="常规 91 2" xfId="703"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="704"/>
-    <cellStyle name="常规 86 3" xfId="705"/>
-    <cellStyle name="常规 91 3" xfId="706"/>
-    <cellStyle name="常规 87 2" xfId="707"/>
-    <cellStyle name="常规 92 2" xfId="708"/>
-    <cellStyle name="常规 87 2 2" xfId="709"/>
-    <cellStyle name="常规 92 2 2" xfId="710"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="711"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="712"/>
-    <cellStyle name="常规 87 3" xfId="713"/>
-    <cellStyle name="常规 92 3" xfId="714"/>
-    <cellStyle name="常规 88" xfId="715"/>
-    <cellStyle name="常规 93" xfId="716"/>
-    <cellStyle name="常规 88 2" xfId="717"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 91" xfId="699"/>
+    <cellStyle name="常规 86" xfId="700"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="701"/>
+    <cellStyle name="常规 91 2" xfId="702"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="703"/>
+    <cellStyle name="常规 86 2" xfId="704"/>
+    <cellStyle name="常规 91 3" xfId="705"/>
+    <cellStyle name="常规 86 3" xfId="706"/>
+    <cellStyle name="常规 92 2" xfId="707"/>
+    <cellStyle name="常规 87 2" xfId="708"/>
+    <cellStyle name="常规 92 2 2" xfId="709"/>
+    <cellStyle name="常规 87 2 2" xfId="710"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="711"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="712"/>
+    <cellStyle name="常规 92 3" xfId="713"/>
+    <cellStyle name="常规 87 3" xfId="714"/>
+    <cellStyle name="常规 93" xfId="715"/>
+    <cellStyle name="常规 88" xfId="716"/>
+    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="717"/>
     <cellStyle name="常规 93 2" xfId="718"/>
-    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="719"/>
-    <cellStyle name="常规 88 2 2" xfId="720"/>
-    <cellStyle name="常规 93 2 2" xfId="721"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="722"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 88 3" xfId="724"/>
-    <cellStyle name="常规 93 3" xfId="725"/>
-    <cellStyle name="常规 89" xfId="726"/>
-    <cellStyle name="常规 94" xfId="727"/>
-    <cellStyle name="常规 89 2" xfId="728"/>
-    <cellStyle name="常规 94 2" xfId="729"/>
-    <cellStyle name="常规 89 2 2" xfId="730"/>
-    <cellStyle name="常规 94 2 2" xfId="731"/>
-    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="732"/>
-    <cellStyle name="常规 98" xfId="733"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="734"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="735"/>
-    <cellStyle name="常规 89 3" xfId="736"/>
-    <cellStyle name="常规 94 3" xfId="737"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="738"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="739"/>
+    <cellStyle name="常规 88 2" xfId="719"/>
+    <cellStyle name="常规 93 2 2" xfId="720"/>
+    <cellStyle name="常规 88 2 2" xfId="721"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="722"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 93 3" xfId="724"/>
+    <cellStyle name="常规 88 3" xfId="725"/>
+    <cellStyle name="常规 94" xfId="726"/>
+    <cellStyle name="常规 89" xfId="727"/>
+    <cellStyle name="常规 94 2" xfId="728"/>
+    <cellStyle name="常规 89 2" xfId="729"/>
+    <cellStyle name="常规 98" xfId="730"/>
+    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="731"/>
+    <cellStyle name="常规 94 2 2" xfId="732"/>
+    <cellStyle name="常规 89 2 2" xfId="733"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="734"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="735"/>
+    <cellStyle name="常规 94 3" xfId="736"/>
+    <cellStyle name="常规 89 3" xfId="737"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="738"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="739"/>
     <cellStyle name="常规 9" xfId="740"/>
     <cellStyle name="常规 9 2" xfId="741"/>
     <cellStyle name="常规 95" xfId="742"/>
     <cellStyle name="常规 95 2" xfId="743"/>
-    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="744"/>
-    <cellStyle name="常规 95 3" xfId="745"/>
+    <cellStyle name="常规 95 3" xfId="744"/>
+    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="745"/>
     <cellStyle name="常规 96 2" xfId="746"/>
     <cellStyle name="常规 96 2 2" xfId="747"/>
     <cellStyle name="常规 96_ITDM3.2期数据库设计汇总" xfId="748"/>
@@ -5367,17 +5361,17 @@
     <cellStyle name="超链接 12" xfId="764"/>
     <cellStyle name="超链接 13" xfId="765"/>
     <cellStyle name="超链接 14" xfId="766"/>
-    <cellStyle name="超链接 16" xfId="767"/>
-    <cellStyle name="超链接 21" xfId="768"/>
-    <cellStyle name="超链接 17" xfId="769"/>
-    <cellStyle name="超链接 22" xfId="770"/>
+    <cellStyle name="超链接 21" xfId="767"/>
+    <cellStyle name="超链接 16" xfId="768"/>
+    <cellStyle name="超链接 22" xfId="769"/>
+    <cellStyle name="超链接 17" xfId="770"/>
     <cellStyle name="超链接 18" xfId="771"/>
-    <cellStyle name="超链接 2" xfId="772"/>
-    <cellStyle name="好_Sheet1" xfId="773"/>
-    <cellStyle name="超链接 3" xfId="774"/>
-    <cellStyle name="好_Sheet2" xfId="775"/>
-    <cellStyle name="超链接 4" xfId="776"/>
-    <cellStyle name="好_Sheet3" xfId="777"/>
+    <cellStyle name="好_Sheet1" xfId="772"/>
+    <cellStyle name="超链接 2" xfId="773"/>
+    <cellStyle name="好_Sheet2" xfId="774"/>
+    <cellStyle name="超链接 3" xfId="775"/>
+    <cellStyle name="好_Sheet3" xfId="776"/>
+    <cellStyle name="超链接 4" xfId="777"/>
     <cellStyle name="超链接 7" xfId="778"/>
     <cellStyle name="超链接 8" xfId="779"/>
     <cellStyle name="好_Sheet1 2" xfId="780"/>
@@ -7722,13 +7716,13 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="28.1111111111111" customWidth="1"/>
@@ -7811,7 +7805,7 @@
         <v>88</v>
       </c>
       <c r="C5" s="5">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>89</v>
@@ -7822,53 +7816,36 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="5">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -7963,10 +7940,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5">
         <v>6</v>
@@ -7975,12 +7952,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>84</v>
@@ -7992,7 +7969,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8009,7 +7986,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8026,7 +8003,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8080,7 +8057,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>130</v>
@@ -8090,7 +8067,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8205,7 +8182,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8222,12 +8199,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>94</v>
@@ -8239,7 +8216,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8371,12 +8348,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -8388,12 +8365,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -8405,7 +8382,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8427,7 +8404,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>94</v>
@@ -8439,12 +8416,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>94</v>
@@ -8456,12 +8433,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>94</v>
@@ -8473,12 +8450,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>94</v>
@@ -8490,7 +8467,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8524,12 +8501,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>88</v>
@@ -8541,12 +8518,12 @@
         <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="9" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>88</v>
@@ -8558,12 +8535,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>84</v>
@@ -8575,7 +8552,7 @@
         <v>89</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8722,7 +8699,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8739,7 +8716,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8756,7 +8733,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8873,7 +8850,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -8885,7 +8862,7 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8902,7 +8879,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8924,7 +8901,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -8936,7 +8913,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:5">
@@ -9038,7 +9015,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -9050,12 +9027,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -9067,7 +9044,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9101,7 +9078,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9118,7 +9095,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9643,7 +9620,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -9655,7 +9632,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9672,12 +9649,12 @@
         <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -9689,7 +9666,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:5">
@@ -9697,7 +9674,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -9738,12 +9715,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>130</v>
@@ -9753,12 +9730,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>84</v>
@@ -9770,7 +9747,7 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9872,7 +9849,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -9884,12 +9861,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -9901,12 +9878,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -9918,7 +9895,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9935,12 +9912,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>84</v>
@@ -9952,7 +9929,7 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9969,7 +9946,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10006,7 +9983,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>130</v>
@@ -10016,7 +9993,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10145,7 +10122,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:5">
@@ -10256,7 +10233,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="s">
@@ -10299,7 +10276,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -10311,12 +10288,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -10328,12 +10305,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -10345,7 +10322,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -10367,7 +10344,7 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="$A8:$XFD9"/>
     </sheetView>
   </sheetViews>
@@ -10462,7 +10439,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -10474,12 +10451,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -10646,7 +10623,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>88</v>
@@ -10663,7 +10640,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>84</v>
@@ -10675,12 +10652,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>84</v>
@@ -10692,12 +10669,12 @@
         <v>85</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>84</v>
@@ -10709,12 +10686,12 @@
         <v>85</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>156</v>
@@ -10726,7 +10703,7 @@
         <v>85</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10840,12 +10817,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -10857,12 +10834,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -10874,7 +10851,7 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10940,12 +10917,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>130</v>
@@ -10955,12 +10932,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>84</v>
@@ -10972,12 +10949,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>84</v>
@@ -10989,7 +10966,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11089,7 +11066,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -11101,12 +11078,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11118,12 +11095,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -11135,12 +11112,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -11152,12 +11129,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -11174,7 +11151,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>263</v>
@@ -11186,7 +11163,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11225,7 +11202,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>94</v>
@@ -11237,12 +11214,12 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>94</v>
@@ -11254,12 +11231,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>94</v>
@@ -11271,12 +11248,12 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>94</v>
@@ -11288,12 +11265,12 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>94</v>
@@ -11305,12 +11282,12 @@
         <v>89</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>88</v>
@@ -11322,12 +11299,12 @@
         <v>89</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>88</v>
@@ -11339,7 +11316,7 @@
         <v>89</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11356,12 +11333,12 @@
         <v>89</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>88</v>
@@ -11373,12 +11350,12 @@
         <v>89</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>88</v>
@@ -11390,12 +11367,12 @@
         <v>89</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>88</v>
@@ -11407,7 +11384,7 @@
         <v>89</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11558,7 +11535,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -11570,12 +11547,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11587,12 +11564,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -11604,12 +11581,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -11621,12 +11598,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -11638,12 +11615,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -11655,12 +11632,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -11677,7 +11654,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>88</v>
@@ -11689,12 +11666,12 @@
         <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>88</v>
@@ -11706,7 +11683,7 @@
         <v>89</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11838,12 +11815,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11855,12 +11832,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>156</v>
@@ -11872,12 +11849,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>156</v>
@@ -11889,7 +11866,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
@@ -12266,12 +12243,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12283,12 +12260,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12300,12 +12277,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>156</v>
@@ -12317,7 +12294,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
@@ -12451,7 +12428,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12463,12 +12440,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12480,12 +12457,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12497,12 +12474,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12514,12 +12491,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -12531,12 +12508,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -12548,12 +12525,12 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -12565,12 +12542,12 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>263</v>
@@ -12582,12 +12559,12 @@
         <v>85</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>263</v>
@@ -12599,12 +12576,12 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>263</v>
@@ -12616,12 +12593,12 @@
         <v>89</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>88</v>
@@ -12633,7 +12610,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12764,12 +12741,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12781,12 +12758,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12798,12 +12775,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12815,7 +12792,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:5">

--- a/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" tabRatio="936" firstSheet="12" activeTab="12"/>
+    <workbookView windowWidth="22368" windowHeight="9300" tabRatio="936" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -7335,7 +7335,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -7537,7 +7537,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="5">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>89</v>
@@ -7718,8 +7718,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -12831,8 +12831,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -13066,7 +13066,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>85</v>

--- a/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" tabRatio="936" firstSheet="1" activeTab="3"/>
+    <workbookView windowHeight="17880" tabRatio="936" firstSheet="9" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="468">
   <si>
     <t>返回</t>
   </si>
@@ -1341,6 +1341,18 @@
     <t>负库存启用标记，0未启用，1启用，默认0</t>
   </si>
   <si>
+    <t>purchase_by_sale_flag</t>
+  </si>
+  <si>
+    <t>以销定购启用标记，0未启用，1启用</t>
+  </si>
+  <si>
+    <t>multi_level_approval_flag</t>
+  </si>
+  <si>
+    <t>多级审核启用标记，0未启用，1启用</t>
+  </si>
+  <si>
     <t>login_name</t>
   </si>
   <si>
@@ -1393,6 +1405,12 @@
   </si>
   <si>
     <t>登陆密码</t>
+  </si>
+  <si>
+    <t>leader_flag</t>
+  </si>
+  <si>
+    <t>是否经理，0否，1是</t>
   </si>
   <si>
     <t>position</t>
@@ -1666,18 +1684,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1833,14 +1851,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2404,8 +2422,8 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2439,13 +2457,13 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2528,15 +2546,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2606,13 +2624,13 @@
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2649,12 +2667,6 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2662,6 +2674,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2676,6 +2694,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2691,7 +2710,6 @@
     <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2703,14 +2721,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2726,6 +2744,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2736,12 +2755,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2750,6 +2764,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2759,9 +2781,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2770,6 +2789,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2782,8 +2802,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -2811,22 +2829,22 @@
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2950,13 +2968,12 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2979,15 +2996,13 @@
     <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2997,7 +3012,7 @@
     <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3009,16 +3024,19 @@
     <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3042,6 +3060,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3051,12 +3075,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3072,22 +3090,18 @@
     <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3096,6 +3110,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3113,28 +3131,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3157,6 +3175,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3166,40 +3187,40 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3226,9 +3247,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
@@ -3308,6 +3326,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3327,97 +3348,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3508,19 +3526,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -3538,14 +3556,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3575,13 +3593,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3601,103 +3619,106 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3725,6 +3746,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3740,12 +3764,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3877,57 +3895,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3992,6 +4010,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4032,184 +4056,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4233,82 +4257,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4387,6 +4405,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -4415,10 +4437,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -4526,48 +4544,48 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4576,47 +4594,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="326" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 185 2 2" xfId="1"/>
+    <cellStyle name="?? 33" xfId="1"/>
     <cellStyle name="?? 28" xfId="2"/>
-    <cellStyle name="?? 33" xfId="3"/>
+    <cellStyle name="?? 185 2 2" xfId="3"/>
     <cellStyle name="货币[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="常规 39" xfId="5"/>
-    <cellStyle name="常规 44" xfId="6"/>
+    <cellStyle name="常规 44" xfId="5"/>
+    <cellStyle name="常规 39" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 15" xfId="10"/>
-    <cellStyle name="?? 20" xfId="11"/>
+    <cellStyle name="?? 20" xfId="10"/>
+    <cellStyle name="?? 15" xfId="11"/>
     <cellStyle name="常规 2 26" xfId="12"/>
     <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="15"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="15"/>
     <cellStyle name="常规 7 3" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="18" builtinId="39"/>
     <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="?? 11" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="22"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
+    <cellStyle name="?? 11" xfId="22"/>
     <cellStyle name="超链接" xfId="23" builtinId="8"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
     <cellStyle name="百分比" xfId="25" builtinId="5"/>
@@ -4647,11 +4665,11 @@
     <cellStyle name="输出" xfId="50" builtinId="21"/>
     <cellStyle name="常规 90" xfId="51"/>
     <cellStyle name="常规 85" xfId="52"/>
-    <cellStyle name="Input" xfId="53"/>
-    <cellStyle name="常规 26" xfId="54"/>
-    <cellStyle name="常规 31" xfId="55"/>
-    <cellStyle name="计算" xfId="56" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="57"/>
+    <cellStyle name="计算" xfId="53" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="54"/>
+    <cellStyle name="Input" xfId="55"/>
+    <cellStyle name="常规 26" xfId="56"/>
+    <cellStyle name="常规 31" xfId="57"/>
     <cellStyle name="检查单元格" xfId="58" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="59" builtinId="50"/>
     <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="60"/>
@@ -4675,9 +4693,9 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="80" builtinId="35"/>
-    <cellStyle name="常规 2 26 2" xfId="81"/>
-    <cellStyle name="强调文字颜色 3" xfId="82" builtinId="37"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="83"/>
+    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="82"/>
+    <cellStyle name="常规 2 26 2" xfId="83"/>
     <cellStyle name="强调文字颜色 4" xfId="84" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="85" builtinId="42"/>
     <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="86"/>
@@ -4690,11 +4708,11 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="95" builtinId="51"/>
-    <cellStyle name="常规 48 3" xfId="96"/>
-    <cellStyle name="常规 53 3" xfId="97"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="98" builtinId="52"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="99"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="100"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="96" builtinId="52"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="97"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="98"/>
+    <cellStyle name="常规 48 3" xfId="99"/>
+    <cellStyle name="常规 53 3" xfId="100"/>
     <cellStyle name="?? 12" xfId="101"/>
     <cellStyle name="?? 17" xfId="102"/>
     <cellStyle name="?? 22" xfId="103"/>
@@ -4703,12 +4721,12 @@
     <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="106"/>
     <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="107"/>
     <cellStyle name="??" xfId="108"/>
-    <cellStyle name="常规 72" xfId="109"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="110"/>
-    <cellStyle name="常规 67" xfId="111"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="112"/>
-    <cellStyle name="40% - Accent5" xfId="113"/>
-    <cellStyle name="?? 10 2" xfId="114"/>
+    <cellStyle name="?? 10 2" xfId="109"/>
+    <cellStyle name="常规 72" xfId="110"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="111"/>
+    <cellStyle name="常规 67" xfId="112"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="113"/>
+    <cellStyle name="40% - Accent5" xfId="114"/>
     <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="115"/>
     <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="116"/>
     <cellStyle name="?? 16" xfId="117"/>
@@ -4716,12 +4734,12 @@
     <cellStyle name="常规 2 2 3 2" xfId="119"/>
     <cellStyle name="?? 18" xfId="120"/>
     <cellStyle name="?? 23" xfId="121"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="122"/>
-    <cellStyle name="?? 185" xfId="123"/>
-    <cellStyle name="?? 185 2" xfId="124"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="125"/>
-    <cellStyle name="?? 26" xfId="126"/>
-    <cellStyle name="?? 31" xfId="127"/>
+    <cellStyle name="?? 185" xfId="122"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="123"/>
+    <cellStyle name="?? 26" xfId="124"/>
+    <cellStyle name="?? 31" xfId="125"/>
+    <cellStyle name="?? 185 2" xfId="126"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="127"/>
     <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="128"/>
     <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 19" xfId="130"/>
@@ -4733,41 +4751,41 @@
     <cellStyle name="常规 99 2_ITDM3.2期数据库设计汇总" xfId="136"/>
     <cellStyle name="?? 29" xfId="137"/>
     <cellStyle name="?? 34" xfId="138"/>
-    <cellStyle name="常规 27" xfId="139"/>
-    <cellStyle name="常规 32" xfId="140"/>
-    <cellStyle name="?? 3" xfId="141"/>
+    <cellStyle name="?? 3" xfId="139"/>
+    <cellStyle name="常规 27" xfId="140"/>
+    <cellStyle name="常规 32" xfId="141"/>
     <cellStyle name="?? 35" xfId="142"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="143"/>
-    <cellStyle name="?? 36" xfId="144"/>
+    <cellStyle name="?? 36" xfId="143"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="144"/>
     <cellStyle name="?? 37" xfId="145"/>
     <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="146"/>
     <cellStyle name="?? 38" xfId="147"/>
-    <cellStyle name="常规 62 2" xfId="148"/>
-    <cellStyle name="常规 28" xfId="149"/>
-    <cellStyle name="常规 33" xfId="150"/>
-    <cellStyle name="常规 57 2" xfId="151"/>
-    <cellStyle name="?? 4" xfId="152"/>
-    <cellStyle name="常规 62 3" xfId="153"/>
-    <cellStyle name="常规 29" xfId="154"/>
-    <cellStyle name="常规 34" xfId="155"/>
-    <cellStyle name="常规 57 3" xfId="156"/>
-    <cellStyle name="?? 5" xfId="157"/>
-    <cellStyle name="常规 2 4 3 2" xfId="158"/>
-    <cellStyle name="常规 35" xfId="159"/>
-    <cellStyle name="常规 40" xfId="160"/>
-    <cellStyle name="?? 6" xfId="161"/>
-    <cellStyle name="常规 36" xfId="162"/>
-    <cellStyle name="常规 41" xfId="163"/>
-    <cellStyle name="?? 7" xfId="164"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="165"/>
-    <cellStyle name="常规 37" xfId="166"/>
-    <cellStyle name="常规 42" xfId="167"/>
-    <cellStyle name="?? 8" xfId="168"/>
-    <cellStyle name="常规 2 2 2" xfId="169"/>
-    <cellStyle name="常规 38" xfId="170"/>
-    <cellStyle name="常规 43" xfId="171"/>
-    <cellStyle name="?? 9" xfId="172"/>
-    <cellStyle name="常规 2 2 3" xfId="173"/>
+    <cellStyle name="?? 4" xfId="148"/>
+    <cellStyle name="常规 62 2" xfId="149"/>
+    <cellStyle name="常规 28" xfId="150"/>
+    <cellStyle name="常规 33" xfId="151"/>
+    <cellStyle name="常规 57 2" xfId="152"/>
+    <cellStyle name="?? 5" xfId="153"/>
+    <cellStyle name="常规 2 4 3 2" xfId="154"/>
+    <cellStyle name="常规 62 3" xfId="155"/>
+    <cellStyle name="常规 29" xfId="156"/>
+    <cellStyle name="常规 34" xfId="157"/>
+    <cellStyle name="常规 57 3" xfId="158"/>
+    <cellStyle name="?? 6" xfId="159"/>
+    <cellStyle name="常规 35" xfId="160"/>
+    <cellStyle name="常规 40" xfId="161"/>
+    <cellStyle name="?? 7" xfId="162"/>
+    <cellStyle name="常规 36" xfId="163"/>
+    <cellStyle name="常规 41" xfId="164"/>
+    <cellStyle name="?? 8" xfId="165"/>
+    <cellStyle name="常规 2 2 2" xfId="166"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="167"/>
+    <cellStyle name="常规 37" xfId="168"/>
+    <cellStyle name="常规 42" xfId="169"/>
+    <cellStyle name="?? 9" xfId="170"/>
+    <cellStyle name="常规 2 2 3" xfId="171"/>
+    <cellStyle name="常规 38" xfId="172"/>
+    <cellStyle name="常规 43" xfId="173"/>
     <cellStyle name="??_Sheet1" xfId="174"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="175"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="176"/>
@@ -4778,12 +4796,12 @@
     <cellStyle name="20% - Accent2" xfId="181"/>
     <cellStyle name="20% - Accent2 2" xfId="182"/>
     <cellStyle name="20% - Accent3" xfId="183"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="184"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="185"/>
-    <cellStyle name="常规 5 3 2" xfId="186"/>
-    <cellStyle name="20% - Accent4" xfId="187"/>
-    <cellStyle name="常规 4" xfId="188"/>
-    <cellStyle name="20% - Accent4 2" xfId="189"/>
+    <cellStyle name="20% - Accent4" xfId="184"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="185"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="186"/>
+    <cellStyle name="常规 5 3 2" xfId="187"/>
+    <cellStyle name="20% - Accent4 2" xfId="188"/>
+    <cellStyle name="常规 4" xfId="189"/>
     <cellStyle name="20% - Accent5" xfId="190"/>
     <cellStyle name="20% - Accent5 2" xfId="191"/>
     <cellStyle name="20% - Accent6" xfId="192"/>
@@ -4825,33 +4843,33 @@
     <cellStyle name="常规 73 2" xfId="228"/>
     <cellStyle name="常规 68 2" xfId="229"/>
     <cellStyle name="40% - Accent6 2" xfId="230"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="231"/>
-    <cellStyle name="60% - Accent1" xfId="232"/>
-    <cellStyle name="常规 2 2" xfId="233"/>
-    <cellStyle name="60% - Accent2" xfId="234"/>
-    <cellStyle name="常规 2 3" xfId="235"/>
-    <cellStyle name="60% - Accent3" xfId="236"/>
-    <cellStyle name="常规 10 2 4 2" xfId="237"/>
-    <cellStyle name="常规 2 4" xfId="238"/>
-    <cellStyle name="60% - Accent4" xfId="239"/>
-    <cellStyle name="常规 2 5" xfId="240"/>
-    <cellStyle name="60% - Accent5" xfId="241"/>
-    <cellStyle name="常规 2 6" xfId="242"/>
-    <cellStyle name="60% - Accent6" xfId="243"/>
+    <cellStyle name="60% - Accent1" xfId="231"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="232"/>
+    <cellStyle name="60% - Accent2" xfId="233"/>
+    <cellStyle name="常规 2 2" xfId="234"/>
+    <cellStyle name="60% - Accent3" xfId="235"/>
+    <cellStyle name="常规 10 2 4 2" xfId="236"/>
+    <cellStyle name="常规 2 3" xfId="237"/>
+    <cellStyle name="60% - Accent4" xfId="238"/>
+    <cellStyle name="常规 2 4" xfId="239"/>
+    <cellStyle name="60% - Accent5" xfId="240"/>
+    <cellStyle name="常规 2 5" xfId="241"/>
+    <cellStyle name="60% - Accent6" xfId="242"/>
+    <cellStyle name="常规 2 6" xfId="243"/>
     <cellStyle name="Accent1" xfId="244"/>
     <cellStyle name="Accent2" xfId="245"/>
-    <cellStyle name="常规 102 2" xfId="246"/>
-    <cellStyle name="Accent3" xfId="247"/>
-    <cellStyle name="常规 102 3" xfId="248"/>
-    <cellStyle name="Accent4" xfId="249"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="250"/>
-    <cellStyle name="Accent5" xfId="251"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="252"/>
-    <cellStyle name="Accent6" xfId="253"/>
-    <cellStyle name="常规 2 3 2" xfId="254"/>
-    <cellStyle name="常规 92" xfId="255"/>
-    <cellStyle name="常规 87" xfId="256"/>
-    <cellStyle name="Bad" xfId="257"/>
+    <cellStyle name="Accent3" xfId="246"/>
+    <cellStyle name="常规 102 2" xfId="247"/>
+    <cellStyle name="Accent4" xfId="248"/>
+    <cellStyle name="常规 102 3" xfId="249"/>
+    <cellStyle name="Accent5" xfId="250"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="251"/>
+    <cellStyle name="Accent6" xfId="252"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="253"/>
+    <cellStyle name="常规 92" xfId="254"/>
+    <cellStyle name="常规 87" xfId="255"/>
+    <cellStyle name="Bad" xfId="256"/>
+    <cellStyle name="常规 2 3 2" xfId="257"/>
     <cellStyle name="Calculation" xfId="258"/>
     <cellStyle name="常规 106" xfId="259"/>
     <cellStyle name="常规 111" xfId="260"/>
@@ -4861,25 +4879,25 @@
     <cellStyle name="常规 20" xfId="264"/>
     <cellStyle name="强调文字颜色 1 2" xfId="265"/>
     <cellStyle name="Explanatory Text" xfId="266"/>
-    <cellStyle name="超链接 9" xfId="267"/>
-    <cellStyle name="常规 16 2" xfId="268"/>
-    <cellStyle name="Good" xfId="269"/>
-    <cellStyle name="常规 10" xfId="270"/>
+    <cellStyle name="Good" xfId="267"/>
+    <cellStyle name="常规 10" xfId="268"/>
+    <cellStyle name="超链接 9" xfId="269"/>
+    <cellStyle name="常规 16 2" xfId="270"/>
     <cellStyle name="Heading 1" xfId="271"/>
     <cellStyle name="Heading 2" xfId="272"/>
     <cellStyle name="Heading 4" xfId="273"/>
     <cellStyle name="Linked Cell" xfId="274"/>
     <cellStyle name="Neutral" xfId="275"/>
-    <cellStyle name="常规 115" xfId="276"/>
-    <cellStyle name="常规 120" xfId="277"/>
-    <cellStyle name="Normal 2" xfId="278"/>
-    <cellStyle name="常规 120 2" xfId="279"/>
-    <cellStyle name="Normal 2 2" xfId="280"/>
+    <cellStyle name="Normal 2" xfId="276"/>
+    <cellStyle name="常规 115" xfId="277"/>
+    <cellStyle name="常规 120" xfId="278"/>
+    <cellStyle name="Normal 2 2" xfId="279"/>
+    <cellStyle name="常规 120 2" xfId="280"/>
     <cellStyle name="Normal 2 3" xfId="281"/>
-    <cellStyle name="Normal 3" xfId="282"/>
-    <cellStyle name="常规 3 7 2" xfId="283"/>
-    <cellStyle name="常规 116" xfId="284"/>
-    <cellStyle name="常规 121" xfId="285"/>
+    <cellStyle name="常规 116" xfId="282"/>
+    <cellStyle name="常规 121" xfId="283"/>
+    <cellStyle name="Normal 3" xfId="284"/>
+    <cellStyle name="常规 3 7 2" xfId="285"/>
     <cellStyle name="Normal 3 2" xfId="286"/>
     <cellStyle name="常规 72 2 2" xfId="287"/>
     <cellStyle name="常规 67 2 2" xfId="288"/>
@@ -4889,14 +4907,14 @@
     <cellStyle name="Note 2" xfId="292"/>
     <cellStyle name="Output" xfId="293"/>
     <cellStyle name="常规 4 2 3 4" xfId="294"/>
-    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="295"/>
-    <cellStyle name="常规 2" xfId="296"/>
-    <cellStyle name="Title" xfId="297"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="298"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="299"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="300"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="301"/>
-    <cellStyle name="Total" xfId="302"/>
+    <cellStyle name="Title" xfId="295"/>
+    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="296"/>
+    <cellStyle name="常规 2" xfId="297"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="298"/>
+    <cellStyle name="Total" xfId="299"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="300"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="301"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="302"/>
     <cellStyle name="Warning Text" xfId="303"/>
     <cellStyle name="百分比 2" xfId="304"/>
     <cellStyle name="常规 10 2 2 3 2" xfId="305"/>
@@ -4905,9 +4923,9 @@
     <cellStyle name="差_Sheet1" xfId="308"/>
     <cellStyle name="差_Sheet1 2" xfId="309"/>
     <cellStyle name="差_Sheet2" xfId="310"/>
-    <cellStyle name="差_Sheet3" xfId="311"/>
-    <cellStyle name="常规 3 2" xfId="312"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="313"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="311"/>
+    <cellStyle name="差_Sheet3" xfId="312"/>
+    <cellStyle name="常规 3 2" xfId="313"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="314"/>
     <cellStyle name="常规 96" xfId="315"/>
     <cellStyle name="差_保函明细" xfId="316"/>
@@ -4917,20 +4935,20 @@
     <cellStyle name="常规 50 2 2" xfId="320"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="321"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="322"/>
-    <cellStyle name="常规 51 2" xfId="323"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="324"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="323"/>
+    <cellStyle name="常规 51 2" xfId="324"/>
     <cellStyle name="常规 10 2" xfId="325"/>
-    <cellStyle name="常规 2 7" xfId="326"/>
-    <cellStyle name="常规 10 2 2" xfId="327"/>
+    <cellStyle name="常规 10 2 2" xfId="326"/>
+    <cellStyle name="常规 2 7" xfId="327"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="328"/>
     <cellStyle name="常规 10 2 2 2" xfId="329"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="330"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="331"/>
     <cellStyle name="常规 10 2 2 2 2 2 2" xfId="332"/>
     <cellStyle name="常规 10 2 2 2 3 3" xfId="333"/>
-    <cellStyle name="常规 47" xfId="334"/>
-    <cellStyle name="常规 52" xfId="335"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="336"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="334"/>
+    <cellStyle name="常规 47" xfId="335"/>
+    <cellStyle name="常规 52" xfId="336"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="337"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="338"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="339"/>
@@ -4956,8 +4974,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="359"/>
     <cellStyle name="常规 10 2 2 6" xfId="360"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="361"/>
-    <cellStyle name="常规 2 8" xfId="362"/>
-    <cellStyle name="常规 10 2 3" xfId="363"/>
+    <cellStyle name="常规 10 2 3" xfId="362"/>
+    <cellStyle name="常规 2 8" xfId="363"/>
     <cellStyle name="常规 10 2 3 2" xfId="364"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="365"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="366"/>
@@ -4972,14 +4990,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="375"/>
     <cellStyle name="常规 10 2 3 4" xfId="376"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="377"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="378"/>
-    <cellStyle name="常规 10 2 3 5" xfId="379"/>
-    <cellStyle name="常规 2 10" xfId="380"/>
-    <cellStyle name="常规 2 9" xfId="381"/>
-    <cellStyle name="常规 10 2 4" xfId="382"/>
+    <cellStyle name="常规 10 2 3 5" xfId="378"/>
+    <cellStyle name="常规 2 10" xfId="379"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="380"/>
+    <cellStyle name="常规 10 2 4" xfId="381"/>
+    <cellStyle name="常规 2 9" xfId="382"/>
     <cellStyle name="常规 10 2 5" xfId="383"/>
-    <cellStyle name="常规 3 3" xfId="384"/>
-    <cellStyle name="常规 10 2 5 2" xfId="385"/>
+    <cellStyle name="常规 10 2 5 2" xfId="384"/>
+    <cellStyle name="常规 3 3" xfId="385"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="386"/>
     <cellStyle name="常规 100" xfId="387"/>
     <cellStyle name="常规 4 2 3" xfId="388"/>
@@ -4998,8 +5016,8 @@
     <cellStyle name="常规 101 2" xfId="401"/>
     <cellStyle name="常规 4 6 2" xfId="402"/>
     <cellStyle name="常规 101 2 2" xfId="403"/>
-    <cellStyle name="常规 101 3" xfId="404"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="405"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="404"/>
+    <cellStyle name="常规 101 3" xfId="405"/>
     <cellStyle name="常规 102" xfId="406"/>
     <cellStyle name="常规 4 2 5" xfId="407"/>
     <cellStyle name="常规 4 7" xfId="408"/>
@@ -5034,11 +5052,11 @@
     <cellStyle name="常规 21" xfId="437"/>
     <cellStyle name="常规 17" xfId="438"/>
     <cellStyle name="常规 22" xfId="439"/>
-    <cellStyle name="常规 55" xfId="440"/>
-    <cellStyle name="常规 60" xfId="441"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="442"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="443"/>
-    <cellStyle name="常规 17 2" xfId="444"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="440"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="441"/>
+    <cellStyle name="常规 17 2" xfId="442"/>
+    <cellStyle name="常规 55" xfId="443"/>
+    <cellStyle name="常规 60" xfId="444"/>
     <cellStyle name="常规 18" xfId="445"/>
     <cellStyle name="常规 23" xfId="446"/>
     <cellStyle name="常规 18 2" xfId="447"/>
@@ -5050,10 +5068,10 @@
     <cellStyle name="常规 2 13" xfId="453"/>
     <cellStyle name="常规 95_ITDM3.2期数据库设计汇总" xfId="454"/>
     <cellStyle name="常规 2 14" xfId="455"/>
-    <cellStyle name="常规 62 2 2" xfId="456"/>
-    <cellStyle name="常规 57 2 2" xfId="457"/>
-    <cellStyle name="常规 2 15" xfId="458"/>
-    <cellStyle name="常规 2 20" xfId="459"/>
+    <cellStyle name="常规 2 15" xfId="456"/>
+    <cellStyle name="常规 2 20" xfId="457"/>
+    <cellStyle name="常规 62 2 2" xfId="458"/>
+    <cellStyle name="常规 57 2 2" xfId="459"/>
     <cellStyle name="常规 2 16" xfId="460"/>
     <cellStyle name="常规 2 21" xfId="461"/>
     <cellStyle name="常规 2 16 2" xfId="462"/>
@@ -5073,9 +5091,9 @@
     <cellStyle name="常规 2 3 4 2" xfId="476"/>
     <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="477"/>
     <cellStyle name="常规 2 4 2" xfId="478"/>
-    <cellStyle name="常规 61 3" xfId="479"/>
-    <cellStyle name="常规 56 3" xfId="480"/>
-    <cellStyle name="常规 2 4 2 2" xfId="481"/>
+    <cellStyle name="常规 2 4 2 2" xfId="479"/>
+    <cellStyle name="常规 61 3" xfId="480"/>
+    <cellStyle name="常规 56 3" xfId="481"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="482"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="483"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="484"/>
@@ -5087,259 +5105,259 @@
     <cellStyle name="常规 2 4 3" xfId="490"/>
     <cellStyle name="常规 2 4 4" xfId="491"/>
     <cellStyle name="常规 2 4 5" xfId="492"/>
-    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="493"/>
-    <cellStyle name="常规 59 3" xfId="494"/>
-    <cellStyle name="常规 2 4 5 2" xfId="495"/>
+    <cellStyle name="常规 2 4 5 2" xfId="493"/>
+    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="494"/>
+    <cellStyle name="常规 59 3" xfId="495"/>
     <cellStyle name="常规 25" xfId="496"/>
     <cellStyle name="常规 30" xfId="497"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="498"/>
-    <cellStyle name="常规 3" xfId="499"/>
+    <cellStyle name="常规 3" xfId="498"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="499"/>
     <cellStyle name="常规 3 2 2" xfId="500"/>
     <cellStyle name="常规 3 4" xfId="501"/>
     <cellStyle name="常规 3 5" xfId="502"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="503"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="504"/>
-    <cellStyle name="常规 3 6" xfId="505"/>
-    <cellStyle name="常规 91 2 2" xfId="506"/>
-    <cellStyle name="常规 86 2 2" xfId="507"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="508"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="509"/>
-    <cellStyle name="常规 3 7" xfId="510"/>
+    <cellStyle name="常规 3 6" xfId="503"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="504"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="505"/>
+    <cellStyle name="常规 3 7" xfId="506"/>
+    <cellStyle name="常规 91 2 2" xfId="507"/>
+    <cellStyle name="常规 86 2 2" xfId="508"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="509"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="510"/>
     <cellStyle name="常规 3 8" xfId="511"/>
     <cellStyle name="常规 35 2" xfId="512"/>
     <cellStyle name="常规 4 2" xfId="513"/>
-    <cellStyle name="常规 4 2 2" xfId="514"/>
-    <cellStyle name="常规 4 4" xfId="515"/>
-    <cellStyle name="常规 4 2 2 2" xfId="516"/>
-    <cellStyle name="常规 6 4" xfId="517"/>
+    <cellStyle name="常规 4 4" xfId="514"/>
+    <cellStyle name="常规 4 2 2" xfId="515"/>
+    <cellStyle name="常规 6 4" xfId="516"/>
+    <cellStyle name="常规 4 2 2 2" xfId="517"/>
     <cellStyle name="常规 4 2 3 5" xfId="518"/>
     <cellStyle name="常规 4 3" xfId="519"/>
-    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="520"/>
-    <cellStyle name="常规 5" xfId="521"/>
-    <cellStyle name="常规 45" xfId="522"/>
-    <cellStyle name="常规 50" xfId="523"/>
-    <cellStyle name="常规 45 2" xfId="524"/>
-    <cellStyle name="常规 50 2" xfId="525"/>
+    <cellStyle name="常规 5" xfId="520"/>
+    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="521"/>
+    <cellStyle name="常规 50" xfId="522"/>
+    <cellStyle name="常规 45" xfId="523"/>
+    <cellStyle name="常规 50 2" xfId="524"/>
+    <cellStyle name="常规 45 2" xfId="525"/>
     <cellStyle name="常规 45 2 2 2" xfId="526"/>
     <cellStyle name="常规 45 2 2_ITDM3.2期数据库设计汇总" xfId="527"/>
     <cellStyle name="常规 45 2 3" xfId="528"/>
-    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="529"/>
-    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 45 3" xfId="531"/>
-    <cellStyle name="常规 50 3" xfId="532"/>
+    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="529"/>
+    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 50 3" xfId="531"/>
+    <cellStyle name="常规 45 3" xfId="532"/>
     <cellStyle name="常规 45 3 2" xfId="533"/>
-    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="534"/>
-    <cellStyle name="常规 45 4" xfId="535"/>
-    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="536"/>
-    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="537"/>
-    <cellStyle name="常规 46" xfId="538"/>
-    <cellStyle name="常规 51" xfId="539"/>
-    <cellStyle name="常规 47 2" xfId="540"/>
-    <cellStyle name="常规 52 2" xfId="541"/>
-    <cellStyle name="常规 47 2 2" xfId="542"/>
-    <cellStyle name="常规 52 2 2" xfId="543"/>
-    <cellStyle name="常规 47 3" xfId="544"/>
+    <cellStyle name="常规 45 4" xfId="534"/>
+    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="535"/>
+    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="536"/>
+    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="537"/>
+    <cellStyle name="常规 51" xfId="538"/>
+    <cellStyle name="常规 46" xfId="539"/>
+    <cellStyle name="常规 52 2" xfId="540"/>
+    <cellStyle name="常规 47 2" xfId="541"/>
+    <cellStyle name="常规 52 2 2" xfId="542"/>
+    <cellStyle name="常规 47 2 2" xfId="543"/>
+    <cellStyle name="常规 59 2 2" xfId="544"/>
     <cellStyle name="常规 52 3" xfId="545"/>
-    <cellStyle name="常规 59 2 2" xfId="546"/>
-    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="547"/>
+    <cellStyle name="常规 47 3" xfId="546"/>
+    <cellStyle name="常规 53" xfId="547"/>
     <cellStyle name="常规 48" xfId="548"/>
-    <cellStyle name="常规 53" xfId="549"/>
-    <cellStyle name="常规 48 2 2" xfId="550"/>
-    <cellStyle name="常规 53 2 2" xfId="551"/>
-    <cellStyle name="常规 49" xfId="552"/>
-    <cellStyle name="常规 54" xfId="553"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 49 2 2" xfId="556"/>
-    <cellStyle name="常规 54 2 2" xfId="557"/>
-    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="558"/>
-    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="559"/>
-    <cellStyle name="常规 49 3" xfId="560"/>
-    <cellStyle name="常规 54 3" xfId="561"/>
-    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="549"/>
+    <cellStyle name="常规 53 2 2" xfId="550"/>
+    <cellStyle name="常规 48 2 2" xfId="551"/>
+    <cellStyle name="常规 54" xfId="552"/>
+    <cellStyle name="常规 49" xfId="553"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 54 2 2" xfId="556"/>
+    <cellStyle name="常规 49 2 2" xfId="557"/>
+    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="558"/>
+    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="559"/>
+    <cellStyle name="常规 54 3" xfId="560"/>
+    <cellStyle name="常规 49 3" xfId="561"/>
+    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="563"/>
     <cellStyle name="常规 5 3" xfId="564"/>
     <cellStyle name="常规 5 4" xfId="565"/>
     <cellStyle name="常规 51 3" xfId="566"/>
     <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="567"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 55 2" xfId="569"/>
-    <cellStyle name="常规 60 2" xfId="570"/>
-    <cellStyle name="常规 55 2 2" xfId="571"/>
-    <cellStyle name="常规 60 2 2" xfId="572"/>
-    <cellStyle name="常规 55 3" xfId="573"/>
-    <cellStyle name="常规 60 3" xfId="574"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 56" xfId="577"/>
-    <cellStyle name="常规 61" xfId="578"/>
-    <cellStyle name="常规 56 2" xfId="579"/>
-    <cellStyle name="常规 61 2" xfId="580"/>
-    <cellStyle name="常规 56 2 2" xfId="581"/>
-    <cellStyle name="常规 61 2 2" xfId="582"/>
-    <cellStyle name="常规 62" xfId="583"/>
-    <cellStyle name="常规 57" xfId="584"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="585"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="586"/>
-    <cellStyle name="常规 83 2" xfId="587"/>
-    <cellStyle name="常规 78 2" xfId="588"/>
-    <cellStyle name="常规 63 2 2" xfId="589"/>
-    <cellStyle name="常规 58 2 2" xfId="590"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="593"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="594"/>
-    <cellStyle name="常规 84" xfId="595"/>
-    <cellStyle name="常规 79" xfId="596"/>
-    <cellStyle name="常规 63 3" xfId="597"/>
-    <cellStyle name="常规 58 3" xfId="598"/>
+    <cellStyle name="常规 60 2" xfId="569"/>
+    <cellStyle name="常规 55 2" xfId="570"/>
+    <cellStyle name="常规 60 2 2" xfId="571"/>
+    <cellStyle name="常规 55 2 2" xfId="572"/>
+    <cellStyle name="常规 60 3" xfId="573"/>
+    <cellStyle name="常规 55 3" xfId="574"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 61" xfId="577"/>
+    <cellStyle name="常规 56" xfId="578"/>
+    <cellStyle name="常规 61 2" xfId="579"/>
+    <cellStyle name="常规 56 2" xfId="580"/>
+    <cellStyle name="常规 61 2 2" xfId="581"/>
+    <cellStyle name="常规 56 2 2" xfId="582"/>
+    <cellStyle name="常规 57" xfId="583"/>
+    <cellStyle name="常规 62" xfId="584"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="585"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="586"/>
+    <cellStyle name="常规 58 2 2" xfId="587"/>
+    <cellStyle name="常规 63 2 2" xfId="588"/>
+    <cellStyle name="常规 78 2" xfId="589"/>
+    <cellStyle name="常规 83 2" xfId="590"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="593"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="594"/>
+    <cellStyle name="常规 58 3" xfId="595"/>
+    <cellStyle name="常规 63 3" xfId="596"/>
+    <cellStyle name="常规 79" xfId="597"/>
+    <cellStyle name="常规 84" xfId="598"/>
     <cellStyle name="常规 6 2" xfId="599"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="600"/>
+    <cellStyle name="常规 6 3" xfId="600"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="601"/>
-    <cellStyle name="常规 6 3" xfId="602"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="602"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="603"/>
-    <cellStyle name="常规 97 3" xfId="604"/>
+    <cellStyle name="常规 65 2 2" xfId="604"/>
     <cellStyle name="常规 70 2 2" xfId="605"/>
-    <cellStyle name="常规 65 2 2" xfId="606"/>
-    <cellStyle name="常规 70 3" xfId="607"/>
-    <cellStyle name="常规 65 3" xfId="608"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="609"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="610"/>
-    <cellStyle name="常规 71 2 2" xfId="611"/>
-    <cellStyle name="常规 66 2 2" xfId="612"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="613"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="614"/>
-    <cellStyle name="样式 1" xfId="615"/>
+    <cellStyle name="常规 97 3" xfId="606"/>
+    <cellStyle name="常规 65 3" xfId="607"/>
+    <cellStyle name="常规 70 3" xfId="608"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="609"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="610"/>
+    <cellStyle name="常规 66 2 2" xfId="611"/>
+    <cellStyle name="常规 71 2 2" xfId="612"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="613"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="614"/>
+    <cellStyle name="常规 66 3" xfId="615"/>
     <cellStyle name="常规 71 3" xfId="616"/>
-    <cellStyle name="常规 66 3" xfId="617"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="618"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="619"/>
-    <cellStyle name="常规 72 3" xfId="620"/>
-    <cellStyle name="常规 67 3" xfId="621"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="622"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="623"/>
-    <cellStyle name="常规 73 2 2" xfId="624"/>
-    <cellStyle name="常规 68 2 2" xfId="625"/>
-    <cellStyle name="常规 73 3" xfId="626"/>
-    <cellStyle name="常规 68 3" xfId="627"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="628"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 74" xfId="630"/>
-    <cellStyle name="常规 69" xfId="631"/>
-    <cellStyle name="常规 74 2" xfId="632"/>
-    <cellStyle name="常规 69 2" xfId="633"/>
-    <cellStyle name="常规 74 2 2" xfId="634"/>
-    <cellStyle name="常规 69 2 2" xfId="635"/>
-    <cellStyle name="常规 74 3" xfId="636"/>
-    <cellStyle name="常规 69 3" xfId="637"/>
+    <cellStyle name="样式 1" xfId="617"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="618"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="619"/>
+    <cellStyle name="常规 67 3" xfId="620"/>
+    <cellStyle name="常规 72 3" xfId="621"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="622"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="623"/>
+    <cellStyle name="常规 68 2 2" xfId="624"/>
+    <cellStyle name="常规 73 2 2" xfId="625"/>
+    <cellStyle name="常规 68 3" xfId="626"/>
+    <cellStyle name="常规 73 3" xfId="627"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="628"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 69" xfId="630"/>
+    <cellStyle name="常规 74" xfId="631"/>
+    <cellStyle name="常规 69 2" xfId="632"/>
+    <cellStyle name="常规 74 2" xfId="633"/>
+    <cellStyle name="常规 69 2 2" xfId="634"/>
+    <cellStyle name="常规 74 2 2" xfId="635"/>
+    <cellStyle name="常规 69 3" xfId="636"/>
+    <cellStyle name="常规 74 3" xfId="637"/>
     <cellStyle name="常规 7" xfId="638"/>
     <cellStyle name="常规 7 2" xfId="639"/>
-    <cellStyle name="常规 80" xfId="640"/>
-    <cellStyle name="常规 75" xfId="641"/>
-    <cellStyle name="超链接 19" xfId="642"/>
+    <cellStyle name="常规 75" xfId="640"/>
+    <cellStyle name="常规 80" xfId="641"/>
+    <cellStyle name="常规 75 2" xfId="642"/>
     <cellStyle name="常规 80 2" xfId="643"/>
-    <cellStyle name="常规 75 2" xfId="644"/>
-    <cellStyle name="常规 80 2 2" xfId="645"/>
-    <cellStyle name="常规 75 2 2" xfId="646"/>
-    <cellStyle name="常规 80 3" xfId="647"/>
-    <cellStyle name="常规 75 3" xfId="648"/>
-    <cellStyle name="常规 81" xfId="649"/>
-    <cellStyle name="常规 76" xfId="650"/>
-    <cellStyle name="常规 81 2" xfId="651"/>
-    <cellStyle name="常规 76 2" xfId="652"/>
-    <cellStyle name="常规 81 3" xfId="653"/>
-    <cellStyle name="常规 76 3" xfId="654"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="655"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="656"/>
-    <cellStyle name="常规 82" xfId="657"/>
-    <cellStyle name="常规 77" xfId="658"/>
-    <cellStyle name="常规 82 2" xfId="659"/>
-    <cellStyle name="常规 77 2" xfId="660"/>
-    <cellStyle name="常规 82 2 2" xfId="661"/>
-    <cellStyle name="常规 77 2 2" xfId="662"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="664"/>
-    <cellStyle name="常规 82 3" xfId="665"/>
-    <cellStyle name="常规 77 3" xfId="666"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="667"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="668"/>
-    <cellStyle name="常规 83 2 2" xfId="669"/>
-    <cellStyle name="常规 78 2 2" xfId="670"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 83 3" xfId="673"/>
-    <cellStyle name="常规 78 3" xfId="674"/>
-    <cellStyle name="常规 84 2" xfId="675"/>
-    <cellStyle name="常规 79 2" xfId="676"/>
-    <cellStyle name="常规 84 2 2" xfId="677"/>
-    <cellStyle name="常规 79 2 2" xfId="678"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="679"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 84 3" xfId="681"/>
-    <cellStyle name="常规 79 3" xfId="682"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="684"/>
+    <cellStyle name="超链接 19" xfId="644"/>
+    <cellStyle name="常规 75 2 2" xfId="645"/>
+    <cellStyle name="常规 80 2 2" xfId="646"/>
+    <cellStyle name="常规 75 3" xfId="647"/>
+    <cellStyle name="常规 80 3" xfId="648"/>
+    <cellStyle name="常规 76" xfId="649"/>
+    <cellStyle name="常规 81" xfId="650"/>
+    <cellStyle name="常规 76 2" xfId="651"/>
+    <cellStyle name="常规 81 2" xfId="652"/>
+    <cellStyle name="常规 76 3" xfId="653"/>
+    <cellStyle name="常规 81 3" xfId="654"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="655"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="656"/>
+    <cellStyle name="常规 77" xfId="657"/>
+    <cellStyle name="常规 82" xfId="658"/>
+    <cellStyle name="常规 77 2" xfId="659"/>
+    <cellStyle name="常规 82 2" xfId="660"/>
+    <cellStyle name="常规 77 2 2" xfId="661"/>
+    <cellStyle name="常规 82 2 2" xfId="662"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 77 3" xfId="665"/>
+    <cellStyle name="常规 82 3" xfId="666"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="667"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="668"/>
+    <cellStyle name="常规 78 2 2" xfId="669"/>
+    <cellStyle name="常规 83 2 2" xfId="670"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 78 3" xfId="673"/>
+    <cellStyle name="常规 83 3" xfId="674"/>
+    <cellStyle name="常规 79 2" xfId="675"/>
+    <cellStyle name="常规 84 2" xfId="676"/>
+    <cellStyle name="常规 79 2 2" xfId="677"/>
+    <cellStyle name="常规 84 2 2" xfId="678"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="679"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 79 3" xfId="681"/>
+    <cellStyle name="常规 84 3" xfId="682"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="684"/>
     <cellStyle name="常规 8" xfId="685"/>
-    <cellStyle name="常规 90 2" xfId="686"/>
-    <cellStyle name="常规 85 2" xfId="687"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="688"/>
-    <cellStyle name="常规 90 2 2" xfId="689"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="690"/>
-    <cellStyle name="常规 85 2 2" xfId="691"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="692"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="693"/>
-    <cellStyle name="常规 90 3" xfId="694"/>
-    <cellStyle name="常规 85 3" xfId="695"/>
-    <cellStyle name="常规 96 3" xfId="696"/>
+    <cellStyle name="常规 85 2" xfId="686"/>
+    <cellStyle name="常规 90 2" xfId="687"/>
+    <cellStyle name="常规 85 2 2" xfId="688"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="689"/>
+    <cellStyle name="常规 90 2 2" xfId="690"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="691"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="692"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="693"/>
+    <cellStyle name="常规 85 3" xfId="694"/>
+    <cellStyle name="常规 90 3" xfId="695"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="696"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="697"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="698"/>
-    <cellStyle name="常规 91" xfId="699"/>
-    <cellStyle name="常规 86" xfId="700"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="701"/>
-    <cellStyle name="常规 91 2" xfId="702"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="703"/>
-    <cellStyle name="常规 86 2" xfId="704"/>
-    <cellStyle name="常规 91 3" xfId="705"/>
-    <cellStyle name="常规 86 3" xfId="706"/>
-    <cellStyle name="常规 92 2" xfId="707"/>
-    <cellStyle name="常规 87 2" xfId="708"/>
-    <cellStyle name="常规 92 2 2" xfId="709"/>
-    <cellStyle name="常规 87 2 2" xfId="710"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="711"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="712"/>
-    <cellStyle name="常规 92 3" xfId="713"/>
-    <cellStyle name="常规 87 3" xfId="714"/>
-    <cellStyle name="常规 93" xfId="715"/>
-    <cellStyle name="常规 88" xfId="716"/>
-    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="717"/>
+    <cellStyle name="常规 96 3" xfId="698"/>
+    <cellStyle name="常规 86" xfId="699"/>
+    <cellStyle name="常规 91" xfId="700"/>
+    <cellStyle name="常规 86 2" xfId="701"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="702"/>
+    <cellStyle name="常规 91 2" xfId="703"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="704"/>
+    <cellStyle name="常规 86 3" xfId="705"/>
+    <cellStyle name="常规 91 3" xfId="706"/>
+    <cellStyle name="常规 87 2" xfId="707"/>
+    <cellStyle name="常规 92 2" xfId="708"/>
+    <cellStyle name="常规 87 2 2" xfId="709"/>
+    <cellStyle name="常规 92 2 2" xfId="710"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="711"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="712"/>
+    <cellStyle name="常规 87 3" xfId="713"/>
+    <cellStyle name="常规 92 3" xfId="714"/>
+    <cellStyle name="常规 88" xfId="715"/>
+    <cellStyle name="常规 93" xfId="716"/>
+    <cellStyle name="常规 88 2" xfId="717"/>
     <cellStyle name="常规 93 2" xfId="718"/>
-    <cellStyle name="常规 88 2" xfId="719"/>
-    <cellStyle name="常规 93 2 2" xfId="720"/>
-    <cellStyle name="常规 88 2 2" xfId="721"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="722"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 93 3" xfId="724"/>
-    <cellStyle name="常规 88 3" xfId="725"/>
-    <cellStyle name="常规 94" xfId="726"/>
-    <cellStyle name="常规 89" xfId="727"/>
-    <cellStyle name="常规 94 2" xfId="728"/>
-    <cellStyle name="常规 89 2" xfId="729"/>
-    <cellStyle name="常规 98" xfId="730"/>
-    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="731"/>
-    <cellStyle name="常规 94 2 2" xfId="732"/>
-    <cellStyle name="常规 89 2 2" xfId="733"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="734"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="735"/>
-    <cellStyle name="常规 94 3" xfId="736"/>
-    <cellStyle name="常规 89 3" xfId="737"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="738"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="739"/>
+    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="719"/>
+    <cellStyle name="常规 88 2 2" xfId="720"/>
+    <cellStyle name="常规 93 2 2" xfId="721"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="722"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 88 3" xfId="724"/>
+    <cellStyle name="常规 93 3" xfId="725"/>
+    <cellStyle name="常规 89" xfId="726"/>
+    <cellStyle name="常规 94" xfId="727"/>
+    <cellStyle name="常规 89 2" xfId="728"/>
+    <cellStyle name="常规 94 2" xfId="729"/>
+    <cellStyle name="常规 89 2 2" xfId="730"/>
+    <cellStyle name="常规 94 2 2" xfId="731"/>
+    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="732"/>
+    <cellStyle name="常规 98" xfId="733"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="734"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="735"/>
+    <cellStyle name="常规 89 3" xfId="736"/>
+    <cellStyle name="常规 94 3" xfId="737"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="738"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="739"/>
     <cellStyle name="常规 9" xfId="740"/>
     <cellStyle name="常规 9 2" xfId="741"/>
     <cellStyle name="常规 95" xfId="742"/>
     <cellStyle name="常规 95 2" xfId="743"/>
-    <cellStyle name="常规 95 3" xfId="744"/>
-    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="745"/>
+    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="744"/>
+    <cellStyle name="常规 95 3" xfId="745"/>
     <cellStyle name="常规 96 2" xfId="746"/>
     <cellStyle name="常规 96 2 2" xfId="747"/>
     <cellStyle name="常规 96_ITDM3.2期数据库设计汇总" xfId="748"/>
@@ -5361,17 +5379,17 @@
     <cellStyle name="超链接 12" xfId="764"/>
     <cellStyle name="超链接 13" xfId="765"/>
     <cellStyle name="超链接 14" xfId="766"/>
-    <cellStyle name="超链接 21" xfId="767"/>
-    <cellStyle name="超链接 16" xfId="768"/>
-    <cellStyle name="超链接 22" xfId="769"/>
-    <cellStyle name="超链接 17" xfId="770"/>
+    <cellStyle name="超链接 16" xfId="767"/>
+    <cellStyle name="超链接 21" xfId="768"/>
+    <cellStyle name="超链接 17" xfId="769"/>
+    <cellStyle name="超链接 22" xfId="770"/>
     <cellStyle name="超链接 18" xfId="771"/>
-    <cellStyle name="好_Sheet1" xfId="772"/>
-    <cellStyle name="超链接 2" xfId="773"/>
-    <cellStyle name="好_Sheet2" xfId="774"/>
-    <cellStyle name="超链接 3" xfId="775"/>
-    <cellStyle name="好_Sheet3" xfId="776"/>
-    <cellStyle name="超链接 4" xfId="777"/>
+    <cellStyle name="超链接 2" xfId="772"/>
+    <cellStyle name="好_Sheet1" xfId="773"/>
+    <cellStyle name="超链接 3" xfId="774"/>
+    <cellStyle name="好_Sheet2" xfId="775"/>
+    <cellStyle name="超链接 4" xfId="776"/>
+    <cellStyle name="好_Sheet3" xfId="777"/>
     <cellStyle name="超链接 7" xfId="778"/>
     <cellStyle name="超链接 8" xfId="779"/>
     <cellStyle name="好_Sheet1 2" xfId="780"/>
@@ -6473,15 +6491,15 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6296296296296" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="14.6333333333333" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="11.1296296296296" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="23" customWidth="1"/>
     <col min="2" max="2" width="8" style="23" customWidth="1"/>
-    <col min="3" max="4" width="14.6296296296296" style="23"/>
-    <col min="5" max="5" width="7.62962962962963" style="23" customWidth="1"/>
+    <col min="3" max="4" width="14.6333333333333" style="23"/>
+    <col min="5" max="5" width="7.63333333333333" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.1296296296296" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="14.6296296296296" style="23"/>
+    <col min="7" max="7" width="10.1333333333333" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="14.6333333333333" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6946,13 +6964,13 @@
       <selection activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7103,7 +7121,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
@@ -7143,13 +7161,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="28.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7338,13 +7356,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7722,16 +7740,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="28.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="14.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="28.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="23.775" customWidth="1"/>
+    <col min="2" max="2" width="28.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7866,13 +7884,13 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="30.1296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8110,16 +8128,16 @@
       <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.3796296296296" customWidth="1"/>
-    <col min="2" max="2" width="18.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="19.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.3833333333333" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8236,7 +8254,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -8276,16 +8294,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="17.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
+    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.6333333333333" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8627,16 +8645,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="23.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="32.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="32.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8793,13 +8811,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="30.3796296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="30.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8916,7 +8934,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -8956,15 +8974,15 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="23.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="23.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9157,12 +9175,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6296296296296" defaultRowHeight="10.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="17.6333333333333" defaultRowHeight="11.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.3796296296296" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.8796296296296" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.3796296296296" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="17.6296296296296" style="16"/>
+    <col min="1" max="1" width="36.3833333333333" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.3833333333333" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="17.6333333333333" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9176,7 +9194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.4" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -9187,7 +9205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -9198,7 +9216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="1:3">
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -9209,7 +9227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="1:3">
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
@@ -9220,7 +9238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.4" spans="1:3">
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -9231,7 +9249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="1:3">
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -9242,7 +9260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.4" spans="1:3">
+    <row r="8" ht="14.25" spans="1:3">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -9253,7 +9271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14.4" spans="1:3">
+    <row r="9" ht="14.25" spans="1:3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -9264,7 +9282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.4" spans="1:3">
+    <row r="10" ht="14.25" spans="1:3">
       <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
@@ -9275,7 +9293,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="14.4" spans="1:3">
+    <row r="11" ht="14.25" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
@@ -9286,7 +9304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.4" spans="1:3">
+    <row r="12" ht="14.25" spans="1:3">
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.4" spans="1:3">
+    <row r="13" ht="14.25" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -9308,7 +9326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14.4" spans="1:3">
+    <row r="14" ht="14.25" spans="1:3">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -9319,7 +9337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="14.4" spans="1:3">
+    <row r="15" ht="14.25" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -9330,7 +9348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14.4" spans="1:3">
+    <row r="16" ht="14.25" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
@@ -9341,7 +9359,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="14.4" spans="1:3">
+    <row r="17" ht="14.25" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -9352,7 +9370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14.4" spans="1:3">
+    <row r="18" ht="14.25" spans="1:3">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -9363,7 +9381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.4" spans="1:3">
+    <row r="19" ht="14.25" spans="1:3">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -9374,7 +9392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="14.4" spans="1:3">
+    <row r="20" ht="14.25" spans="1:3">
       <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
@@ -9385,7 +9403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="14.4" spans="1:3">
+    <row r="21" ht="14.25" spans="1:3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -9396,7 +9414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.4" spans="1:3">
+    <row r="22" ht="14.25" spans="1:3">
       <c r="A22" s="19" t="s">
         <v>59</v>
       </c>
@@ -9407,7 +9425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="14.4" spans="1:3">
+    <row r="23" ht="14.25" spans="1:3">
       <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
@@ -9418,7 +9436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="14.4" spans="1:3">
+    <row r="24" ht="14.25" spans="1:3">
       <c r="A24" s="19" t="s">
         <v>63</v>
       </c>
@@ -9429,7 +9447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="14.4" spans="1:3">
+    <row r="25" ht="14.25" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -9440,7 +9458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.4" spans="1:3">
+    <row r="26" ht="14.25" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -9451,7 +9469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="14.4" spans="1:3">
+    <row r="27" ht="14.25" spans="1:3">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -9462,7 +9480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="14.4" spans="1:3">
+    <row r="28" ht="14.25" spans="1:3">
       <c r="A28" s="19" t="s">
         <v>71</v>
       </c>
@@ -9473,7 +9491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="14.4" spans="1:3">
+    <row r="29" ht="14.25" spans="1:3">
       <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
@@ -9484,7 +9502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="14.4" spans="1:3">
+    <row r="30" ht="14.25" spans="1:3">
       <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
@@ -9495,7 +9513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="14.4" spans="1:3">
+    <row r="31" ht="14.25" spans="1:3">
       <c r="A31" s="19" t="s">
         <v>77</v>
       </c>
@@ -9561,15 +9579,15 @@
       <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.6296296296296" customWidth="1"/>
+    <col min="1" max="1" width="26.6333333333333" customWidth="1"/>
     <col min="2" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9669,7 +9687,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
@@ -9790,15 +9808,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="54.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="54.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10036,13 +10054,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10176,7 +10194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -10216,16 +10234,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
     <col min="5" max="5" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10348,13 +10366,13 @@
       <selection activeCell="A8" sqref="$A8:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="31.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="31.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10522,7 +10540,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:5">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>109</v>
       </c>
@@ -10582,14 +10600,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="20.6296296296296" customWidth="1"/>
+    <col min="4" max="5" width="20.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10746,15 +10764,15 @@
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10871,7 +10889,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -11009,13 +11027,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11438,7 +11456,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" ht="28.8" spans="1:5">
+    <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
@@ -11472,19 +11490,20 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="36.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="36.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11669,7 +11688,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:5">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>426</v>
       </c>
@@ -11687,25 +11706,25 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="9">
-        <v>20</v>
+      <c r="A13" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>108</v>
+      <c r="E13" s="7" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>109</v>
+        <v>430</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>88</v>
@@ -11717,6 +11736,40 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="9">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -11743,16 +11796,16 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="26.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="26.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="12.8796296296296" customWidth="1"/>
-    <col min="5" max="5" width="26.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="26.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11820,7 +11873,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -11832,12 +11885,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>156</v>
@@ -11849,12 +11902,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>156</v>
@@ -11866,7 +11919,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
@@ -11926,13 +11979,13 @@
       <selection activeCell="A9" sqref="$A9:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="32.1296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="32.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12174,13 +12227,13 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12243,12 +12296,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12260,12 +12313,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12277,12 +12330,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>156</v>
@@ -12294,7 +12347,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:5">
@@ -12365,15 +12418,15 @@
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12428,7 +12481,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12440,12 +12493,12 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12457,12 +12510,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12474,63 +12527,63 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="5">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="5">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="5">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>450</v>
+        <v>387</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>88</v>
@@ -12542,29 +12595,29 @@
         <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>389</v>
+        <v>457</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>263</v>
@@ -12576,12 +12629,12 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>454</v>
+        <v>389</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>263</v>
@@ -12590,32 +12643,32 @@
         <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>364</v>
+        <v>460</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="C14" s="5">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>88</v>
@@ -12627,23 +12680,40 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="5">
+        <v>500</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C17" s="9">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="D17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12670,15 +12740,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="29.8796296296296" customWidth="1"/>
+    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="29.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12741,12 +12811,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12758,7 +12828,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12780,7 +12850,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12792,10 +12862,10 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -12831,17 +12901,17 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13149,13 +13219,13 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13357,7 +13427,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
@@ -13397,13 +13467,13 @@
       <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="34.8796296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13679,13 +13749,13 @@
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="39.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14121,7 +14191,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:5">
+    <row r="27" ht="27" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>191</v>
       </c>
@@ -14138,7 +14208,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" ht="28.8" spans="1:5">
+    <row r="28" ht="27" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>193</v>
       </c>
@@ -14264,13 +14334,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14784,13 +14854,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6296296296296" customWidth="1"/>
+    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15026,7 +15096,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:5">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>109</v>
       </c>

--- a/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
+++ b/jshERP-boot/docs/华夏ERP数据库设计汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17880" tabRatio="936" firstSheet="9" activeTab="27"/>
+    <workbookView windowWidth="18530" windowHeight="8110" tabRatio="936" firstSheet="20" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="47" state="hidden" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="477">
   <si>
     <t>返回</t>
   </si>
@@ -1386,10 +1386,37 @@
     <t>副单位</t>
   </si>
   <si>
+    <t>other_unit_two</t>
+  </si>
+  <si>
+    <t>副单位2</t>
+  </si>
+  <si>
+    <t>other_unit_three</t>
+  </si>
+  <si>
+    <t>副单位3</t>
+  </si>
+  <si>
     <t>ratio</t>
   </si>
   <si>
+    <t>24,3</t>
+  </si>
+  <si>
     <t>比例</t>
+  </si>
+  <si>
+    <t>ratio_two</t>
+  </si>
+  <si>
+    <t>比例2</t>
+  </si>
+  <si>
+    <t>ratio_three</t>
+  </si>
+  <si>
+    <t>比例3</t>
   </si>
   <si>
     <t>username</t>
@@ -1684,18 +1711,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1851,14 +1878,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2422,8 +2449,8 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2457,13 +2484,13 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -2546,15 +2573,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2624,13 +2651,13 @@
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2667,6 +2694,12 @@
     <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2674,12 +2707,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2694,22 +2721,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2721,14 +2748,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2744,7 +2771,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2755,7 +2781,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2764,14 +2795,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2781,6 +2804,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -2789,7 +2815,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2802,6 +2827,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -2829,22 +2856,22 @@
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2968,12 +2995,13 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2996,37 +3024,37 @@
     <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3036,7 +3064,6 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3060,12 +3087,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3075,6 +3096,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3090,18 +3117,22 @@
     <xf numFmtId="0" fontId="52" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3110,10 +3141,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3131,28 +3158,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3175,9 +3202,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3187,12 +3211,15 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3211,16 +3238,13 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3247,6 +3271,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
@@ -3326,9 +3353,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3348,94 +3372,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3526,19 +3553,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
@@ -3556,14 +3583,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3593,13 +3620,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3619,333 +3646,333 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4010,12 +4037,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4056,184 +4077,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4257,76 +4278,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4405,18 +4432,21 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -4434,9 +4464,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -4544,48 +4571,48 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="498" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="499" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4594,47 +4621,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="297" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="326" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="326" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="296" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="5" borderId="1" xfId="327" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="327" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="792">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="?? 33" xfId="1"/>
+    <cellStyle name="?? 185 2 2" xfId="1"/>
     <cellStyle name="?? 28" xfId="2"/>
-    <cellStyle name="?? 185 2 2" xfId="3"/>
+    <cellStyle name="?? 33" xfId="3"/>
     <cellStyle name="货币[0]" xfId="4" builtinId="7"/>
-    <cellStyle name="常规 44" xfId="5"/>
-    <cellStyle name="常规 39" xfId="6"/>
+    <cellStyle name="常规 39" xfId="5"/>
+    <cellStyle name="常规 44" xfId="6"/>
     <cellStyle name="货币" xfId="7" builtinId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="8" builtinId="38"/>
     <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="?? 20" xfId="10"/>
-    <cellStyle name="?? 15" xfId="11"/>
+    <cellStyle name="?? 15" xfId="10"/>
+    <cellStyle name="?? 20" xfId="11"/>
     <cellStyle name="常规 2 26" xfId="12"/>
     <cellStyle name="千位分隔[0]" xfId="13" builtinId="6"/>
-    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="14"/>
-    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="15"/>
+    <cellStyle name="常规 56 2_ITDM3.2期数据库设计汇总" xfId="14"/>
+    <cellStyle name="常规 61 2_ITDM3.2期数据库设计汇总" xfId="15"/>
     <cellStyle name="常规 7 3" xfId="16"/>
     <cellStyle name="千位分隔" xfId="17" builtinId="3"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="18" builtinId="39"/>
     <cellStyle name="差" xfId="19" builtinId="27"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="20" builtinId="40"/>
-    <cellStyle name="差_个贷账户基础信息表（V）" xfId="21"/>
-    <cellStyle name="?? 11" xfId="22"/>
+    <cellStyle name="?? 11" xfId="20"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="21" builtinId="40"/>
+    <cellStyle name="差_个贷账户基础信息表（V）" xfId="22"/>
     <cellStyle name="超链接" xfId="23" builtinId="8"/>
     <cellStyle name="常规 10 2 2 3" xfId="24"/>
     <cellStyle name="百分比" xfId="25" builtinId="5"/>
@@ -4665,11 +4692,11 @@
     <cellStyle name="输出" xfId="50" builtinId="21"/>
     <cellStyle name="常规 90" xfId="51"/>
     <cellStyle name="常规 85" xfId="52"/>
-    <cellStyle name="计算" xfId="53" builtinId="22"/>
-    <cellStyle name="?? 2" xfId="54"/>
-    <cellStyle name="Input" xfId="55"/>
-    <cellStyle name="常规 26" xfId="56"/>
-    <cellStyle name="常规 31" xfId="57"/>
+    <cellStyle name="Input" xfId="53"/>
+    <cellStyle name="常规 26" xfId="54"/>
+    <cellStyle name="常规 31" xfId="55"/>
+    <cellStyle name="计算" xfId="56" builtinId="22"/>
+    <cellStyle name="?? 2" xfId="57"/>
     <cellStyle name="检查单元格" xfId="58" builtinId="23"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="59" builtinId="50"/>
     <cellStyle name="常规 80 2_ITDM3.2期数据库设计汇总" xfId="60"/>
@@ -4693,9 +4720,9 @@
     <cellStyle name="20% - 强调文字颜色 2" xfId="78" builtinId="34"/>
     <cellStyle name="常规 10 2 3 2 2 3" xfId="79"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="80" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="81" builtinId="37"/>
-    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="82"/>
-    <cellStyle name="常规 2 26 2" xfId="83"/>
+    <cellStyle name="常规 2 26 2" xfId="81"/>
+    <cellStyle name="强调文字颜色 3" xfId="82" builtinId="37"/>
+    <cellStyle name="差_Sheet1_ITDM3.2期数据库设计汇总" xfId="83"/>
     <cellStyle name="强调文字颜色 4" xfId="84" builtinId="41"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="85" builtinId="42"/>
     <cellStyle name="好_RDM_零售_P-F_数据映射_V1.0" xfId="86"/>
@@ -4708,11 +4735,11 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="93" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="94" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="95" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="96" builtinId="52"/>
-    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="97"/>
-    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="98"/>
-    <cellStyle name="常规 48 3" xfId="99"/>
-    <cellStyle name="常规 53 3" xfId="100"/>
+    <cellStyle name="常规 48 3" xfId="96"/>
+    <cellStyle name="常规 53 3" xfId="97"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="98" builtinId="52"/>
+    <cellStyle name="常规 91_ITDM3.2期数据库设计汇总" xfId="99"/>
+    <cellStyle name="常规 86_ITDM3.2期数据库设计汇总" xfId="100"/>
     <cellStyle name="?? 12" xfId="101"/>
     <cellStyle name="?? 17" xfId="102"/>
     <cellStyle name="?? 22" xfId="103"/>
@@ -4721,12 +4748,12 @@
     <cellStyle name="常规 48 2_ITDM3.2期数据库设计汇总" xfId="106"/>
     <cellStyle name="常规 53 2_ITDM3.2期数据库设计汇总" xfId="107"/>
     <cellStyle name="??" xfId="108"/>
-    <cellStyle name="?? 10 2" xfId="109"/>
-    <cellStyle name="常规 72" xfId="110"/>
-    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="111"/>
-    <cellStyle name="常规 67" xfId="112"/>
-    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="113"/>
-    <cellStyle name="40% - Accent5" xfId="114"/>
+    <cellStyle name="常规 72" xfId="109"/>
+    <cellStyle name="常规 71_ITDM3.2期数据库设计汇总" xfId="110"/>
+    <cellStyle name="常规 67" xfId="111"/>
+    <cellStyle name="常规 66_ITDM3.2期数据库设计汇总" xfId="112"/>
+    <cellStyle name="40% - Accent5" xfId="113"/>
+    <cellStyle name="?? 10 2" xfId="114"/>
     <cellStyle name="常规 93_ITDM3.2期数据库设计汇总" xfId="115"/>
     <cellStyle name="常规 88_ITDM3.2期数据库设计汇总" xfId="116"/>
     <cellStyle name="?? 16" xfId="117"/>
@@ -4734,12 +4761,12 @@
     <cellStyle name="常规 2 2 3 2" xfId="119"/>
     <cellStyle name="?? 18" xfId="120"/>
     <cellStyle name="?? 23" xfId="121"/>
-    <cellStyle name="?? 185" xfId="122"/>
-    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="123"/>
-    <cellStyle name="?? 26" xfId="124"/>
-    <cellStyle name="?? 31" xfId="125"/>
-    <cellStyle name="?? 185 2" xfId="126"/>
-    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="127"/>
+    <cellStyle name="常规 3_ITDM3.2期数据库设计汇总" xfId="122"/>
+    <cellStyle name="?? 185" xfId="123"/>
+    <cellStyle name="?? 185 2" xfId="124"/>
+    <cellStyle name="常规 102 2_ITDM3.2期数据库设计汇总" xfId="125"/>
+    <cellStyle name="?? 26" xfId="126"/>
+    <cellStyle name="?? 31" xfId="127"/>
     <cellStyle name="常规 81 2_ITDM3.2期数据库设计汇总" xfId="128"/>
     <cellStyle name="常规 76 2_ITDM3.2期数据库设计汇总" xfId="129"/>
     <cellStyle name="?? 19" xfId="130"/>
@@ -4751,41 +4778,41 @@
     <cellStyle name="常规 99 2_ITDM3.2期数据库设计汇总" xfId="136"/>
     <cellStyle name="?? 29" xfId="137"/>
     <cellStyle name="?? 34" xfId="138"/>
-    <cellStyle name="?? 3" xfId="139"/>
-    <cellStyle name="常规 27" xfId="140"/>
-    <cellStyle name="常规 32" xfId="141"/>
+    <cellStyle name="常规 27" xfId="139"/>
+    <cellStyle name="常规 32" xfId="140"/>
+    <cellStyle name="?? 3" xfId="141"/>
     <cellStyle name="?? 35" xfId="142"/>
-    <cellStyle name="?? 36" xfId="143"/>
-    <cellStyle name="差_零售资产监管经济资本表" xfId="144"/>
+    <cellStyle name="差_零售资产监管经济资本表" xfId="143"/>
+    <cellStyle name="?? 36" xfId="144"/>
     <cellStyle name="?? 37" xfId="145"/>
     <cellStyle name="常规 102_ITDM3.2期数据库设计汇总" xfId="146"/>
     <cellStyle name="?? 38" xfId="147"/>
-    <cellStyle name="?? 4" xfId="148"/>
-    <cellStyle name="常规 62 2" xfId="149"/>
-    <cellStyle name="常规 28" xfId="150"/>
-    <cellStyle name="常规 33" xfId="151"/>
-    <cellStyle name="常规 57 2" xfId="152"/>
-    <cellStyle name="?? 5" xfId="153"/>
-    <cellStyle name="常规 2 4 3 2" xfId="154"/>
-    <cellStyle name="常规 62 3" xfId="155"/>
-    <cellStyle name="常规 29" xfId="156"/>
-    <cellStyle name="常规 34" xfId="157"/>
-    <cellStyle name="常规 57 3" xfId="158"/>
-    <cellStyle name="?? 6" xfId="159"/>
-    <cellStyle name="常规 35" xfId="160"/>
-    <cellStyle name="常规 40" xfId="161"/>
-    <cellStyle name="?? 7" xfId="162"/>
-    <cellStyle name="常规 36" xfId="163"/>
-    <cellStyle name="常规 41" xfId="164"/>
-    <cellStyle name="?? 8" xfId="165"/>
-    <cellStyle name="常规 2 2 2" xfId="166"/>
-    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="167"/>
-    <cellStyle name="常规 37" xfId="168"/>
-    <cellStyle name="常规 42" xfId="169"/>
-    <cellStyle name="?? 9" xfId="170"/>
-    <cellStyle name="常规 2 2 3" xfId="171"/>
-    <cellStyle name="常规 38" xfId="172"/>
-    <cellStyle name="常规 43" xfId="173"/>
+    <cellStyle name="常规 62 2" xfId="148"/>
+    <cellStyle name="常规 28" xfId="149"/>
+    <cellStyle name="常规 33" xfId="150"/>
+    <cellStyle name="常规 57 2" xfId="151"/>
+    <cellStyle name="?? 4" xfId="152"/>
+    <cellStyle name="常规 62 3" xfId="153"/>
+    <cellStyle name="常规 29" xfId="154"/>
+    <cellStyle name="常规 34" xfId="155"/>
+    <cellStyle name="常规 57 3" xfId="156"/>
+    <cellStyle name="?? 5" xfId="157"/>
+    <cellStyle name="常规 2 4 3 2" xfId="158"/>
+    <cellStyle name="常规 35" xfId="159"/>
+    <cellStyle name="常规 40" xfId="160"/>
+    <cellStyle name="?? 6" xfId="161"/>
+    <cellStyle name="常规 36" xfId="162"/>
+    <cellStyle name="常规 41" xfId="163"/>
+    <cellStyle name="?? 7" xfId="164"/>
+    <cellStyle name="差_Sheet1 2_ITDM3.2期数据库设计汇总" xfId="165"/>
+    <cellStyle name="常规 37" xfId="166"/>
+    <cellStyle name="常规 42" xfId="167"/>
+    <cellStyle name="?? 8" xfId="168"/>
+    <cellStyle name="常规 2 2 2" xfId="169"/>
+    <cellStyle name="常规 38" xfId="170"/>
+    <cellStyle name="常规 43" xfId="171"/>
+    <cellStyle name="?? 9" xfId="172"/>
+    <cellStyle name="常规 2 2 3" xfId="173"/>
     <cellStyle name="??_Sheet1" xfId="174"/>
     <cellStyle name="常规 4 2_ITDM3.2期数据库设计汇总" xfId="175"/>
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="176"/>
@@ -4796,12 +4823,12 @@
     <cellStyle name="20% - Accent2" xfId="181"/>
     <cellStyle name="20% - Accent2 2" xfId="182"/>
     <cellStyle name="20% - Accent3" xfId="183"/>
-    <cellStyle name="20% - Accent4" xfId="184"/>
-    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="185"/>
-    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="186"/>
-    <cellStyle name="常规 5 3 2" xfId="187"/>
-    <cellStyle name="20% - Accent4 2" xfId="188"/>
-    <cellStyle name="常规 4" xfId="189"/>
+    <cellStyle name="常规 74 2_ITDM3.2期数据库设计汇总" xfId="184"/>
+    <cellStyle name="常规 69 2_ITDM3.2期数据库设计汇总" xfId="185"/>
+    <cellStyle name="常规 5 3 2" xfId="186"/>
+    <cellStyle name="20% - Accent4" xfId="187"/>
+    <cellStyle name="常规 4" xfId="188"/>
+    <cellStyle name="20% - Accent4 2" xfId="189"/>
     <cellStyle name="20% - Accent5" xfId="190"/>
     <cellStyle name="20% - Accent5 2" xfId="191"/>
     <cellStyle name="20% - Accent6" xfId="192"/>
@@ -4843,33 +4870,33 @@
     <cellStyle name="常规 73 2" xfId="228"/>
     <cellStyle name="常规 68 2" xfId="229"/>
     <cellStyle name="40% - Accent6 2" xfId="230"/>
-    <cellStyle name="60% - Accent1" xfId="231"/>
-    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="232"/>
-    <cellStyle name="60% - Accent2" xfId="233"/>
-    <cellStyle name="常规 2 2" xfId="234"/>
-    <cellStyle name="60% - Accent3" xfId="235"/>
-    <cellStyle name="常规 10 2 4 2" xfId="236"/>
-    <cellStyle name="常规 2 3" xfId="237"/>
-    <cellStyle name="60% - Accent4" xfId="238"/>
-    <cellStyle name="常规 2 4" xfId="239"/>
-    <cellStyle name="60% - Accent5" xfId="240"/>
-    <cellStyle name="常规 2 5" xfId="241"/>
-    <cellStyle name="60% - Accent6" xfId="242"/>
-    <cellStyle name="常规 2 6" xfId="243"/>
+    <cellStyle name="差_ITDM3.2期数据库设计汇总" xfId="231"/>
+    <cellStyle name="60% - Accent1" xfId="232"/>
+    <cellStyle name="常规 2 2" xfId="233"/>
+    <cellStyle name="60% - Accent2" xfId="234"/>
+    <cellStyle name="常规 2 3" xfId="235"/>
+    <cellStyle name="60% - Accent3" xfId="236"/>
+    <cellStyle name="常规 10 2 4 2" xfId="237"/>
+    <cellStyle name="常规 2 4" xfId="238"/>
+    <cellStyle name="60% - Accent4" xfId="239"/>
+    <cellStyle name="常规 2 5" xfId="240"/>
+    <cellStyle name="60% - Accent5" xfId="241"/>
+    <cellStyle name="常规 2 6" xfId="242"/>
+    <cellStyle name="60% - Accent6" xfId="243"/>
     <cellStyle name="Accent1" xfId="244"/>
     <cellStyle name="Accent2" xfId="245"/>
-    <cellStyle name="Accent3" xfId="246"/>
-    <cellStyle name="常规 102 2" xfId="247"/>
-    <cellStyle name="Accent4" xfId="248"/>
-    <cellStyle name="常规 102 3" xfId="249"/>
-    <cellStyle name="Accent5" xfId="250"/>
-    <cellStyle name="常规 10 2 2 2 2 2" xfId="251"/>
-    <cellStyle name="Accent6" xfId="252"/>
-    <cellStyle name="常规 10 2 2 2 2 3" xfId="253"/>
-    <cellStyle name="常规 92" xfId="254"/>
-    <cellStyle name="常规 87" xfId="255"/>
-    <cellStyle name="Bad" xfId="256"/>
-    <cellStyle name="常规 2 3 2" xfId="257"/>
+    <cellStyle name="常规 102 2" xfId="246"/>
+    <cellStyle name="Accent3" xfId="247"/>
+    <cellStyle name="常规 102 3" xfId="248"/>
+    <cellStyle name="Accent4" xfId="249"/>
+    <cellStyle name="常规 10 2 2 2 2 2" xfId="250"/>
+    <cellStyle name="Accent5" xfId="251"/>
+    <cellStyle name="常规 10 2 2 2 2 3" xfId="252"/>
+    <cellStyle name="Accent6" xfId="253"/>
+    <cellStyle name="常规 2 3 2" xfId="254"/>
+    <cellStyle name="常规 92" xfId="255"/>
+    <cellStyle name="常规 87" xfId="256"/>
+    <cellStyle name="Bad" xfId="257"/>
     <cellStyle name="Calculation" xfId="258"/>
     <cellStyle name="常规 106" xfId="259"/>
     <cellStyle name="常规 111" xfId="260"/>
@@ -4879,25 +4906,25 @@
     <cellStyle name="常规 20" xfId="264"/>
     <cellStyle name="强调文字颜色 1 2" xfId="265"/>
     <cellStyle name="Explanatory Text" xfId="266"/>
-    <cellStyle name="Good" xfId="267"/>
-    <cellStyle name="常规 10" xfId="268"/>
-    <cellStyle name="超链接 9" xfId="269"/>
-    <cellStyle name="常规 16 2" xfId="270"/>
+    <cellStyle name="超链接 9" xfId="267"/>
+    <cellStyle name="常规 16 2" xfId="268"/>
+    <cellStyle name="Good" xfId="269"/>
+    <cellStyle name="常规 10" xfId="270"/>
     <cellStyle name="Heading 1" xfId="271"/>
     <cellStyle name="Heading 2" xfId="272"/>
     <cellStyle name="Heading 4" xfId="273"/>
     <cellStyle name="Linked Cell" xfId="274"/>
     <cellStyle name="Neutral" xfId="275"/>
-    <cellStyle name="Normal 2" xfId="276"/>
-    <cellStyle name="常规 115" xfId="277"/>
-    <cellStyle name="常规 120" xfId="278"/>
-    <cellStyle name="Normal 2 2" xfId="279"/>
-    <cellStyle name="常规 120 2" xfId="280"/>
+    <cellStyle name="常规 115" xfId="276"/>
+    <cellStyle name="常规 120" xfId="277"/>
+    <cellStyle name="Normal 2" xfId="278"/>
+    <cellStyle name="常规 120 2" xfId="279"/>
+    <cellStyle name="Normal 2 2" xfId="280"/>
     <cellStyle name="Normal 2 3" xfId="281"/>
-    <cellStyle name="常规 116" xfId="282"/>
-    <cellStyle name="常规 121" xfId="283"/>
-    <cellStyle name="Normal 3" xfId="284"/>
-    <cellStyle name="常规 3 7 2" xfId="285"/>
+    <cellStyle name="Normal 3" xfId="282"/>
+    <cellStyle name="常规 3 7 2" xfId="283"/>
+    <cellStyle name="常规 116" xfId="284"/>
+    <cellStyle name="常规 121" xfId="285"/>
     <cellStyle name="Normal 3 2" xfId="286"/>
     <cellStyle name="常规 72 2 2" xfId="287"/>
     <cellStyle name="常规 67 2 2" xfId="288"/>
@@ -4907,14 +4934,14 @@
     <cellStyle name="Note 2" xfId="292"/>
     <cellStyle name="Output" xfId="293"/>
     <cellStyle name="常规 4 2 3 4" xfId="294"/>
-    <cellStyle name="Title" xfId="295"/>
-    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="296"/>
-    <cellStyle name="常规 2" xfId="297"/>
-    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="298"/>
-    <cellStyle name="Total" xfId="299"/>
-    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="300"/>
-    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="301"/>
-    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="302"/>
+    <cellStyle name="好_国际卡客户风险属性信息衍生数据" xfId="295"/>
+    <cellStyle name="常规 2" xfId="296"/>
+    <cellStyle name="Title" xfId="297"/>
+    <cellStyle name="常规 61_ITDM3.2期数据库设计汇总" xfId="298"/>
+    <cellStyle name="常规 2 4_对公资产监管经济资本表" xfId="299"/>
+    <cellStyle name="常规 56_ITDM3.2期数据库设计汇总" xfId="300"/>
+    <cellStyle name="常规 98 2_ITDM3.2期数据库设计汇总" xfId="301"/>
+    <cellStyle name="Total" xfId="302"/>
     <cellStyle name="Warning Text" xfId="303"/>
     <cellStyle name="百分比 2" xfId="304"/>
     <cellStyle name="常规 10 2 2 3 2" xfId="305"/>
@@ -4923,9 +4950,9 @@
     <cellStyle name="差_Sheet1" xfId="308"/>
     <cellStyle name="差_Sheet1 2" xfId="309"/>
     <cellStyle name="差_Sheet2" xfId="310"/>
-    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="311"/>
-    <cellStyle name="差_Sheet3" xfId="312"/>
-    <cellStyle name="常规 3 2" xfId="313"/>
+    <cellStyle name="差_Sheet3" xfId="311"/>
+    <cellStyle name="常规 3 2" xfId="312"/>
+    <cellStyle name="差_Sheet2_ITDM3.2期数据库设计汇总" xfId="313"/>
     <cellStyle name="差_Sheet3_ITDM3.2期数据库设计汇总" xfId="314"/>
     <cellStyle name="常规 96" xfId="315"/>
     <cellStyle name="差_保函明细" xfId="316"/>
@@ -4935,20 +4962,20 @@
     <cellStyle name="常规 50 2 2" xfId="320"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据" xfId="321"/>
     <cellStyle name="差_国际卡客户风险属性信息衍生数据_ITDM3.2期数据库设计汇总" xfId="322"/>
-    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="323"/>
-    <cellStyle name="常规 51 2" xfId="324"/>
+    <cellStyle name="常规 51 2" xfId="323"/>
+    <cellStyle name="差_零售资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="324"/>
     <cellStyle name="常规 10 2" xfId="325"/>
-    <cellStyle name="常规 10 2 2" xfId="326"/>
-    <cellStyle name="常规 2 7" xfId="327"/>
+    <cellStyle name="常规 2 7" xfId="326"/>
+    <cellStyle name="常规 10 2 2" xfId="327"/>
     <cellStyle name="常规 62 2_ITDM3.2期数据库设计汇总" xfId="328"/>
     <cellStyle name="常规 10 2 2 2" xfId="329"/>
     <cellStyle name="常规 57 2_ITDM3.2期数据库设计汇总" xfId="330"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="331"/>
     <cellStyle name="常规 10 2 2 2 2 2 2" xfId="332"/>
     <cellStyle name="常规 10 2 2 2 3 3" xfId="333"/>
-    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="334"/>
-    <cellStyle name="常规 47" xfId="335"/>
-    <cellStyle name="常规 52" xfId="336"/>
+    <cellStyle name="常规 47" xfId="334"/>
+    <cellStyle name="常规 52" xfId="335"/>
+    <cellStyle name="常规 10 2 2 2 2 2 2 2" xfId="336"/>
     <cellStyle name="常规 10 2 2 2 2 2 3" xfId="337"/>
     <cellStyle name="常规 10 2 2 2 2 2 3 2" xfId="338"/>
     <cellStyle name="常规 10 2 2 2 2 2 4" xfId="339"/>
@@ -4974,8 +5001,8 @@
     <cellStyle name="常规 10 2 2 5" xfId="359"/>
     <cellStyle name="常规 10 2 2 6" xfId="360"/>
     <cellStyle name="常规 10 2 2 6 2" xfId="361"/>
-    <cellStyle name="常规 10 2 3" xfId="362"/>
-    <cellStyle name="常规 2 8" xfId="363"/>
+    <cellStyle name="常规 2 8" xfId="362"/>
+    <cellStyle name="常规 10 2 3" xfId="363"/>
     <cellStyle name="常规 10 2 3 2" xfId="364"/>
     <cellStyle name="常规 10 2 3 2 2" xfId="365"/>
     <cellStyle name="常规 10 2 3 2 2 2 2" xfId="366"/>
@@ -4990,14 +5017,14 @@
     <cellStyle name="常规 10 2 3 3 3" xfId="375"/>
     <cellStyle name="常规 10 2 3 4" xfId="376"/>
     <cellStyle name="常规 10 2 3 4 2" xfId="377"/>
-    <cellStyle name="常规 10 2 3 5" xfId="378"/>
-    <cellStyle name="常规 2 10" xfId="379"/>
-    <cellStyle name="常规 4 2 3 4 2" xfId="380"/>
-    <cellStyle name="常规 10 2 4" xfId="381"/>
-    <cellStyle name="常规 2 9" xfId="382"/>
+    <cellStyle name="常规 4 2 3 4 2" xfId="378"/>
+    <cellStyle name="常规 10 2 3 5" xfId="379"/>
+    <cellStyle name="常规 2 10" xfId="380"/>
+    <cellStyle name="常规 2 9" xfId="381"/>
+    <cellStyle name="常规 10 2 4" xfId="382"/>
     <cellStyle name="常规 10 2 5" xfId="383"/>
-    <cellStyle name="常规 10 2 5 2" xfId="384"/>
-    <cellStyle name="常规 3 3" xfId="385"/>
+    <cellStyle name="常规 3 3" xfId="384"/>
+    <cellStyle name="常规 10 2 5 2" xfId="385"/>
     <cellStyle name="常规 10_ITDM3.2期数据库设计汇总" xfId="386"/>
     <cellStyle name="常规 100" xfId="387"/>
     <cellStyle name="常规 4 2 3" xfId="388"/>
@@ -5016,8 +5043,8 @@
     <cellStyle name="常规 101 2" xfId="401"/>
     <cellStyle name="常规 4 6 2" xfId="402"/>
     <cellStyle name="常规 101 2 2" xfId="403"/>
-    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="404"/>
-    <cellStyle name="常规 101 3" xfId="405"/>
+    <cellStyle name="常规 101 3" xfId="404"/>
+    <cellStyle name="常规 101 2_ITDM3.2期数据库设计汇总" xfId="405"/>
     <cellStyle name="常规 102" xfId="406"/>
     <cellStyle name="常规 4 2 5" xfId="407"/>
     <cellStyle name="常规 4 7" xfId="408"/>
@@ -5052,11 +5079,11 @@
     <cellStyle name="常规 21" xfId="437"/>
     <cellStyle name="常规 17" xfId="438"/>
     <cellStyle name="常规 22" xfId="439"/>
-    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="440"/>
-    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="441"/>
-    <cellStyle name="常规 17 2" xfId="442"/>
-    <cellStyle name="常规 55" xfId="443"/>
-    <cellStyle name="常规 60" xfId="444"/>
+    <cellStyle name="常规 55" xfId="440"/>
+    <cellStyle name="常规 60" xfId="441"/>
+    <cellStyle name="常规 70 2_ITDM3.2期数据库设计汇总" xfId="442"/>
+    <cellStyle name="常规 65 2_ITDM3.2期数据库设计汇总" xfId="443"/>
+    <cellStyle name="常规 17 2" xfId="444"/>
     <cellStyle name="常规 18" xfId="445"/>
     <cellStyle name="常规 23" xfId="446"/>
     <cellStyle name="常规 18 2" xfId="447"/>
@@ -5068,10 +5095,10 @@
     <cellStyle name="常规 2 13" xfId="453"/>
     <cellStyle name="常规 95_ITDM3.2期数据库设计汇总" xfId="454"/>
     <cellStyle name="常规 2 14" xfId="455"/>
-    <cellStyle name="常规 2 15" xfId="456"/>
-    <cellStyle name="常规 2 20" xfId="457"/>
-    <cellStyle name="常规 62 2 2" xfId="458"/>
-    <cellStyle name="常规 57 2 2" xfId="459"/>
+    <cellStyle name="常规 62 2 2" xfId="456"/>
+    <cellStyle name="常规 57 2 2" xfId="457"/>
+    <cellStyle name="常规 2 15" xfId="458"/>
+    <cellStyle name="常规 2 20" xfId="459"/>
     <cellStyle name="常规 2 16" xfId="460"/>
     <cellStyle name="常规 2 21" xfId="461"/>
     <cellStyle name="常规 2 16 2" xfId="462"/>
@@ -5091,9 +5118,9 @@
     <cellStyle name="常规 2 3 4 2" xfId="476"/>
     <cellStyle name="常规 2_RDM_RWA_P-F_数据映射_V0.0" xfId="477"/>
     <cellStyle name="常规 2 4 2" xfId="478"/>
-    <cellStyle name="常规 2 4 2 2" xfId="479"/>
-    <cellStyle name="常规 61 3" xfId="480"/>
-    <cellStyle name="常规 56 3" xfId="481"/>
+    <cellStyle name="常规 61 3" xfId="479"/>
+    <cellStyle name="常规 56 3" xfId="480"/>
+    <cellStyle name="常规 2 4 2 2" xfId="481"/>
     <cellStyle name="常规 2 4 2 2 2" xfId="482"/>
     <cellStyle name="常规 47_ITDM3.2期数据库设计汇总" xfId="483"/>
     <cellStyle name="常规 52_ITDM3.2期数据库设计汇总" xfId="484"/>
@@ -5105,259 +5132,259 @@
     <cellStyle name="常规 2 4 3" xfId="490"/>
     <cellStyle name="常规 2 4 4" xfId="491"/>
     <cellStyle name="常规 2 4 5" xfId="492"/>
-    <cellStyle name="常规 2 4 5 2" xfId="493"/>
-    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="494"/>
-    <cellStyle name="常规 59 3" xfId="495"/>
+    <cellStyle name="常规 59 2_ITDM3.2期数据库设计汇总" xfId="493"/>
+    <cellStyle name="常规 59 3" xfId="494"/>
+    <cellStyle name="常规 2 4 5 2" xfId="495"/>
     <cellStyle name="常规 25" xfId="496"/>
     <cellStyle name="常规 30" xfId="497"/>
-    <cellStyle name="常规 3" xfId="498"/>
-    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="499"/>
+    <cellStyle name="常规 59_ITDM3.2期数据库设计汇总" xfId="498"/>
+    <cellStyle name="常规 3" xfId="499"/>
     <cellStyle name="常规 3 2 2" xfId="500"/>
     <cellStyle name="常规 3 4" xfId="501"/>
     <cellStyle name="常规 3 5" xfId="502"/>
-    <cellStyle name="常规 3 6" xfId="503"/>
-    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="504"/>
-    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="505"/>
-    <cellStyle name="常规 3 7" xfId="506"/>
-    <cellStyle name="常规 91 2 2" xfId="507"/>
-    <cellStyle name="常规 86 2 2" xfId="508"/>
-    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="509"/>
-    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="510"/>
+    <cellStyle name="常规 55 2_ITDM3.2期数据库设计汇总" xfId="503"/>
+    <cellStyle name="常规 60 2_ITDM3.2期数据库设计汇总" xfId="504"/>
+    <cellStyle name="常规 3 6" xfId="505"/>
+    <cellStyle name="常规 91 2 2" xfId="506"/>
+    <cellStyle name="常规 86 2 2" xfId="507"/>
+    <cellStyle name="常规 63_ITDM3.2期数据库设计汇总" xfId="508"/>
+    <cellStyle name="常规 58_ITDM3.2期数据库设计汇总" xfId="509"/>
+    <cellStyle name="常规 3 7" xfId="510"/>
     <cellStyle name="常规 3 8" xfId="511"/>
     <cellStyle name="常规 35 2" xfId="512"/>
     <cellStyle name="常规 4 2" xfId="513"/>
-    <cellStyle name="常规 4 4" xfId="514"/>
-    <cellStyle name="常规 4 2 2" xfId="515"/>
-    <cellStyle name="常规 6 4" xfId="516"/>
-    <cellStyle name="常规 4 2 2 2" xfId="517"/>
+    <cellStyle name="常规 4 2 2" xfId="514"/>
+    <cellStyle name="常规 4 4" xfId="515"/>
+    <cellStyle name="常规 4 2 2 2" xfId="516"/>
+    <cellStyle name="常规 6 4" xfId="517"/>
     <cellStyle name="常规 4 2 3 5" xfId="518"/>
     <cellStyle name="常规 4 3" xfId="519"/>
-    <cellStyle name="常规 5" xfId="520"/>
-    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="521"/>
-    <cellStyle name="常规 50" xfId="522"/>
-    <cellStyle name="常规 45" xfId="523"/>
-    <cellStyle name="常规 50 2" xfId="524"/>
-    <cellStyle name="常规 45 2" xfId="525"/>
+    <cellStyle name="常规 4_ITDM3.2期数据库设计汇总" xfId="520"/>
+    <cellStyle name="常规 5" xfId="521"/>
+    <cellStyle name="常规 45" xfId="522"/>
+    <cellStyle name="常规 50" xfId="523"/>
+    <cellStyle name="常规 45 2" xfId="524"/>
+    <cellStyle name="常规 50 2" xfId="525"/>
     <cellStyle name="常规 45 2 2 2" xfId="526"/>
     <cellStyle name="常规 45 2 2_ITDM3.2期数据库设计汇总" xfId="527"/>
     <cellStyle name="常规 45 2 3" xfId="528"/>
-    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="529"/>
-    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="530"/>
-    <cellStyle name="常规 50 3" xfId="531"/>
-    <cellStyle name="常规 45 3" xfId="532"/>
+    <cellStyle name="常规 45 2_ITDM3.2期数据库设计汇总" xfId="529"/>
+    <cellStyle name="常规 50 2_ITDM3.2期数据库设计汇总" xfId="530"/>
+    <cellStyle name="常规 45 3" xfId="531"/>
+    <cellStyle name="常规 50 3" xfId="532"/>
     <cellStyle name="常规 45 3 2" xfId="533"/>
-    <cellStyle name="常规 45 4" xfId="534"/>
-    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="535"/>
-    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="536"/>
-    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="537"/>
-    <cellStyle name="常规 51" xfId="538"/>
-    <cellStyle name="常规 46" xfId="539"/>
-    <cellStyle name="常规 52 2" xfId="540"/>
-    <cellStyle name="常规 47 2" xfId="541"/>
-    <cellStyle name="常规 52 2 2" xfId="542"/>
-    <cellStyle name="常规 47 2 2" xfId="543"/>
-    <cellStyle name="常规 59 2 2" xfId="544"/>
+    <cellStyle name="常规 45 3_ITDM3.2期数据库设计汇总" xfId="534"/>
+    <cellStyle name="常规 45 4" xfId="535"/>
+    <cellStyle name="常规 45_ITDM3.2期数据库设计汇总" xfId="536"/>
+    <cellStyle name="常规 50_ITDM3.2期数据库设计汇总" xfId="537"/>
+    <cellStyle name="常规 46" xfId="538"/>
+    <cellStyle name="常规 51" xfId="539"/>
+    <cellStyle name="常规 47 2" xfId="540"/>
+    <cellStyle name="常规 52 2" xfId="541"/>
+    <cellStyle name="常规 47 2 2" xfId="542"/>
+    <cellStyle name="常规 52 2 2" xfId="543"/>
+    <cellStyle name="常规 47 3" xfId="544"/>
     <cellStyle name="常规 52 3" xfId="545"/>
-    <cellStyle name="常规 47 3" xfId="546"/>
-    <cellStyle name="常规 53" xfId="547"/>
+    <cellStyle name="常规 59 2 2" xfId="546"/>
+    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="547"/>
     <cellStyle name="常规 48" xfId="548"/>
-    <cellStyle name="好_对公资产监管经济资本表_ITDM3.2期数据库设计汇总" xfId="549"/>
-    <cellStyle name="常规 53 2 2" xfId="550"/>
-    <cellStyle name="常规 48 2 2" xfId="551"/>
-    <cellStyle name="常规 54" xfId="552"/>
-    <cellStyle name="常规 49" xfId="553"/>
-    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="554"/>
-    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="555"/>
-    <cellStyle name="常规 54 2 2" xfId="556"/>
-    <cellStyle name="常规 49 2 2" xfId="557"/>
-    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="558"/>
-    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="559"/>
-    <cellStyle name="常规 54 3" xfId="560"/>
-    <cellStyle name="常规 49 3" xfId="561"/>
-    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="562"/>
-    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="563"/>
+    <cellStyle name="常规 53" xfId="549"/>
+    <cellStyle name="常规 48 2 2" xfId="550"/>
+    <cellStyle name="常规 53 2 2" xfId="551"/>
+    <cellStyle name="常规 49" xfId="552"/>
+    <cellStyle name="常规 54" xfId="553"/>
+    <cellStyle name="常规 48_ITDM3.2期数据库设计汇总" xfId="554"/>
+    <cellStyle name="常规 53_ITDM3.2期数据库设计汇总" xfId="555"/>
+    <cellStyle name="常规 49 2 2" xfId="556"/>
+    <cellStyle name="常规 54 2 2" xfId="557"/>
+    <cellStyle name="常规 49 2_ITDM3.2期数据库设计汇总" xfId="558"/>
+    <cellStyle name="常规 54 2_ITDM3.2期数据库设计汇总" xfId="559"/>
+    <cellStyle name="常规 49 3" xfId="560"/>
+    <cellStyle name="常规 54 3" xfId="561"/>
+    <cellStyle name="常规 49_ITDM3.2期数据库设计汇总" xfId="562"/>
+    <cellStyle name="常规 54_ITDM3.2期数据库设计汇总" xfId="563"/>
     <cellStyle name="常规 5 3" xfId="564"/>
     <cellStyle name="常规 5 4" xfId="565"/>
     <cellStyle name="常规 51 3" xfId="566"/>
     <cellStyle name="常规 51 2_ITDM3.2期数据库设计汇总" xfId="567"/>
     <cellStyle name="常规 51_ITDM3.2期数据库设计汇总" xfId="568"/>
-    <cellStyle name="常规 60 2" xfId="569"/>
-    <cellStyle name="常规 55 2" xfId="570"/>
-    <cellStyle name="常规 60 2 2" xfId="571"/>
-    <cellStyle name="常规 55 2 2" xfId="572"/>
-    <cellStyle name="常规 60 3" xfId="573"/>
-    <cellStyle name="常规 55 3" xfId="574"/>
-    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="575"/>
-    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="576"/>
-    <cellStyle name="常规 61" xfId="577"/>
-    <cellStyle name="常规 56" xfId="578"/>
-    <cellStyle name="常规 61 2" xfId="579"/>
-    <cellStyle name="常规 56 2" xfId="580"/>
-    <cellStyle name="常规 61 2 2" xfId="581"/>
-    <cellStyle name="常规 56 2 2" xfId="582"/>
-    <cellStyle name="常规 57" xfId="583"/>
-    <cellStyle name="常规 62" xfId="584"/>
-    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="585"/>
-    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="586"/>
-    <cellStyle name="常规 58 2 2" xfId="587"/>
-    <cellStyle name="常规 63 2 2" xfId="588"/>
-    <cellStyle name="常规 78 2" xfId="589"/>
-    <cellStyle name="常规 83 2" xfId="590"/>
-    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="591"/>
-    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="592"/>
-    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="593"/>
-    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="594"/>
-    <cellStyle name="常规 58 3" xfId="595"/>
-    <cellStyle name="常规 63 3" xfId="596"/>
-    <cellStyle name="常规 79" xfId="597"/>
-    <cellStyle name="常规 84" xfId="598"/>
+    <cellStyle name="常规 55 2" xfId="569"/>
+    <cellStyle name="常规 60 2" xfId="570"/>
+    <cellStyle name="常规 55 2 2" xfId="571"/>
+    <cellStyle name="常规 60 2 2" xfId="572"/>
+    <cellStyle name="常规 55 3" xfId="573"/>
+    <cellStyle name="常规 60 3" xfId="574"/>
+    <cellStyle name="常规 55_ITDM3.2期数据库设计汇总" xfId="575"/>
+    <cellStyle name="常规 60_ITDM3.2期数据库设计汇总" xfId="576"/>
+    <cellStyle name="常规 56" xfId="577"/>
+    <cellStyle name="常规 61" xfId="578"/>
+    <cellStyle name="常规 56 2" xfId="579"/>
+    <cellStyle name="常规 61 2" xfId="580"/>
+    <cellStyle name="常规 56 2 2" xfId="581"/>
+    <cellStyle name="常规 61 2 2" xfId="582"/>
+    <cellStyle name="常规 62" xfId="583"/>
+    <cellStyle name="常规 57" xfId="584"/>
+    <cellStyle name="常规 62_ITDM3.2期数据库设计汇总" xfId="585"/>
+    <cellStyle name="常规 57_ITDM3.2期数据库设计汇总" xfId="586"/>
+    <cellStyle name="常规 83 2" xfId="587"/>
+    <cellStyle name="常规 78 2" xfId="588"/>
+    <cellStyle name="常规 63 2 2" xfId="589"/>
+    <cellStyle name="常规 58 2 2" xfId="590"/>
+    <cellStyle name="常规 83_ITDM3.2期数据库设计汇总" xfId="591"/>
+    <cellStyle name="常规 78_ITDM3.2期数据库设计汇总" xfId="592"/>
+    <cellStyle name="常规 63 2_ITDM3.2期数据库设计汇总" xfId="593"/>
+    <cellStyle name="常规 58 2_ITDM3.2期数据库设计汇总" xfId="594"/>
+    <cellStyle name="常规 84" xfId="595"/>
+    <cellStyle name="常规 79" xfId="596"/>
+    <cellStyle name="常规 63 3" xfId="597"/>
+    <cellStyle name="常规 58 3" xfId="598"/>
     <cellStyle name="常规 6 2" xfId="599"/>
-    <cellStyle name="常规 6 3" xfId="600"/>
+    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="600"/>
     <cellStyle name="常规 75_ITDM3.2期数据库设计汇总" xfId="601"/>
-    <cellStyle name="常规 80_ITDM3.2期数据库设计汇总" xfId="602"/>
+    <cellStyle name="常规 6 3" xfId="602"/>
     <cellStyle name="常规 6_RWA债项明细" xfId="603"/>
-    <cellStyle name="常规 65 2 2" xfId="604"/>
+    <cellStyle name="常规 97 3" xfId="604"/>
     <cellStyle name="常规 70 2 2" xfId="605"/>
-    <cellStyle name="常规 97 3" xfId="606"/>
-    <cellStyle name="常规 65 3" xfId="607"/>
-    <cellStyle name="常规 70 3" xfId="608"/>
-    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="609"/>
-    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="610"/>
-    <cellStyle name="常规 66 2 2" xfId="611"/>
-    <cellStyle name="常规 71 2 2" xfId="612"/>
-    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="613"/>
-    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="614"/>
-    <cellStyle name="常规 66 3" xfId="615"/>
+    <cellStyle name="常规 65 2 2" xfId="606"/>
+    <cellStyle name="常规 70 3" xfId="607"/>
+    <cellStyle name="常规 65 3" xfId="608"/>
+    <cellStyle name="常规 70_ITDM3.2期数据库设计汇总" xfId="609"/>
+    <cellStyle name="常规 65_ITDM3.2期数据库设计汇总" xfId="610"/>
+    <cellStyle name="常规 71 2 2" xfId="611"/>
+    <cellStyle name="常规 66 2 2" xfId="612"/>
+    <cellStyle name="常规 71 2_ITDM3.2期数据库设计汇总" xfId="613"/>
+    <cellStyle name="常规 66 2_ITDM3.2期数据库设计汇总" xfId="614"/>
+    <cellStyle name="样式 1" xfId="615"/>
     <cellStyle name="常规 71 3" xfId="616"/>
-    <cellStyle name="样式 1" xfId="617"/>
-    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="618"/>
-    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="619"/>
-    <cellStyle name="常规 67 3" xfId="620"/>
-    <cellStyle name="常规 72 3" xfId="621"/>
-    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="622"/>
-    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="623"/>
-    <cellStyle name="常规 68 2 2" xfId="624"/>
-    <cellStyle name="常规 73 2 2" xfId="625"/>
-    <cellStyle name="常规 68 3" xfId="626"/>
-    <cellStyle name="常规 73 3" xfId="627"/>
-    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="628"/>
-    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="629"/>
-    <cellStyle name="常规 69" xfId="630"/>
-    <cellStyle name="常规 74" xfId="631"/>
-    <cellStyle name="常规 69 2" xfId="632"/>
-    <cellStyle name="常规 74 2" xfId="633"/>
-    <cellStyle name="常规 69 2 2" xfId="634"/>
-    <cellStyle name="常规 74 2 2" xfId="635"/>
-    <cellStyle name="常规 69 3" xfId="636"/>
-    <cellStyle name="常规 74 3" xfId="637"/>
+    <cellStyle name="常规 66 3" xfId="617"/>
+    <cellStyle name="常规 72 2_ITDM3.2期数据库设计汇总" xfId="618"/>
+    <cellStyle name="常规 67 2_ITDM3.2期数据库设计汇总" xfId="619"/>
+    <cellStyle name="常规 72 3" xfId="620"/>
+    <cellStyle name="常规 67 3" xfId="621"/>
+    <cellStyle name="常规 72_ITDM3.2期数据库设计汇总" xfId="622"/>
+    <cellStyle name="常规 67_ITDM3.2期数据库设计汇总" xfId="623"/>
+    <cellStyle name="常规 73 2 2" xfId="624"/>
+    <cellStyle name="常规 68 2 2" xfId="625"/>
+    <cellStyle name="常规 73 3" xfId="626"/>
+    <cellStyle name="常规 68 3" xfId="627"/>
+    <cellStyle name="常规 73_ITDM3.2期数据库设计汇总" xfId="628"/>
+    <cellStyle name="常规 68_ITDM3.2期数据库设计汇总" xfId="629"/>
+    <cellStyle name="常规 74" xfId="630"/>
+    <cellStyle name="常规 69" xfId="631"/>
+    <cellStyle name="常规 74 2" xfId="632"/>
+    <cellStyle name="常规 69 2" xfId="633"/>
+    <cellStyle name="常规 74 2 2" xfId="634"/>
+    <cellStyle name="常规 69 2 2" xfId="635"/>
+    <cellStyle name="常规 74 3" xfId="636"/>
+    <cellStyle name="常规 69 3" xfId="637"/>
     <cellStyle name="常规 7" xfId="638"/>
     <cellStyle name="常规 7 2" xfId="639"/>
-    <cellStyle name="常规 75" xfId="640"/>
-    <cellStyle name="常规 80" xfId="641"/>
-    <cellStyle name="常规 75 2" xfId="642"/>
+    <cellStyle name="常规 80" xfId="640"/>
+    <cellStyle name="常规 75" xfId="641"/>
+    <cellStyle name="超链接 19" xfId="642"/>
     <cellStyle name="常规 80 2" xfId="643"/>
-    <cellStyle name="超链接 19" xfId="644"/>
-    <cellStyle name="常规 75 2 2" xfId="645"/>
-    <cellStyle name="常规 80 2 2" xfId="646"/>
-    <cellStyle name="常规 75 3" xfId="647"/>
-    <cellStyle name="常规 80 3" xfId="648"/>
-    <cellStyle name="常规 76" xfId="649"/>
-    <cellStyle name="常规 81" xfId="650"/>
-    <cellStyle name="常规 76 2" xfId="651"/>
-    <cellStyle name="常规 81 2" xfId="652"/>
-    <cellStyle name="常规 76 3" xfId="653"/>
-    <cellStyle name="常规 81 3" xfId="654"/>
-    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="655"/>
-    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="656"/>
-    <cellStyle name="常规 77" xfId="657"/>
-    <cellStyle name="常规 82" xfId="658"/>
-    <cellStyle name="常规 77 2" xfId="659"/>
-    <cellStyle name="常规 82 2" xfId="660"/>
-    <cellStyle name="常规 77 2 2" xfId="661"/>
-    <cellStyle name="常规 82 2 2" xfId="662"/>
-    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="663"/>
-    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="664"/>
-    <cellStyle name="常规 77 3" xfId="665"/>
-    <cellStyle name="常规 82 3" xfId="666"/>
-    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="667"/>
-    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="668"/>
-    <cellStyle name="常规 78 2 2" xfId="669"/>
-    <cellStyle name="常规 83 2 2" xfId="670"/>
-    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="671"/>
-    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="672"/>
-    <cellStyle name="常规 78 3" xfId="673"/>
-    <cellStyle name="常规 83 3" xfId="674"/>
-    <cellStyle name="常规 79 2" xfId="675"/>
-    <cellStyle name="常规 84 2" xfId="676"/>
-    <cellStyle name="常规 79 2 2" xfId="677"/>
-    <cellStyle name="常规 84 2 2" xfId="678"/>
-    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="679"/>
-    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="680"/>
-    <cellStyle name="常规 79 3" xfId="681"/>
-    <cellStyle name="常规 84 3" xfId="682"/>
-    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="683"/>
-    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="684"/>
+    <cellStyle name="常规 75 2" xfId="644"/>
+    <cellStyle name="常规 80 2 2" xfId="645"/>
+    <cellStyle name="常规 75 2 2" xfId="646"/>
+    <cellStyle name="常规 80 3" xfId="647"/>
+    <cellStyle name="常规 75 3" xfId="648"/>
+    <cellStyle name="常规 81" xfId="649"/>
+    <cellStyle name="常规 76" xfId="650"/>
+    <cellStyle name="常规 81 2" xfId="651"/>
+    <cellStyle name="常规 76 2" xfId="652"/>
+    <cellStyle name="常规 81 3" xfId="653"/>
+    <cellStyle name="常规 76 3" xfId="654"/>
+    <cellStyle name="常规 81_ITDM3.2期数据库设计汇总" xfId="655"/>
+    <cellStyle name="常规 76_ITDM3.2期数据库设计汇总" xfId="656"/>
+    <cellStyle name="常规 82" xfId="657"/>
+    <cellStyle name="常规 77" xfId="658"/>
+    <cellStyle name="常规 82 2" xfId="659"/>
+    <cellStyle name="常规 77 2" xfId="660"/>
+    <cellStyle name="常规 82 2 2" xfId="661"/>
+    <cellStyle name="常规 77 2 2" xfId="662"/>
+    <cellStyle name="常规 82 2_ITDM3.2期数据库设计汇总" xfId="663"/>
+    <cellStyle name="常规 77 2_ITDM3.2期数据库设计汇总" xfId="664"/>
+    <cellStyle name="常规 82 3" xfId="665"/>
+    <cellStyle name="常规 77 3" xfId="666"/>
+    <cellStyle name="常规 82_ITDM3.2期数据库设计汇总" xfId="667"/>
+    <cellStyle name="常规 77_ITDM3.2期数据库设计汇总" xfId="668"/>
+    <cellStyle name="常规 83 2 2" xfId="669"/>
+    <cellStyle name="常规 78 2 2" xfId="670"/>
+    <cellStyle name="常规 83 2_ITDM3.2期数据库设计汇总" xfId="671"/>
+    <cellStyle name="常规 78 2_ITDM3.2期数据库设计汇总" xfId="672"/>
+    <cellStyle name="常规 83 3" xfId="673"/>
+    <cellStyle name="常规 78 3" xfId="674"/>
+    <cellStyle name="常规 84 2" xfId="675"/>
+    <cellStyle name="常规 79 2" xfId="676"/>
+    <cellStyle name="常规 84 2 2" xfId="677"/>
+    <cellStyle name="常规 79 2 2" xfId="678"/>
+    <cellStyle name="常规 84 2_ITDM3.2期数据库设计汇总" xfId="679"/>
+    <cellStyle name="常规 79 2_ITDM3.2期数据库设计汇总" xfId="680"/>
+    <cellStyle name="常规 84 3" xfId="681"/>
+    <cellStyle name="常规 79 3" xfId="682"/>
+    <cellStyle name="常规 84_ITDM3.2期数据库设计汇总" xfId="683"/>
+    <cellStyle name="常规 79_ITDM3.2期数据库设计汇总" xfId="684"/>
     <cellStyle name="常规 8" xfId="685"/>
-    <cellStyle name="常规 85 2" xfId="686"/>
-    <cellStyle name="常规 90 2" xfId="687"/>
-    <cellStyle name="常规 85 2 2" xfId="688"/>
-    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="689"/>
-    <cellStyle name="常规 90 2 2" xfId="690"/>
-    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="691"/>
-    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="692"/>
-    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="693"/>
-    <cellStyle name="常规 85 3" xfId="694"/>
-    <cellStyle name="常规 90 3" xfId="695"/>
-    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="696"/>
+    <cellStyle name="常规 90 2" xfId="686"/>
+    <cellStyle name="常规 85 2" xfId="687"/>
+    <cellStyle name="常规 91 2_ITDM3.2期数据库设计汇总" xfId="688"/>
+    <cellStyle name="常规 90 2 2" xfId="689"/>
+    <cellStyle name="常规 86 2_ITDM3.2期数据库设计汇总" xfId="690"/>
+    <cellStyle name="常规 85 2 2" xfId="691"/>
+    <cellStyle name="常规 90 2_ITDM3.2期数据库设计汇总" xfId="692"/>
+    <cellStyle name="常规 85 2_ITDM3.2期数据库设计汇总" xfId="693"/>
+    <cellStyle name="常规 90 3" xfId="694"/>
+    <cellStyle name="常规 85 3" xfId="695"/>
+    <cellStyle name="常规 96 3" xfId="696"/>
     <cellStyle name="常规 90_ITDM3.2期数据库设计汇总" xfId="697"/>
-    <cellStyle name="常规 96 3" xfId="698"/>
-    <cellStyle name="常规 86" xfId="699"/>
-    <cellStyle name="常规 91" xfId="700"/>
-    <cellStyle name="常规 86 2" xfId="701"/>
-    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="702"/>
-    <cellStyle name="常规 91 2" xfId="703"/>
-    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="704"/>
-    <cellStyle name="常规 86 3" xfId="705"/>
-    <cellStyle name="常规 91 3" xfId="706"/>
-    <cellStyle name="常规 87 2" xfId="707"/>
-    <cellStyle name="常规 92 2" xfId="708"/>
-    <cellStyle name="常规 87 2 2" xfId="709"/>
-    <cellStyle name="常规 92 2 2" xfId="710"/>
-    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="711"/>
-    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="712"/>
-    <cellStyle name="常规 87 3" xfId="713"/>
-    <cellStyle name="常规 92 3" xfId="714"/>
-    <cellStyle name="常规 88" xfId="715"/>
-    <cellStyle name="常规 93" xfId="716"/>
-    <cellStyle name="常规 88 2" xfId="717"/>
+    <cellStyle name="常规 85_ITDM3.2期数据库设计汇总" xfId="698"/>
+    <cellStyle name="常规 91" xfId="699"/>
+    <cellStyle name="常规 86" xfId="700"/>
+    <cellStyle name="常规 92_ITDM3.2期数据库设计汇总" xfId="701"/>
+    <cellStyle name="常规 91 2" xfId="702"/>
+    <cellStyle name="常规 87_ITDM3.2期数据库设计汇总" xfId="703"/>
+    <cellStyle name="常规 86 2" xfId="704"/>
+    <cellStyle name="常规 91 3" xfId="705"/>
+    <cellStyle name="常规 86 3" xfId="706"/>
+    <cellStyle name="常规 92 2" xfId="707"/>
+    <cellStyle name="常规 87 2" xfId="708"/>
+    <cellStyle name="常规 92 2 2" xfId="709"/>
+    <cellStyle name="常规 87 2 2" xfId="710"/>
+    <cellStyle name="常规 92 2_ITDM3.2期数据库设计汇总" xfId="711"/>
+    <cellStyle name="常规 87 2_ITDM3.2期数据库设计汇总" xfId="712"/>
+    <cellStyle name="常规 92 3" xfId="713"/>
+    <cellStyle name="常规 87 3" xfId="714"/>
+    <cellStyle name="常规 93" xfId="715"/>
+    <cellStyle name="常规 88" xfId="716"/>
+    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="717"/>
     <cellStyle name="常规 93 2" xfId="718"/>
-    <cellStyle name="好_RDM_RWA_P-F_数据映射_V0.0" xfId="719"/>
-    <cellStyle name="常规 88 2 2" xfId="720"/>
-    <cellStyle name="常规 93 2 2" xfId="721"/>
-    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="722"/>
-    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="723"/>
-    <cellStyle name="常规 88 3" xfId="724"/>
-    <cellStyle name="常规 93 3" xfId="725"/>
-    <cellStyle name="常规 89" xfId="726"/>
-    <cellStyle name="常规 94" xfId="727"/>
-    <cellStyle name="常规 89 2" xfId="728"/>
-    <cellStyle name="常规 94 2" xfId="729"/>
-    <cellStyle name="常规 89 2 2" xfId="730"/>
-    <cellStyle name="常规 94 2 2" xfId="731"/>
-    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="732"/>
-    <cellStyle name="常规 98" xfId="733"/>
-    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="734"/>
-    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="735"/>
-    <cellStyle name="常规 89 3" xfId="736"/>
-    <cellStyle name="常规 94 3" xfId="737"/>
-    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="738"/>
-    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="739"/>
+    <cellStyle name="常规 88 2" xfId="719"/>
+    <cellStyle name="常规 93 2 2" xfId="720"/>
+    <cellStyle name="常规 88 2 2" xfId="721"/>
+    <cellStyle name="常规 93 2_ITDM3.2期数据库设计汇总" xfId="722"/>
+    <cellStyle name="常规 88 2_ITDM3.2期数据库设计汇总" xfId="723"/>
+    <cellStyle name="常规 93 3" xfId="724"/>
+    <cellStyle name="常规 88 3" xfId="725"/>
+    <cellStyle name="常规 94" xfId="726"/>
+    <cellStyle name="常规 89" xfId="727"/>
+    <cellStyle name="常规 94 2" xfId="728"/>
+    <cellStyle name="常规 89 2" xfId="729"/>
+    <cellStyle name="常规 98" xfId="730"/>
+    <cellStyle name="常规 97_ITDM3.2期数据库设计汇总" xfId="731"/>
+    <cellStyle name="常规 94 2 2" xfId="732"/>
+    <cellStyle name="常规 89 2 2" xfId="733"/>
+    <cellStyle name="常规 94 2_ITDM3.2期数据库设计汇总" xfId="734"/>
+    <cellStyle name="常规 89 2_ITDM3.2期数据库设计汇总" xfId="735"/>
+    <cellStyle name="常规 94 3" xfId="736"/>
+    <cellStyle name="常规 89 3" xfId="737"/>
+    <cellStyle name="常规 94_ITDM3.2期数据库设计汇总" xfId="738"/>
+    <cellStyle name="常规 89_ITDM3.2期数据库设计汇总" xfId="739"/>
     <cellStyle name="常规 9" xfId="740"/>
     <cellStyle name="常规 9 2" xfId="741"/>
     <cellStyle name="常规 95" xfId="742"/>
     <cellStyle name="常规 95 2" xfId="743"/>
-    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="744"/>
-    <cellStyle name="常规 95 3" xfId="745"/>
+    <cellStyle name="常规 95 3" xfId="744"/>
+    <cellStyle name="常规 95 2_ITDM3.2期数据库设计汇总" xfId="745"/>
     <cellStyle name="常规 96 2" xfId="746"/>
     <cellStyle name="常规 96 2 2" xfId="747"/>
     <cellStyle name="常规 96_ITDM3.2期数据库设计汇总" xfId="748"/>
@@ -5379,17 +5406,17 @@
     <cellStyle name="超链接 12" xfId="764"/>
     <cellStyle name="超链接 13" xfId="765"/>
     <cellStyle name="超链接 14" xfId="766"/>
-    <cellStyle name="超链接 16" xfId="767"/>
-    <cellStyle name="超链接 21" xfId="768"/>
-    <cellStyle name="超链接 17" xfId="769"/>
-    <cellStyle name="超链接 22" xfId="770"/>
+    <cellStyle name="超链接 21" xfId="767"/>
+    <cellStyle name="超链接 16" xfId="768"/>
+    <cellStyle name="超链接 22" xfId="769"/>
+    <cellStyle name="超链接 17" xfId="770"/>
     <cellStyle name="超链接 18" xfId="771"/>
-    <cellStyle name="超链接 2" xfId="772"/>
-    <cellStyle name="好_Sheet1" xfId="773"/>
-    <cellStyle name="超链接 3" xfId="774"/>
-    <cellStyle name="好_Sheet2" xfId="775"/>
-    <cellStyle name="超链接 4" xfId="776"/>
-    <cellStyle name="好_Sheet3" xfId="777"/>
+    <cellStyle name="好_Sheet1" xfId="772"/>
+    <cellStyle name="超链接 2" xfId="773"/>
+    <cellStyle name="好_Sheet2" xfId="774"/>
+    <cellStyle name="超链接 3" xfId="775"/>
+    <cellStyle name="好_Sheet3" xfId="776"/>
+    <cellStyle name="超链接 4" xfId="777"/>
     <cellStyle name="超链接 7" xfId="778"/>
     <cellStyle name="超链接 8" xfId="779"/>
     <cellStyle name="好_Sheet1 2" xfId="780"/>
@@ -6491,15 +6518,15 @@
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6333333333333" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="14.6363636363636" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" style="23" customWidth="1"/>
+    <col min="1" max="1" width="11.1363636363636" style="23" customWidth="1"/>
     <col min="2" max="2" width="8" style="23" customWidth="1"/>
-    <col min="3" max="4" width="14.6333333333333" style="23"/>
-    <col min="5" max="5" width="7.63333333333333" style="23" customWidth="1"/>
+    <col min="3" max="4" width="14.6363636363636" style="23"/>
+    <col min="5" max="5" width="7.63636363636364" style="23" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="23" customWidth="1"/>
-    <col min="7" max="7" width="10.1333333333333" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="14.6333333333333" style="23"/>
+    <col min="7" max="7" width="10.1363636363636" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="14.6363636363636" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6964,13 +6991,13 @@
       <selection activeCell="A7" sqref="$A7:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.25" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="30.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7121,7 +7148,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="28" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>109</v>
       </c>
@@ -7161,13 +7188,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="28.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7356,13 +7383,13 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="34.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7740,16 +7767,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.775" customWidth="1"/>
-    <col min="2" max="2" width="28.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="28.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="23.7727272727273" customWidth="1"/>
+    <col min="2" max="2" width="28.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="14.8909090909091" customWidth="1"/>
+    <col min="4" max="4" width="17.5545454545455" customWidth="1"/>
+    <col min="5" max="5" width="28.1090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7884,13 +7911,13 @@
       <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.1333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="30.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8128,16 +8155,16 @@
       <selection activeCell="A7" sqref="A7:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.1333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.3833333333333" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="20.3818181818182" customWidth="1"/>
+    <col min="2" max="2" width="18.1363636363636" customWidth="1"/>
+    <col min="3" max="3" width="19.3818181818182" customWidth="1"/>
+    <col min="4" max="4" width="15.7545454545455" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8254,7 +8281,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="28" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -8294,16 +8321,16 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" customWidth="1"/>
-    <col min="2" max="2" width="22.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="17.6333333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="18.1363636363636" customWidth="1"/>
+    <col min="2" max="2" width="22.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="17.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="19.2545454545455" customWidth="1"/>
+    <col min="5" max="5" width="32.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8645,16 +8672,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="23.3833333333333" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="23.3818181818182" customWidth="1"/>
+    <col min="2" max="2" width="18.2545454545455" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="32.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.2545454545455" customWidth="1"/>
+    <col min="5" max="5" width="32.8818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8811,13 +8838,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.3833333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="30.3818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8934,7 +8961,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="28" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -8974,15 +9001,15 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="3" width="23.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.7545454545455" customWidth="1"/>
+    <col min="3" max="3" width="23.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9171,16 +9198,16 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.6333333333333" defaultRowHeight="11.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="17.6363636363636" defaultRowHeight="12" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="36.3833333333333" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.8833333333333" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.3833333333333" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="17.6333333333333" style="16"/>
+    <col min="1" max="1" width="36.3818181818182" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.8818181818182" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.3818181818182" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="17.6363636363636" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9194,7 +9221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" ht="14" spans="1:3">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -9205,7 +9232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" ht="14" spans="1:3">
       <c r="A3" s="19" t="s">
         <v>21</v>
       </c>
@@ -9216,7 +9243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
+    <row r="4" ht="14" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>23</v>
       </c>
@@ -9227,7 +9254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
+    <row r="5" ht="14" spans="1:3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
@@ -9238,7 +9265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
+    <row r="6" ht="14" spans="1:3">
       <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
@@ -9249,7 +9276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:3">
+    <row r="7" ht="14" spans="1:3">
       <c r="A7" s="19" t="s">
         <v>29</v>
       </c>
@@ -9260,7 +9287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
+    <row r="8" ht="14" spans="1:3">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -9271,7 +9298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:3">
+    <row r="9" ht="14" spans="1:3">
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
@@ -9282,7 +9309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:3">
+    <row r="10" ht="14" spans="1:3">
       <c r="A10" s="19" t="s">
         <v>35</v>
       </c>
@@ -9293,7 +9320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:3">
+    <row r="11" ht="14" spans="1:3">
       <c r="A11" s="19" t="s">
         <v>37</v>
       </c>
@@ -9304,7 +9331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:3">
+    <row r="12" ht="14" spans="1:3">
       <c r="A12" s="19" t="s">
         <v>39</v>
       </c>
@@ -9315,7 +9342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:3">
+    <row r="13" ht="14" spans="1:3">
       <c r="A13" s="19" t="s">
         <v>41</v>
       </c>
@@ -9326,7 +9353,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:3">
+    <row r="14" ht="14" spans="1:3">
       <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
@@ -9337,7 +9364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:3">
+    <row r="15" ht="14" spans="1:3">
       <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
@@ -9348,7 +9375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:3">
+    <row r="16" ht="14" spans="1:3">
       <c r="A16" s="19" t="s">
         <v>47</v>
       </c>
@@ -9359,7 +9386,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:3">
+    <row r="17" ht="14" spans="1:3">
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
@@ -9370,7 +9397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:3">
+    <row r="18" ht="14" spans="1:3">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -9381,7 +9408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:3">
+    <row r="19" ht="14" spans="1:3">
       <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
@@ -9392,7 +9419,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:3">
+    <row r="20" ht="14" spans="1:3">
       <c r="A20" s="19" t="s">
         <v>55</v>
       </c>
@@ -9403,7 +9430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:3">
+    <row r="21" ht="14" spans="1:3">
       <c r="A21" s="19" t="s">
         <v>57</v>
       </c>
@@ -9414,7 +9441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:3">
+    <row r="22" ht="14" spans="1:3">
       <c r="A22" s="19" t="s">
         <v>59</v>
       </c>
@@ -9425,7 +9452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:3">
+    <row r="23" ht="14" spans="1:3">
       <c r="A23" s="19" t="s">
         <v>61</v>
       </c>
@@ -9436,7 +9463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:3">
+    <row r="24" ht="14" spans="1:3">
       <c r="A24" s="19" t="s">
         <v>63</v>
       </c>
@@ -9447,7 +9474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:3">
+    <row r="25" ht="14" spans="1:3">
       <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
@@ -9458,7 +9485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="1:3">
+    <row r="26" ht="14" spans="1:3">
       <c r="A26" s="19" t="s">
         <v>67</v>
       </c>
@@ -9469,7 +9496,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:3">
+    <row r="27" ht="14" spans="1:3">
       <c r="A27" s="19" t="s">
         <v>69</v>
       </c>
@@ -9480,7 +9507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" ht="14.25" spans="1:3">
+    <row r="28" ht="14" spans="1:3">
       <c r="A28" s="19" t="s">
         <v>71</v>
       </c>
@@ -9491,7 +9518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" ht="14.25" spans="1:3">
+    <row r="29" ht="14" spans="1:3">
       <c r="A29" s="19" t="s">
         <v>73</v>
       </c>
@@ -9502,7 +9529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" ht="14.25" spans="1:3">
+    <row r="30" ht="14" spans="1:3">
       <c r="A30" s="19" t="s">
         <v>75</v>
       </c>
@@ -9513,7 +9540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" ht="14.25" spans="1:3">
+    <row r="31" ht="14" spans="1:3">
       <c r="A31" s="19" t="s">
         <v>77</v>
       </c>
@@ -9579,15 +9606,15 @@
       <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="26.6333333333333" customWidth="1"/>
-    <col min="2" max="3" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="26.6363636363636" customWidth="1"/>
+    <col min="2" max="3" width="16.2545454545455" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9687,7 +9714,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" ht="28" spans="1:5">
       <c r="A7" s="5" t="s">
         <v>109</v>
       </c>
@@ -9808,15 +9835,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="54.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="54.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10054,13 +10081,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10194,7 +10221,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="28" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>109</v>
       </c>
@@ -10234,16 +10261,16 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="34.25" customWidth="1"/>
+    <col min="2" max="2" width="19.2545454545455" customWidth="1"/>
+    <col min="3" max="3" width="13.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="14.1363636363636" customWidth="1"/>
+    <col min="5" max="5" width="34.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10366,13 +10393,13 @@
       <selection activeCell="A8" sqref="$A8:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="31.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="31.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10600,14 +10627,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="20.6333333333333" customWidth="1"/>
+    <col min="4" max="5" width="20.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10764,15 +10791,15 @@
       <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10889,7 +10916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="28" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -11027,13 +11054,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11456,7 +11483,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="28" spans="1:5">
       <c r="A26" s="5" t="s">
         <v>109</v>
       </c>
@@ -11492,18 +11519,18 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.75" customWidth="1"/>
-    <col min="2" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="36.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="25.7545454545455" customWidth="1"/>
+    <col min="2" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="36.8818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11688,7 +11715,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="28" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>426</v>
       </c>
@@ -11796,16 +11823,16 @@
       <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="26.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="12.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="26.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="26.8818181818182" customWidth="1"/>
+    <col min="3" max="3" width="18.7545454545455" customWidth="1"/>
+    <col min="4" max="4" width="12.8818181818182" customWidth="1"/>
+    <col min="5" max="5" width="26.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11979,13 +12006,13 @@
       <selection activeCell="A9" sqref="$A9:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="32.1333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="32.1363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12221,19 +12248,19 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12338,10 +12365,10 @@
         <v>443</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>89</v>
@@ -12350,54 +12377,122 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="5">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:5">
+      <c r="A10" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="D12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C13" s="9">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -12424,9 +12519,9 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12481,7 +12576,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>88</v>
@@ -12493,7 +12588,7 @@
         <v>85</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -12510,12 +12605,12 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>88</v>
@@ -12527,12 +12622,12 @@
         <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12544,12 +12639,12 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>88</v>
@@ -12561,12 +12656,12 @@
         <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>88</v>
@@ -12578,7 +12673,7 @@
         <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -12600,7 +12695,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>88</v>
@@ -12617,7 +12712,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>263</v>
@@ -12629,7 +12724,7 @@
         <v>85</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12646,12 +12741,12 @@
         <v>85</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>263</v>
@@ -12663,7 +12758,7 @@
         <v>89</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -12680,7 +12775,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -12740,15 +12835,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="2" width="20.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="29.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="29.8818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12811,12 +12906,12 @@
         <v>89</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>88</v>
@@ -12828,7 +12923,7 @@
         <v>89</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12850,7 +12945,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>88</v>
@@ -12862,10 +12957,10 @@
         <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>109</v>
       </c>
@@ -12905,13 +13000,13 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13219,13 +13314,13 @@
       <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="30.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13427,7 +13522,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="28" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>148</v>
       </c>
@@ -13467,13 +13562,13 @@
       <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="34.8833333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="34.8818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13749,13 +13844,13 @@
       <selection activeCell="A19" sqref="$A19:$XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="39.25" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="39.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14191,7 +14286,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:5">
+    <row r="27" ht="28" spans="1:5">
       <c r="A27" s="5" t="s">
         <v>191</v>
       </c>
@@ -14208,7 +14303,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:5">
+    <row r="28" ht="28" spans="1:5">
       <c r="A28" s="5" t="s">
         <v>193</v>
       </c>
@@ -14334,13 +14429,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14854,13 +14949,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="20.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="1" max="4" width="20.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="30.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15096,7 +15191,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" ht="28" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>109</v>
       </c>
